--- a/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
   <si>
     <t>交易计划</t>
   </si>
@@ -833,6 +833,32 @@
     <t>003040(楚天龙)</t>
   </si>
   <si>
+    <t>200日均线：向上
+150日均线：向上
+  50日均线：向上</t>
+  </si>
+  <si>
+    <t>24w</t>
+  </si>
+  <si>
+    <t>5T</t>
+  </si>
+  <si>
+    <t>成交量先随价格收缩逐级减少，然后随价格收缩放量</t>
+  </si>
+  <si>
+    <t>不宜入场</t>
+  </si>
+  <si>
+    <t>没注意随着价格的收缩成交量放量，导致入场过早</t>
+  </si>
+  <si>
+    <t>000002</t>
+  </si>
+  <si>
+    <t>600085(同仁堂)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -891,27 +917,6 @@
     </r>
   </si>
   <si>
-    <t>24w</t>
-  </si>
-  <si>
-    <t>5T</t>
-  </si>
-  <si>
-    <t>成交量先随价格收缩逐级减少，然后随价格收缩放量</t>
-  </si>
-  <si>
-    <t>不宜入场</t>
-  </si>
-  <si>
-    <t>没注意随着价格的收缩成交量放量，导致入场过早</t>
-  </si>
-  <si>
-    <t>000002</t>
-  </si>
-  <si>
-    <t>600085(同仁堂)</t>
-  </si>
-  <si>
     <t>4T</t>
   </si>
   <si>
@@ -934,6 +939,93 @@
   </si>
   <si>
     <t>成交量一直随价格收缩逐级减少，最后随着价格收缩期间空头几乎被榨干</t>
+  </si>
+  <si>
+    <t>000004</t>
+  </si>
+  <si>
+    <t>002932(明德生物)</t>
+  </si>
+  <si>
+    <r>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日均线：向上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日均线：向上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+  50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日均线：向上</t>
+    </r>
+  </si>
+  <si>
+    <t>12w</t>
+  </si>
+  <si>
+    <t>成交量先随价格收缩至几乎被榨干，然后随价格收缩有些许放量，最后又收缩至几乎榨干状态</t>
   </si>
   <si>
     <t>000005</t>
@@ -978,9 +1070,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>12w</t>
   </si>
   <si>
     <t>000014</t>
@@ -1294,11 +1383,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -1417,10 +1506,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1431,9 +1528,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1447,24 +1543,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1479,28 +1567,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -1510,7 +1576,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1523,16 +1589,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1546,8 +1604,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1590,19 +1679,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1632,7 +1721,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1650,49 +1787,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1704,55 +1835,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1770,25 +1859,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1800,24 +1871,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1865,44 +1954,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1913,39 +1974,7 @@
       <top style="thin">
         <color indexed="14"/>
       </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1971,9 +2000,7 @@
       <top style="thin">
         <color indexed="14"/>
       </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2023,6 +2050,19 @@
       <left style="thin">
         <color indexed="14"/>
       </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -2038,35 +2078,7 @@
       <top style="thin">
         <color indexed="14"/>
       </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2075,6 +2087,39 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2096,39 +2141,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2148,22 +2165,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2172,97 +2184,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2271,53 +2283,53 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2327,61 +2339,61 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2393,145 +2405,142 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2540,55 +2549,46 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2597,7 +2597,25 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2609,31 +2627,40 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -3804,14 +3831,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:DE560"/>
+  <dimension ref="A1:DE562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BL2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="BN5" sqref="BN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3853,131 +3880,131 @@
   </cols>
   <sheetData>
     <row r="1" ht="23.6" spans="1:109">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="70" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="AV1" s="70"/>
-      <c r="AW1" s="70"/>
-      <c r="AX1" s="70"/>
-      <c r="AY1" s="70"/>
-      <c r="AZ1" s="70"/>
-      <c r="BA1" s="70"/>
-      <c r="BB1" s="70"/>
-      <c r="BC1" s="70"/>
-      <c r="BD1" s="70"/>
-      <c r="BE1" s="91" t="s">
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="69"/>
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="69"/>
+      <c r="AZ1" s="69"/>
+      <c r="BA1" s="69"/>
+      <c r="BB1" s="69"/>
+      <c r="BC1" s="69"/>
+      <c r="BD1" s="69"/>
+      <c r="BE1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="BF1" s="91"/>
-      <c r="BG1" s="91"/>
-      <c r="BH1" s="91"/>
-      <c r="BI1" s="91"/>
-      <c r="BJ1" s="91"/>
-      <c r="BK1" s="91"/>
-      <c r="BL1" s="91"/>
-      <c r="BM1" s="91"/>
-      <c r="BN1" s="94" t="s">
+      <c r="BF1" s="87"/>
+      <c r="BG1" s="87"/>
+      <c r="BH1" s="87"/>
+      <c r="BI1" s="87"/>
+      <c r="BJ1" s="87"/>
+      <c r="BK1" s="87"/>
+      <c r="BL1" s="87"/>
+      <c r="BM1" s="87"/>
+      <c r="BN1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="BO1" s="94"/>
-      <c r="BP1" s="94"/>
-      <c r="BQ1" s="101"/>
-      <c r="BR1" s="101"/>
-      <c r="BS1" s="101"/>
-      <c r="BT1" s="101"/>
-      <c r="BU1" s="101"/>
-      <c r="BV1" s="101"/>
-      <c r="BW1" s="101"/>
-      <c r="BX1" s="101"/>
-      <c r="BZ1" s="102"/>
-      <c r="CA1" s="102"/>
-      <c r="CB1" s="102"/>
-      <c r="CC1" s="102"/>
-      <c r="CD1" s="102"/>
-      <c r="CE1" s="102"/>
-      <c r="CF1" s="102"/>
-      <c r="CG1" s="102"/>
-      <c r="CI1" s="102"/>
-      <c r="CJ1" s="102"/>
-      <c r="CK1" s="102"/>
-      <c r="CL1" s="102"/>
-      <c r="CM1" s="102"/>
-      <c r="CN1" s="102"/>
-      <c r="CO1" s="102"/>
-      <c r="CQ1" s="102"/>
-      <c r="CR1" s="102"/>
-      <c r="CS1" s="102"/>
-      <c r="CT1" s="102"/>
-      <c r="CU1" s="102"/>
-      <c r="CV1" s="102"/>
-      <c r="CW1" s="102"/>
-      <c r="CY1" s="102"/>
-      <c r="CZ1" s="102"/>
-      <c r="DA1" s="102"/>
-      <c r="DB1" s="102"/>
-      <c r="DC1" s="102"/>
-      <c r="DD1" s="102"/>
-      <c r="DE1" s="102"/>
+      <c r="BO1" s="96"/>
+      <c r="BP1" s="96"/>
+      <c r="BQ1" s="104"/>
+      <c r="BR1" s="104"/>
+      <c r="BS1" s="104"/>
+      <c r="BT1" s="104"/>
+      <c r="BU1" s="104"/>
+      <c r="BV1" s="104"/>
+      <c r="BW1" s="104"/>
+      <c r="BX1" s="104"/>
+      <c r="BZ1" s="106"/>
+      <c r="CA1" s="106"/>
+      <c r="CB1" s="106"/>
+      <c r="CC1" s="106"/>
+      <c r="CD1" s="106"/>
+      <c r="CE1" s="106"/>
+      <c r="CF1" s="106"/>
+      <c r="CG1" s="106"/>
+      <c r="CI1" s="106"/>
+      <c r="CJ1" s="106"/>
+      <c r="CK1" s="106"/>
+      <c r="CL1" s="106"/>
+      <c r="CM1" s="106"/>
+      <c r="CN1" s="106"/>
+      <c r="CO1" s="106"/>
+      <c r="CQ1" s="106"/>
+      <c r="CR1" s="106"/>
+      <c r="CS1" s="106"/>
+      <c r="CT1" s="106"/>
+      <c r="CU1" s="106"/>
+      <c r="CV1" s="106"/>
+      <c r="CW1" s="106"/>
+      <c r="CY1" s="106"/>
+      <c r="CZ1" s="106"/>
+      <c r="DA1" s="106"/>
+      <c r="DB1" s="106"/>
+      <c r="DC1" s="106"/>
+      <c r="DD1" s="106"/>
+      <c r="DE1" s="106"/>
     </row>
     <row r="2" ht="23.6" spans="1:109">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="25" t="s">
@@ -3992,10 +4019,10 @@
       <c r="H2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="34" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="25" t="s">
@@ -4058,127 +4085,127 @@
       <c r="AR2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="AS2" s="71" t="s">
+      <c r="AS2" s="70" t="s">
         <v>27</v>
       </c>
       <c r="AT2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AU2" s="72" t="s">
+      <c r="AU2" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="AV2" s="73" t="s">
+      <c r="AV2" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="AW2" s="73" t="s">
+      <c r="AW2" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="AX2" s="73" t="s">
+      <c r="AX2" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="AY2" s="73" t="s">
+      <c r="AY2" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="AZ2" s="73" t="s">
+      <c r="AZ2" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="BA2" s="73" t="s">
+      <c r="BA2" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="BB2" s="73" t="s">
+      <c r="BB2" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="BC2" s="73" t="s">
+      <c r="BC2" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="BD2" s="73" t="s">
+      <c r="BD2" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="BE2" s="92" t="s">
+      <c r="BE2" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="BF2" s="92" t="s">
+      <c r="BF2" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="BG2" s="92" t="s">
+      <c r="BG2" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="BH2" s="92" t="s">
+      <c r="BH2" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="BI2" s="92" t="s">
+      <c r="BI2" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="BJ2" s="92" t="s">
+      <c r="BJ2" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="BK2" s="92" t="s">
+      <c r="BK2" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="BL2" s="92" t="s">
+      <c r="BL2" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="BM2" s="92" t="s">
+      <c r="BM2" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="BN2" s="95" t="s">
+      <c r="BN2" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="BO2" s="95" t="s">
+      <c r="BO2" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="BP2" s="96" t="s">
+      <c r="BP2" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="BQ2" s="101"/>
-      <c r="BR2" s="101"/>
-      <c r="BS2" s="101"/>
-      <c r="BT2" s="101"/>
-      <c r="BU2" s="101"/>
-      <c r="BV2" s="101"/>
-      <c r="BW2" s="101"/>
-      <c r="BX2" s="101"/>
-      <c r="BZ2" s="102"/>
-      <c r="CA2" s="102"/>
-      <c r="CB2" s="102"/>
-      <c r="CC2" s="102"/>
-      <c r="CD2" s="102"/>
-      <c r="CE2" s="102"/>
-      <c r="CF2" s="102"/>
-      <c r="CG2" s="102"/>
-      <c r="CI2" s="102"/>
-      <c r="CJ2" s="102"/>
-      <c r="CK2" s="102"/>
-      <c r="CL2" s="102"/>
-      <c r="CM2" s="102"/>
-      <c r="CN2" s="102"/>
-      <c r="CO2" s="102"/>
-      <c r="CQ2" s="102"/>
-      <c r="CR2" s="102"/>
-      <c r="CS2" s="102"/>
-      <c r="CT2" s="102"/>
-      <c r="CU2" s="102"/>
-      <c r="CV2" s="102"/>
-      <c r="CW2" s="102"/>
-      <c r="CY2" s="102"/>
-      <c r="CZ2" s="102"/>
-      <c r="DA2" s="102"/>
-      <c r="DB2" s="102"/>
-      <c r="DC2" s="102"/>
-      <c r="DD2" s="102"/>
-      <c r="DE2" s="102"/>
+      <c r="BQ2" s="104"/>
+      <c r="BR2" s="104"/>
+      <c r="BS2" s="104"/>
+      <c r="BT2" s="104"/>
+      <c r="BU2" s="104"/>
+      <c r="BV2" s="104"/>
+      <c r="BW2" s="104"/>
+      <c r="BX2" s="104"/>
+      <c r="BZ2" s="106"/>
+      <c r="CA2" s="106"/>
+      <c r="CB2" s="106"/>
+      <c r="CC2" s="106"/>
+      <c r="CD2" s="106"/>
+      <c r="CE2" s="106"/>
+      <c r="CF2" s="106"/>
+      <c r="CG2" s="106"/>
+      <c r="CI2" s="106"/>
+      <c r="CJ2" s="106"/>
+      <c r="CK2" s="106"/>
+      <c r="CL2" s="106"/>
+      <c r="CM2" s="106"/>
+      <c r="CN2" s="106"/>
+      <c r="CO2" s="106"/>
+      <c r="CQ2" s="106"/>
+      <c r="CR2" s="106"/>
+      <c r="CS2" s="106"/>
+      <c r="CT2" s="106"/>
+      <c r="CU2" s="106"/>
+      <c r="CV2" s="106"/>
+      <c r="CW2" s="106"/>
+      <c r="CY2" s="106"/>
+      <c r="CZ2" s="106"/>
+      <c r="DA2" s="106"/>
+      <c r="DB2" s="106"/>
+      <c r="DC2" s="106"/>
+      <c r="DD2" s="106"/>
+      <c r="DE2" s="106"/>
     </row>
     <row r="3" ht="48" spans="1:109">
-      <c r="A3" s="6"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="28"/>
       <c r="H3" s="27"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
@@ -4259,1224 +4286,1277 @@
       <c r="AP3" s="27"/>
       <c r="AQ3" s="27"/>
       <c r="AR3" s="27"/>
-      <c r="AS3" s="74"/>
+      <c r="AS3" s="73"/>
       <c r="AT3" s="27"/>
-      <c r="AU3" s="75"/>
-      <c r="AV3" s="76"/>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="73"/>
-      <c r="BB3" s="73"/>
-      <c r="BC3" s="73"/>
-      <c r="BD3" s="76"/>
-      <c r="BE3" s="92"/>
-      <c r="BF3" s="93"/>
-      <c r="BG3" s="92"/>
-      <c r="BH3" s="93"/>
-      <c r="BI3" s="93"/>
-      <c r="BJ3" s="93"/>
-      <c r="BK3" s="92"/>
-      <c r="BL3" s="92"/>
-      <c r="BM3" s="93"/>
-      <c r="BN3" s="97"/>
-      <c r="BO3" s="98"/>
-      <c r="BP3" s="99"/>
-      <c r="BQ3" s="101"/>
-      <c r="BR3" s="101"/>
-      <c r="BS3" s="101"/>
-      <c r="BT3" s="101"/>
-      <c r="BU3" s="101"/>
-      <c r="BV3" s="101"/>
-      <c r="BW3" s="101"/>
-      <c r="BX3" s="101"/>
-      <c r="BZ3" s="102"/>
-      <c r="CA3" s="102"/>
-      <c r="CB3" s="102"/>
-      <c r="CC3" s="102"/>
-      <c r="CD3" s="102"/>
-      <c r="CE3" s="102"/>
-      <c r="CF3" s="102"/>
-      <c r="CG3" s="102"/>
-      <c r="CI3" s="102"/>
-      <c r="CJ3" s="102"/>
-      <c r="CK3" s="102"/>
-      <c r="CL3" s="102"/>
-      <c r="CM3" s="102"/>
-      <c r="CN3" s="102"/>
-      <c r="CO3" s="102"/>
-      <c r="CQ3" s="102"/>
-      <c r="CR3" s="102"/>
-      <c r="CS3" s="102"/>
-      <c r="CT3" s="102"/>
-      <c r="CU3" s="102"/>
-      <c r="CV3" s="102"/>
-      <c r="CW3" s="102"/>
-      <c r="CY3" s="102"/>
-      <c r="CZ3" s="102"/>
-      <c r="DA3" s="102"/>
-      <c r="DB3" s="102"/>
-      <c r="DC3" s="102"/>
-      <c r="DD3" s="102"/>
-      <c r="DE3" s="102"/>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="38" spans="1:68">
-      <c r="A4" s="103" t="s">
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="75"/>
+      <c r="AW3" s="81"/>
+      <c r="AX3" s="81"/>
+      <c r="AY3" s="81"/>
+      <c r="AZ3" s="81"/>
+      <c r="BA3" s="81"/>
+      <c r="BB3" s="81"/>
+      <c r="BC3" s="81"/>
+      <c r="BD3" s="75"/>
+      <c r="BE3" s="89"/>
+      <c r="BF3" s="90"/>
+      <c r="BG3" s="89"/>
+      <c r="BH3" s="90"/>
+      <c r="BI3" s="90"/>
+      <c r="BJ3" s="90"/>
+      <c r="BK3" s="89"/>
+      <c r="BL3" s="89"/>
+      <c r="BM3" s="90"/>
+      <c r="BN3" s="99"/>
+      <c r="BO3" s="100"/>
+      <c r="BP3" s="101"/>
+      <c r="BQ3" s="104"/>
+      <c r="BR3" s="104"/>
+      <c r="BS3" s="104"/>
+      <c r="BT3" s="104"/>
+      <c r="BU3" s="104"/>
+      <c r="BV3" s="104"/>
+      <c r="BW3" s="104"/>
+      <c r="BX3" s="104"/>
+      <c r="BZ3" s="106"/>
+      <c r="CA3" s="106"/>
+      <c r="CB3" s="106"/>
+      <c r="CC3" s="106"/>
+      <c r="CD3" s="106"/>
+      <c r="CE3" s="106"/>
+      <c r="CF3" s="106"/>
+      <c r="CG3" s="106"/>
+      <c r="CI3" s="106"/>
+      <c r="CJ3" s="106"/>
+      <c r="CK3" s="106"/>
+      <c r="CL3" s="106"/>
+      <c r="CM3" s="106"/>
+      <c r="CN3" s="106"/>
+      <c r="CO3" s="106"/>
+      <c r="CQ3" s="106"/>
+      <c r="CR3" s="106"/>
+      <c r="CS3" s="106"/>
+      <c r="CT3" s="106"/>
+      <c r="CU3" s="106"/>
+      <c r="CV3" s="106"/>
+      <c r="CW3" s="106"/>
+      <c r="CY3" s="106"/>
+      <c r="CZ3" s="106"/>
+      <c r="DA3" s="106"/>
+      <c r="DB3" s="106"/>
+      <c r="DC3" s="106"/>
+      <c r="DD3" s="106"/>
+      <c r="DE3" s="106"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="23.6" spans="1:109">
+      <c r="A4" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="14">
         <v>44517</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="16">
         <v>22.15</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="16">
         <v>23.55</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="16">
         <v>24.52</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="16">
         <v>25.7</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="16">
         <v>5.46</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="16">
         <v>46.33</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="37">
         <f>(H4-I4)/I4</f>
         <v>3.70695970695971</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="37">
         <f>(J4-H4)/J4</f>
         <v>0.445283833369307</v>
       </c>
       <c r="M4" s="45"/>
-      <c r="N4" s="29">
+      <c r="N4" s="16">
         <v>20.79</v>
       </c>
-      <c r="O4" s="29">
+      <c r="O4" s="16">
         <v>29.8</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4" s="16">
         <v>21.88</v>
       </c>
-      <c r="Q4" s="29">
+      <c r="Q4" s="16">
         <v>26.5</v>
       </c>
-      <c r="R4" s="29">
+      <c r="R4" s="16">
         <v>22.1</v>
       </c>
-      <c r="S4" s="29">
+      <c r="S4" s="16">
         <v>26.4</v>
       </c>
-      <c r="T4" s="29">
+      <c r="T4" s="16">
         <v>24</v>
       </c>
-      <c r="U4" s="45">
+      <c r="U4" s="13">
         <v>26.2</v>
       </c>
-      <c r="V4" s="45">
+      <c r="V4" s="13">
         <v>24.52</v>
       </c>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
       <c r="Y4" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Z4" s="39">
+      <c r="Z4" s="37">
         <f>(J4-N4)/J4</f>
         <v>0.551262680768401</v>
       </c>
-      <c r="AA4" s="39">
+      <c r="AA4" s="37">
         <f>(O4-P4)/O4</f>
         <v>0.265771812080537</v>
       </c>
-      <c r="AB4" s="39">
+      <c r="AB4" s="37">
         <f>(Q4-R4)/Q4</f>
         <v>0.166037735849057</v>
       </c>
-      <c r="AC4" s="39">
+      <c r="AC4" s="37">
         <f>(S4-T4)/S4</f>
         <v>0.0909090909090909</v>
       </c>
-      <c r="AD4" s="39">
+      <c r="AD4" s="37">
         <f>(U4-V4)/U4</f>
         <v>0.0641221374045801</v>
       </c>
-      <c r="AE4" s="45"/>
+      <c r="AE4" s="46"/>
       <c r="AF4" s="47" t="s">
         <v>78</v>
       </c>
       <c r="AG4" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="AH4" s="29">
+      <c r="AH4" s="16">
         <v>28.15</v>
       </c>
-      <c r="AI4" s="29">
+      <c r="AI4" s="16">
         <v>21.87</v>
       </c>
-      <c r="AJ4" s="59">
+      <c r="AJ4" s="16">
         <f>AH4-AI4</f>
         <v>6.28</v>
       </c>
-      <c r="AK4" s="29">
+      <c r="AK4" s="16">
         <v>26.2</v>
       </c>
-      <c r="AL4" s="29">
+      <c r="AL4" s="16">
         <v>24.68</v>
       </c>
-      <c r="AM4" s="29">
+      <c r="AM4" s="16">
         <v>32.49</v>
       </c>
-      <c r="AN4" s="29">
+      <c r="AN4" s="16">
         <f>(AK4-AL4)*100</f>
         <v>152</v>
       </c>
-      <c r="AO4" s="29">
-        <v>200</v>
-      </c>
-      <c r="AP4" s="66">
+      <c r="AO4" s="16">
+        <f>FLOOR(300/(AK4-AL4),100)</f>
+        <v>100</v>
+      </c>
+      <c r="AP4" s="65">
         <f>(AM4-AK4)/(AK4-AL4)</f>
         <v>4.13815789473685</v>
       </c>
-      <c r="AQ4" s="39">
+      <c r="AQ4" s="37">
         <f>(AK4-AL4)/AK4</f>
         <v>0.0580152671755725</v>
       </c>
-      <c r="AR4" s="39">
+      <c r="AR4" s="37">
         <f>(AM4-AK4)/AK4</f>
         <v>0.240076335877863</v>
       </c>
-      <c r="AS4" s="77">
+      <c r="AS4" s="16">
         <v>150.88</v>
       </c>
       <c r="AT4" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="AU4" s="78">
+      <c r="AU4" s="76">
         <v>44523</v>
       </c>
-      <c r="AV4" s="79">
+      <c r="AV4" s="77">
         <v>26.2</v>
       </c>
-      <c r="AW4" s="79">
+      <c r="AW4" s="13">
         <v>200</v>
       </c>
-      <c r="AX4" s="79">
+      <c r="AX4" s="13">
         <v>5</v>
       </c>
-      <c r="AY4" s="82">
+      <c r="AY4" s="65">
         <f>AV4*AW4*0.2/10000</f>
         <v>0.1048</v>
       </c>
-      <c r="AZ4" s="83">
+      <c r="AZ4" s="77">
         <f>AV4*AW4+AX4+AY4</f>
         <v>5245.1048</v>
       </c>
-      <c r="BA4" s="83">
+      <c r="BA4" s="77">
         <f>(AV4-AL4)*AW4+AX4+AY4</f>
         <v>309.1048</v>
       </c>
-      <c r="BB4" s="79">
+      <c r="BB4" s="13">
         <v>26.5</v>
       </c>
-      <c r="BC4" s="79">
+      <c r="BC4" s="13">
         <v>25.21</v>
       </c>
-      <c r="BD4" s="88">
+      <c r="BD4" s="37">
         <f>(BB4-AV4)/(BB4-BC4)</f>
         <v>0.232558139534884</v>
       </c>
-      <c r="BE4" s="79"/>
-      <c r="BF4" s="79"/>
-      <c r="BG4" s="79"/>
-      <c r="BH4" s="79"/>
-      <c r="BI4" s="79"/>
-      <c r="BJ4" s="79"/>
-      <c r="BK4" s="79"/>
-      <c r="BL4" s="79"/>
-      <c r="BM4" s="79"/>
-      <c r="BN4" s="79"/>
-      <c r="BO4" s="79"/>
-      <c r="BP4" s="100" t="s">
+      <c r="BE4" s="91">
+        <v>44526</v>
+      </c>
+      <c r="BF4" s="92">
+        <v>24.89</v>
+      </c>
+      <c r="BG4" s="93">
+        <v>100</v>
+      </c>
+      <c r="BH4" s="92">
+        <v>5</v>
+      </c>
+      <c r="BI4" s="92">
+        <v>2.489</v>
+      </c>
+      <c r="BJ4" s="83">
+        <f>BF4*BG4-BH4-BI4</f>
+        <v>2481.511</v>
+      </c>
+      <c r="BK4" s="93">
+        <v>27.43</v>
+      </c>
+      <c r="BL4" s="93">
+        <v>24.74</v>
+      </c>
+      <c r="BM4" s="102">
+        <f>(BF4-BL4)/(BK4-BL4)</f>
+        <v>0.0557620817843874</v>
+      </c>
+      <c r="BN4" s="83">
+        <f>BJ4-AZ4/2</f>
+        <v>-141.0414</v>
+      </c>
+      <c r="BO4" s="92"/>
+      <c r="BP4" s="103" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" ht="38" spans="1:67">
-      <c r="A5" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="16">
-        <v>44517</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="18">
-        <v>31.92</v>
-      </c>
-      <c r="E5" s="31">
-        <v>32.63</v>
-      </c>
-      <c r="F5" s="31">
-        <v>33.17</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="31">
-        <v>33.73</v>
-      </c>
-      <c r="I5" s="31">
-        <v>22.98</v>
-      </c>
-      <c r="J5" s="31">
-        <v>44.42</v>
-      </c>
-      <c r="K5" s="40">
-        <f t="shared" ref="K5:K12" si="0">(H5-I5)/I5</f>
-        <v>0.467798085291558</v>
-      </c>
-      <c r="L5" s="40">
-        <f t="shared" ref="L5:L12" si="1">(J5-H5)/J5</f>
-        <v>0.240657361548852</v>
-      </c>
-      <c r="M5" s="46"/>
-      <c r="N5" s="31">
-        <v>30.78</v>
-      </c>
-      <c r="O5" s="31">
-        <v>35</v>
-      </c>
-      <c r="P5" s="31">
-        <v>31.27</v>
-      </c>
-      <c r="Q5" s="31">
-        <v>34.82</v>
-      </c>
-      <c r="R5" s="31">
-        <v>32.12</v>
-      </c>
-      <c r="S5" s="31">
-        <v>34.11</v>
-      </c>
-      <c r="T5" s="31">
-        <v>32.53</v>
-      </c>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
+      <c r="BQ4" s="105"/>
+      <c r="BR4" s="105"/>
+      <c r="BS4" s="105"/>
+      <c r="BT4" s="105"/>
+      <c r="BU4" s="105"/>
+      <c r="BV4" s="105"/>
+      <c r="BW4" s="105"/>
+      <c r="BX4" s="105"/>
+      <c r="BZ4" s="107"/>
+      <c r="CA4" s="107"/>
+      <c r="CB4" s="107"/>
+      <c r="CC4" s="107"/>
+      <c r="CD4" s="107"/>
+      <c r="CE4" s="107"/>
+      <c r="CF4" s="107"/>
+      <c r="CG4" s="107"/>
+      <c r="CI4" s="107"/>
+      <c r="CJ4" s="107"/>
+      <c r="CK4" s="107"/>
+      <c r="CL4" s="107"/>
+      <c r="CM4" s="107"/>
+      <c r="CN4" s="107"/>
+      <c r="CO4" s="107"/>
+      <c r="CQ4" s="107"/>
+      <c r="CR4" s="107"/>
+      <c r="CS4" s="107"/>
+      <c r="CT4" s="107"/>
+      <c r="CU4" s="107"/>
+      <c r="CV4" s="107"/>
+      <c r="CW4" s="107"/>
+      <c r="CY4" s="107"/>
+      <c r="CZ4" s="107"/>
+      <c r="DA4" s="107"/>
+      <c r="DB4" s="107"/>
+      <c r="DC4" s="107"/>
+      <c r="DD4" s="107"/>
+      <c r="DE4" s="107"/>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="38" spans="1:68">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
       <c r="W5" s="46"/>
       <c r="X5" s="46"/>
-      <c r="Y5" s="48" t="s">
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="65"/>
+      <c r="AQ5" s="37"/>
+      <c r="AR5" s="37"/>
+      <c r="AS5" s="16"/>
+      <c r="AT5" s="58"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="77"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="65"/>
+      <c r="AZ5" s="77"/>
+      <c r="BA5" s="77"/>
+      <c r="BB5" s="13"/>
+      <c r="BC5" s="13"/>
+      <c r="BD5" s="37"/>
+      <c r="BE5" s="94"/>
+      <c r="BF5" s="94"/>
+      <c r="BG5" s="94"/>
+      <c r="BH5" s="94"/>
+      <c r="BI5" s="94"/>
+      <c r="BJ5" s="83"/>
+      <c r="BK5" s="94"/>
+      <c r="BL5" s="94"/>
+      <c r="BM5" s="102" t="e">
+        <f>(BF5-BL5)/(BK5-BL5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN5" s="83"/>
+      <c r="BO5" s="94"/>
+      <c r="BP5" s="103"/>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="38" spans="1:67">
+      <c r="A6" s="109" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="14">
+        <v>44517</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="18">
+        <v>31.92</v>
+      </c>
+      <c r="E6" s="18">
+        <v>32.63</v>
+      </c>
+      <c r="F6" s="18">
+        <v>33.17</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="18">
+        <v>33.73</v>
+      </c>
+      <c r="I6" s="18">
+        <v>22.98</v>
+      </c>
+      <c r="J6" s="18">
+        <v>44.42</v>
+      </c>
+      <c r="K6" s="38">
+        <f>(H6-I6)/I6</f>
+        <v>0.467798085291558</v>
+      </c>
+      <c r="L6" s="38">
+        <f>(J6-H6)/J6</f>
+        <v>0.240657361548852</v>
+      </c>
+      <c r="M6" s="17"/>
+      <c r="N6" s="18">
+        <v>30.78</v>
+      </c>
+      <c r="O6" s="18">
+        <v>35</v>
+      </c>
+      <c r="P6" s="18">
+        <v>31.27</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>34.82</v>
+      </c>
+      <c r="R6" s="18">
+        <v>32.12</v>
+      </c>
+      <c r="S6" s="18">
+        <v>34.11</v>
+      </c>
+      <c r="T6" s="18">
+        <v>32.53</v>
+      </c>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="Z5" s="49">
-        <f t="shared" ref="Z5:Z12" si="2">(J5-N5)/J5</f>
+      <c r="Z6" s="49">
+        <f>(J6-N6)/J6</f>
         <v>0.307068887888339</v>
       </c>
-      <c r="AA5" s="50">
-        <f t="shared" ref="AA5:AA12" si="3">(O5-P5)/O5</f>
+      <c r="AA6" s="49">
+        <f>(O6-P6)/O6</f>
         <v>0.106571428571429</v>
       </c>
-      <c r="AB5" s="50">
-        <f t="shared" ref="AB5:AB12" si="4">(Q5-R5)/Q5</f>
+      <c r="AB6" s="49">
+        <f>(Q6-R6)/Q6</f>
         <v>0.077541642734061</v>
       </c>
-      <c r="AC5" s="50">
-        <f t="shared" ref="AC5:AC10" si="5">(S5-T5)/S5</f>
+      <c r="AC6" s="49">
+        <f>(S6-T6)/S6</f>
         <v>0.0463207270595133</v>
-      </c>
-      <c r="AD5" s="49" t="e">
-        <f>(U5-V5)/U5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG5" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH5" s="31">
-        <v>35.48</v>
-      </c>
-      <c r="AI5" s="31">
-        <v>31.36</v>
-      </c>
-      <c r="AJ5" s="31">
-        <f>AH5-AI5</f>
-        <v>4.12</v>
-      </c>
-      <c r="AK5" s="31">
-        <v>34.12</v>
-      </c>
-      <c r="AL5" s="31">
-        <v>32.53</v>
-      </c>
-      <c r="AM5" s="31">
-        <v>39.33</v>
-      </c>
-      <c r="AN5" s="64">
-        <f t="shared" ref="AN5:AN12" si="6">(AK5-AL5)*100</f>
-        <v>159</v>
-      </c>
-      <c r="AO5" s="31">
-        <v>100</v>
-      </c>
-      <c r="AP5" s="67">
-        <f t="shared" ref="AP5:AP12" si="7">(AM5-AK5)/(AK5-AL5)</f>
-        <v>3.27672955974844</v>
-      </c>
-      <c r="AQ5" s="68">
-        <f>(AK5-AL5)/AK5</f>
-        <v>0.0466002344665884</v>
-      </c>
-      <c r="AR5" s="68">
-        <f>(AM5-AK5)/AK5</f>
-        <v>0.152696365767878</v>
-      </c>
-      <c r="AS5" s="80">
-        <v>37.41</v>
-      </c>
-      <c r="AT5" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU5" s="23">
-        <v>44523</v>
-      </c>
-      <c r="AV5" s="81">
-        <v>33.73</v>
-      </c>
-      <c r="AW5" s="81">
-        <v>100</v>
-      </c>
-      <c r="AX5" s="81">
-        <v>5</v>
-      </c>
-      <c r="AY5" s="84">
-        <f>AV5*AW5*0.2/10000</f>
-        <v>0.06746</v>
-      </c>
-      <c r="AZ5" s="85">
-        <f>AV5*AW5+AX5+AY5</f>
-        <v>3378.06746</v>
-      </c>
-      <c r="BA5" s="85">
-        <f>(AV5-AL5)*AW5+AX5+AY5</f>
-        <v>125.06746</v>
-      </c>
-      <c r="BB5" s="81">
-        <v>35.36</v>
-      </c>
-      <c r="BC5" s="81">
-        <v>33.1</v>
-      </c>
-      <c r="BD5" s="89">
-        <f>(BB5-AV5)/(BB5-BC5)</f>
-        <v>0.721238938053099</v>
-      </c>
-      <c r="BE5" s="81"/>
-      <c r="BF5" s="22"/>
-      <c r="BG5" s="22"/>
-      <c r="BH5" s="22"/>
-      <c r="BI5" s="22"/>
-      <c r="BJ5" s="22"/>
-      <c r="BK5" s="22"/>
-      <c r="BL5" s="22"/>
-      <c r="BM5" s="22"/>
-      <c r="BN5" s="22"/>
-      <c r="BO5" s="22"/>
-    </row>
-    <row r="6" ht="38" spans="1:67">
-      <c r="A6" s="104" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="16">
-        <v>44519</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="18">
-        <v>28.2</v>
-      </c>
-      <c r="E6" s="33">
-        <v>29.15</v>
-      </c>
-      <c r="F6" s="33">
-        <v>31.53</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="33">
-        <v>32.57</v>
-      </c>
-      <c r="I6" s="31">
-        <v>20.61</v>
-      </c>
-      <c r="J6" s="31">
-        <v>41.5</v>
-      </c>
-      <c r="K6" s="40">
-        <f t="shared" si="0"/>
-        <v>0.58030082484231</v>
-      </c>
-      <c r="L6" s="40">
-        <f t="shared" si="1"/>
-        <v>0.215180722891566</v>
-      </c>
-      <c r="M6" s="46"/>
-      <c r="N6" s="31">
-        <v>28.42</v>
-      </c>
-      <c r="O6" s="31">
-        <v>34.7</v>
-      </c>
-      <c r="P6" s="31">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="31">
-        <v>35.27</v>
-      </c>
-      <c r="R6" s="31">
-        <v>30.89</v>
-      </c>
-      <c r="S6" s="31"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z6" s="49">
-        <f t="shared" si="2"/>
-        <v>0.315180722891566</v>
-      </c>
-      <c r="AA6" s="50">
-        <f t="shared" si="3"/>
-        <v>0.164265129682997</v>
-      </c>
-      <c r="AB6" s="50">
-        <f t="shared" si="4"/>
-        <v>0.124184859654097</v>
-      </c>
-      <c r="AC6" s="50" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="AD6" s="49" t="e">
         <f>(U6-V6)/U6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="53" t="s">
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG6" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH6" s="18">
+        <v>35.48</v>
+      </c>
+      <c r="AI6" s="18">
+        <v>31.36</v>
+      </c>
+      <c r="AJ6" s="18">
+        <f>AH6-AI6</f>
+        <v>4.12</v>
+      </c>
+      <c r="AK6" s="18">
+        <v>34.12</v>
+      </c>
+      <c r="AL6" s="18">
+        <v>32.53</v>
+      </c>
+      <c r="AM6" s="18">
+        <v>39.33</v>
+      </c>
+      <c r="AN6" s="18">
+        <f>(AK6-AL6)*100</f>
+        <v>159</v>
+      </c>
+      <c r="AO6" s="16">
+        <f>FLOOR(300/(AK6-AL6),100)</f>
+        <v>100</v>
+      </c>
+      <c r="AP6" s="65">
+        <f>(AM6-AK6)/(AK6-AL6)</f>
+        <v>3.27672955974844</v>
+      </c>
+      <c r="AQ6" s="37">
+        <f>(AK6-AL6)/AK6</f>
+        <v>0.0466002344665884</v>
+      </c>
+      <c r="AR6" s="37">
+        <f>(AM6-AK6)/AK6</f>
+        <v>0.152696365767878</v>
+      </c>
+      <c r="AS6" s="18">
+        <v>37.41</v>
+      </c>
+      <c r="AT6" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU6" s="78">
+        <v>44523</v>
+      </c>
+      <c r="AV6" s="79">
+        <v>33.73</v>
+      </c>
+      <c r="AW6" s="79">
+        <v>100</v>
+      </c>
+      <c r="AX6" s="79">
+        <v>5</v>
+      </c>
+      <c r="AY6" s="82">
+        <f>AV6*AW6*0.2/10000</f>
+        <v>0.06746</v>
+      </c>
+      <c r="AZ6" s="80">
+        <f>AV6*AW6+AX6+AY6</f>
+        <v>3378.06746</v>
+      </c>
+      <c r="BA6" s="80">
+        <f>(AV6-AL6)*AW6+AX6+AY6</f>
+        <v>125.06746</v>
+      </c>
+      <c r="BB6" s="79">
+        <v>35.36</v>
+      </c>
+      <c r="BC6" s="79">
+        <v>33.1</v>
+      </c>
+      <c r="BD6" s="85">
+        <f>(BB6-AV6)/(BB6-BC6)</f>
+        <v>0.721238938053099</v>
+      </c>
+      <c r="BE6" s="79"/>
+      <c r="BF6" s="95"/>
+      <c r="BG6" s="95"/>
+      <c r="BH6" s="95"/>
+      <c r="BI6" s="95"/>
+      <c r="BJ6" s="83"/>
+      <c r="BK6" s="95"/>
+      <c r="BL6" s="95"/>
+      <c r="BM6" s="102"/>
+      <c r="BN6" s="83"/>
+      <c r="BO6" s="95"/>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="38" spans="1:67">
+      <c r="A7" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="14">
+        <v>44519</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="18">
+        <v>28.2</v>
+      </c>
+      <c r="E7" s="31">
+        <v>29.15</v>
+      </c>
+      <c r="F7" s="31">
+        <v>31.53</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="31">
+        <v>32.57</v>
+      </c>
+      <c r="I7" s="18">
+        <v>20.61</v>
+      </c>
+      <c r="J7" s="18">
+        <v>41.5</v>
+      </c>
+      <c r="K7" s="38">
+        <f>(H7-I7)/I7</f>
+        <v>0.58030082484231</v>
+      </c>
+      <c r="L7" s="38">
+        <f>(J7-H7)/J7</f>
+        <v>0.215180722891566</v>
+      </c>
+      <c r="M7" s="17"/>
+      <c r="N7" s="18">
+        <v>28.42</v>
+      </c>
+      <c r="O7" s="18">
+        <v>34.7</v>
+      </c>
+      <c r="P7" s="18">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>35.27</v>
+      </c>
+      <c r="R7" s="18">
+        <v>30.89</v>
+      </c>
+      <c r="S7" s="18"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="AG6" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH6" s="31">
-        <v>36.21</v>
-      </c>
-      <c r="AI6" s="31">
-        <v>27.35</v>
-      </c>
-      <c r="AJ6" s="31">
-        <f>AH6-AI6</f>
-        <v>8.86</v>
-      </c>
-      <c r="AK6" s="31">
-        <v>32.65</v>
-      </c>
-      <c r="AL6" s="31">
-        <v>30.89</v>
-      </c>
-      <c r="AM6" s="31">
-        <v>36.22</v>
-      </c>
-      <c r="AN6" s="64">
-        <f t="shared" si="6"/>
-        <v>176</v>
-      </c>
-      <c r="AO6" s="31">
-        <v>100</v>
-      </c>
-      <c r="AP6" s="67">
-        <f t="shared" si="7"/>
-        <v>2.02840909090909</v>
-      </c>
-      <c r="AQ6" s="68">
-        <f>(AK6-AL6)/AK6</f>
-        <v>0.0539050535987748</v>
-      </c>
-      <c r="AR6" s="68">
-        <f>(AM6-AK6)/AK6</f>
-        <v>0.109341500765697</v>
-      </c>
-      <c r="AS6" s="80">
-        <v>28.82</v>
-      </c>
-      <c r="AT6" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU6" s="23">
-        <v>44522</v>
-      </c>
-      <c r="AV6" s="81">
-        <v>32.7</v>
-      </c>
-      <c r="AW6" s="81">
-        <v>100</v>
-      </c>
-      <c r="AX6" s="81">
-        <v>5</v>
-      </c>
-      <c r="AY6" s="84">
-        <f>AV6*AW6*0.2/10000</f>
-        <v>0.0654</v>
-      </c>
-      <c r="AZ6" s="85">
-        <f>AV6*AW6+AX6+AY6</f>
-        <v>3275.0654</v>
-      </c>
-      <c r="BA6" s="85">
-        <f>(AV6-AL6)*AW6+AX6+AY6</f>
-        <v>186.0654</v>
-      </c>
-      <c r="BB6" s="85">
-        <v>33.9</v>
-      </c>
-      <c r="BC6" s="85">
-        <v>32.49</v>
-      </c>
-      <c r="BD6" s="89">
-        <f>(BB6-AV6)/(BB6-BC6)</f>
-        <v>0.851063829787233</v>
-      </c>
-      <c r="BE6" s="81"/>
-      <c r="BF6" s="22"/>
-      <c r="BG6" s="22"/>
-      <c r="BH6" s="22"/>
-      <c r="BI6" s="22"/>
-      <c r="BJ6" s="22"/>
-      <c r="BK6" s="22"/>
-      <c r="BL6" s="22"/>
-      <c r="BM6" s="22"/>
-      <c r="BN6" s="22"/>
-      <c r="BO6" s="22"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="24" spans="1:68">
-      <c r="A7" s="105" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="20">
-        <v>44522</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="19">
-        <v>28.37</v>
-      </c>
-      <c r="E7" s="19">
-        <v>29.06</v>
-      </c>
-      <c r="F7" s="19">
-        <v>29.49</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19">
-        <v>29.69</v>
-      </c>
-      <c r="I7" s="19">
-        <v>17.54</v>
-      </c>
-      <c r="J7" s="19">
-        <v>48.5</v>
-      </c>
-      <c r="K7" s="41">
-        <f t="shared" si="0"/>
-        <v>0.692702394526796</v>
-      </c>
-      <c r="L7" s="41">
-        <f t="shared" si="1"/>
-        <v>0.387835051546392</v>
-      </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19">
-        <v>24.11</v>
-      </c>
-      <c r="O7" s="19">
-        <v>38.16</v>
-      </c>
-      <c r="P7" s="19">
-        <v>25.12</v>
-      </c>
-      <c r="Q7" s="19">
-        <v>30.9</v>
-      </c>
-      <c r="R7" s="19">
-        <v>29.2</v>
-      </c>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z7" s="41">
-        <f t="shared" si="2"/>
-        <v>0.502886597938144</v>
-      </c>
-      <c r="AA7" s="51">
-        <f t="shared" si="3"/>
-        <v>0.341719077568134</v>
-      </c>
-      <c r="AB7" s="51">
-        <f t="shared" si="4"/>
-        <v>0.0550161812297734</v>
-      </c>
-      <c r="AC7" s="51" t="e">
-        <f t="shared" si="5"/>
+      <c r="Z7" s="49">
+        <f>(J7-N7)/J7</f>
+        <v>0.315180722891566</v>
+      </c>
+      <c r="AA7" s="49">
+        <f>(O7-P7)/O7</f>
+        <v>0.164265129682997</v>
+      </c>
+      <c r="AB7" s="49">
+        <f>(Q7-R7)/Q7</f>
+        <v>0.124184859654097</v>
+      </c>
+      <c r="AC7" s="49" t="e">
+        <f>(S7-T7)/S7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD7" s="41" t="e">
+      <c r="AD7" s="49" t="e">
         <f>(U7-V7)/U7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG7" s="61" t="s">
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG7" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH7" s="18">
+        <v>36.21</v>
+      </c>
+      <c r="AI7" s="18">
+        <v>27.35</v>
+      </c>
+      <c r="AJ7" s="18">
+        <f>AH7-AI7</f>
+        <v>8.86</v>
+      </c>
+      <c r="AK7" s="18">
+        <v>32.65</v>
+      </c>
+      <c r="AL7" s="18">
+        <v>30.89</v>
+      </c>
+      <c r="AM7" s="18">
+        <v>36.22</v>
+      </c>
+      <c r="AN7" s="18">
+        <f>(AK7-AL7)*100</f>
+        <v>176</v>
+      </c>
+      <c r="AO7" s="16">
+        <f>FLOOR(300/(AK7-AL7),100)</f>
+        <v>100</v>
+      </c>
+      <c r="AP7" s="65">
+        <f>(AM7-AK7)/(AK7-AL7)</f>
+        <v>2.02840909090909</v>
+      </c>
+      <c r="AQ7" s="37">
+        <f>(AK7-AL7)/AK7</f>
+        <v>0.0539050535987748</v>
+      </c>
+      <c r="AR7" s="37">
+        <f>(AM7-AK7)/AK7</f>
+        <v>0.109341500765697</v>
+      </c>
+      <c r="AS7" s="18">
+        <v>28.82</v>
+      </c>
+      <c r="AT7" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU7" s="78">
+        <v>44522</v>
+      </c>
+      <c r="AV7" s="80">
+        <v>32.7</v>
+      </c>
+      <c r="AW7" s="79">
+        <v>100</v>
+      </c>
+      <c r="AX7" s="79">
+        <v>5</v>
+      </c>
+      <c r="AY7" s="82">
+        <f>AV7*AW7*0.2/10000</f>
+        <v>0.0654</v>
+      </c>
+      <c r="AZ7" s="80">
+        <f>AV7*AW7+AX7+AY7</f>
+        <v>3275.0654</v>
+      </c>
+      <c r="BA7" s="80">
+        <f>(AV7-AL7)*AW7+AX7+AY7</f>
+        <v>186.0654</v>
+      </c>
+      <c r="BB7" s="80">
+        <v>33.9</v>
+      </c>
+      <c r="BC7" s="80">
+        <v>32.49</v>
+      </c>
+      <c r="BD7" s="85">
+        <f>(BB7-AV7)/(BB7-BC7)</f>
+        <v>0.851063829787233</v>
+      </c>
+      <c r="BE7" s="79"/>
+      <c r="BF7" s="95"/>
+      <c r="BG7" s="95"/>
+      <c r="BH7" s="95"/>
+      <c r="BI7" s="95"/>
+      <c r="BJ7" s="83"/>
+      <c r="BK7" s="95"/>
+      <c r="BL7" s="95"/>
+      <c r="BM7" s="102"/>
+      <c r="BN7" s="83"/>
+      <c r="BO7" s="95"/>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="38" spans="1:68">
+      <c r="A8" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="19">
+        <v>44525</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AH7" s="19">
+      <c r="D8" s="21">
+        <v>64.32</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="21">
+        <v>68.37</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="21">
+        <v>69.16</v>
+      </c>
+      <c r="I8" s="21">
+        <v>40.64</v>
+      </c>
+      <c r="J8" s="21">
+        <v>90.29</v>
+      </c>
+      <c r="K8" s="38">
+        <f>(H8-I8)/I8</f>
+        <v>0.701771653543307</v>
+      </c>
+      <c r="L8" s="38">
+        <f>(J8-H8)/J8</f>
+        <v>0.234023701406579</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21">
+        <v>60.05</v>
+      </c>
+      <c r="O8" s="21">
+        <v>74.75</v>
+      </c>
+      <c r="P8" s="21">
+        <v>65.5</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>70.98</v>
+      </c>
+      <c r="R8" s="21">
+        <v>66.88</v>
+      </c>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z8" s="49">
+        <f>(J8-N8)/J8</f>
+        <v>0.33492081072101</v>
+      </c>
+      <c r="AA8" s="49">
+        <f>(O8-P8)/O8</f>
+        <v>0.123745819397993</v>
+      </c>
+      <c r="AB8" s="49">
+        <f>(Q8-R8)/Q8</f>
+        <v>0.0577627500704425</v>
+      </c>
+      <c r="AC8" s="49" t="e">
+        <f>(S8-T8)/S8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG8" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH8" s="21">
+        <v>75.02</v>
+      </c>
+      <c r="AI8" s="21">
+        <v>62.33</v>
+      </c>
+      <c r="AJ8" s="18">
+        <f>AH8-AI8</f>
+        <v>12.69</v>
+      </c>
+      <c r="AK8" s="21">
+        <v>70.98</v>
+      </c>
+      <c r="AL8" s="21">
+        <v>66.88</v>
+      </c>
+      <c r="AM8" s="21">
+        <v>84.94</v>
+      </c>
+      <c r="AN8" s="18">
+        <f>(AK8-AL8)*100</f>
+        <v>410.000000000001</v>
+      </c>
+      <c r="AO8" s="16">
+        <f>FLOOR(300/(AK8-AL8),100)</f>
+        <v>0</v>
+      </c>
+      <c r="AP8" s="65">
+        <f>(AM8-AK8)/(AK8-AL8)</f>
+        <v>3.40487804878048</v>
+      </c>
+      <c r="AQ8" s="37">
+        <f>(AK8-AL8)/AK8</f>
+        <v>0.0577627500704425</v>
+      </c>
+      <c r="AR8" s="37">
+        <f>(AM8-AK8)/AK8</f>
+        <v>0.196675119752043</v>
+      </c>
+      <c r="AS8" s="21">
+        <v>6.49</v>
+      </c>
+      <c r="AT8" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU8" s="19">
+        <v>44526</v>
+      </c>
+      <c r="AV8" s="21">
+        <v>72.07</v>
+      </c>
+      <c r="AW8" s="21">
+        <v>100</v>
+      </c>
+      <c r="AX8" s="21">
+        <v>5</v>
+      </c>
+      <c r="AY8" s="82">
+        <f>AV8*AW8*0.2/10000</f>
+        <v>0.14414</v>
+      </c>
+      <c r="AZ8" s="80">
+        <f>AV8*AW8+AX8+AY8</f>
+        <v>7212.14414</v>
+      </c>
+      <c r="BA8" s="80">
+        <f>(AV8-AL8)*AW8+AX8+AY8</f>
+        <v>524.14414</v>
+      </c>
+      <c r="BB8" s="21">
+        <v>74.5</v>
+      </c>
+      <c r="BC8" s="21">
+        <v>70.4</v>
+      </c>
+      <c r="BD8" s="85">
+        <f>(BB8-AV8)/(BB8-BC8)</f>
+        <v>0.592682926829271</v>
+      </c>
+      <c r="BE8" s="19"/>
+      <c r="BF8" s="21"/>
+      <c r="BG8" s="21"/>
+      <c r="BH8" s="21"/>
+      <c r="BI8" s="21"/>
+      <c r="BJ8" s="83"/>
+      <c r="BK8" s="21"/>
+      <c r="BL8" s="21"/>
+      <c r="BM8" s="102"/>
+      <c r="BN8" s="83"/>
+      <c r="BO8" s="21"/>
+      <c r="BP8" s="60"/>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="24" spans="1:68">
+      <c r="A9" s="110" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="19">
+        <v>44522</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="21">
+        <v>28.37</v>
+      </c>
+      <c r="E9" s="21">
+        <v>29.06</v>
+      </c>
+      <c r="F9" s="21">
+        <v>29.49</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21">
+        <v>29.69</v>
+      </c>
+      <c r="I9" s="21">
+        <v>17.54</v>
+      </c>
+      <c r="J9" s="21">
+        <v>48.5</v>
+      </c>
+      <c r="K9" s="39">
+        <f t="shared" ref="K9:K14" si="0">(H9-I9)/I9</f>
+        <v>0.692702394526796</v>
+      </c>
+      <c r="L9" s="39">
+        <f t="shared" ref="L9:L14" si="1">(J9-H9)/J9</f>
+        <v>0.387835051546392</v>
+      </c>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21">
+        <v>24.11</v>
+      </c>
+      <c r="O9" s="21">
+        <v>38.16</v>
+      </c>
+      <c r="P9" s="21">
+        <v>25.12</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>30.9</v>
+      </c>
+      <c r="R9" s="21">
+        <v>29.2</v>
+      </c>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z9" s="39">
+        <f t="shared" ref="Z9:Z14" si="2">(J9-N9)/J9</f>
+        <v>0.502886597938144</v>
+      </c>
+      <c r="AA9" s="39">
+        <f t="shared" ref="AA9:AA14" si="3">(O9-P9)/O9</f>
+        <v>0.341719077568134</v>
+      </c>
+      <c r="AB9" s="39">
+        <f t="shared" ref="AB9:AB14" si="4">(Q9-R9)/Q9</f>
+        <v>0.0550161812297734</v>
+      </c>
+      <c r="AC9" s="39" t="e">
+        <f>(S9-T9)/S9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD9" s="39" t="e">
+        <f>(U9-V9)/U9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG9" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH9" s="21">
         <v>32.43</v>
       </c>
-      <c r="AI7" s="19">
+      <c r="AI9" s="21">
         <v>26.16</v>
       </c>
-      <c r="AJ7" s="62">
-        <f>AH7-AI7</f>
+      <c r="AJ9" s="61">
+        <f>AH9-AI9</f>
         <v>6.27</v>
       </c>
-      <c r="AK7" s="19">
+      <c r="AK9" s="21">
         <v>30.66</v>
       </c>
-      <c r="AL7" s="19">
+      <c r="AL9" s="21">
         <v>29.35</v>
       </c>
-      <c r="AM7" s="19">
+      <c r="AM9" s="21">
         <v>38.71</v>
       </c>
-      <c r="AN7" s="65">
-        <f t="shared" si="6"/>
+      <c r="AN9" s="61">
+        <f t="shared" ref="AN9:AN14" si="5">(AK9-AL9)*100</f>
         <v>131</v>
       </c>
-      <c r="AO7" s="19">
-        <f t="shared" ref="AO7:AO12" si="8">FLOOR(300/(AK7-AL7),100)</f>
+      <c r="AO9" s="21">
+        <f t="shared" ref="AO9:AO14" si="6">FLOOR(300/(AK9-AL9),100)</f>
         <v>200</v>
       </c>
-      <c r="AP7" s="69">
-        <f t="shared" si="7"/>
+      <c r="AP9" s="66">
+        <f t="shared" ref="AP9:AP14" si="7">(AM9-AK9)/(AK9-AL9)</f>
         <v>6.14503816793894</v>
       </c>
-      <c r="AQ7" s="51">
-        <f>(AK7-AL7)/AK7</f>
+      <c r="AQ9" s="39">
+        <f>(AK9-AL9)/AK9</f>
         <v>0.042726679712981</v>
       </c>
-      <c r="AR7" s="51">
-        <f>(AM7-AK7)/AK7</f>
+      <c r="AR9" s="39">
+        <f>(AM9-AK9)/AK9</f>
         <v>0.262557077625571</v>
       </c>
-      <c r="AS7" s="19">
+      <c r="AS9" s="21">
         <v>38.46</v>
       </c>
-      <c r="AT7" s="61" t="s">
+      <c r="AT9" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="AU7" s="20">
+      <c r="AU9" s="19">
         <v>44524</v>
       </c>
-      <c r="AV7" s="19">
+      <c r="AV9" s="21">
         <v>30.54</v>
       </c>
-      <c r="AW7" s="19">
+      <c r="AW9" s="21">
         <v>100</v>
       </c>
-      <c r="AX7" s="19">
+      <c r="AX9" s="21">
         <v>5</v>
       </c>
-      <c r="AY7" s="86">
-        <f>AV7*AW7*0.2/10000</f>
+      <c r="AY9" s="83">
+        <f>AV9*AW9*0.2/10000</f>
         <v>0.06108</v>
       </c>
-      <c r="AZ7" s="87">
-        <f>AV7*AW7+AX7+AY7</f>
+      <c r="AZ9" s="84">
+        <f>AV9*AW9+AX9+AY9</f>
         <v>3059.06108</v>
       </c>
-      <c r="BA7" s="87">
-        <f>(AV7-AL7)*AW7+AX7+AY7</f>
+      <c r="BA9" s="84">
+        <f>(AV9-AL9)*AW9+AX9+AY9</f>
         <v>124.06108</v>
       </c>
-      <c r="BB7" s="19">
+      <c r="BB9" s="21">
         <v>30.72</v>
       </c>
-      <c r="BC7" s="19">
+      <c r="BC9" s="21">
         <v>29.33</v>
       </c>
-      <c r="BD7" s="90">
-        <f>(BB7-AV7)/(BB7-BC7)</f>
+      <c r="BD9" s="86">
+        <f>(BB9-AV9)/(BB9-BC9)</f>
         <v>0.129496402877698</v>
       </c>
-      <c r="BE7" s="20">
+      <c r="BE9" s="19">
         <v>44525</v>
       </c>
-      <c r="BF7" s="19">
+      <c r="BF9" s="21">
         <v>30.15</v>
       </c>
-      <c r="BG7" s="19">
+      <c r="BG9" s="21">
         <v>100</v>
       </c>
-      <c r="BH7" s="19">
+      <c r="BH9" s="21">
         <v>5</v>
       </c>
-      <c r="BI7" s="19">
+      <c r="BI9" s="21">
         <v>3.075</v>
       </c>
-      <c r="BJ7" s="86">
-        <f>BF7*BG7-BH7-BI7</f>
+      <c r="BJ9" s="83">
+        <f>BF9*BG9-BH9-BI9</f>
         <v>3006.925</v>
       </c>
-      <c r="BK7" s="19"/>
-      <c r="BL7" s="19"/>
-      <c r="BM7" s="19"/>
-      <c r="BN7" s="86">
-        <f>BJ7-AZ7</f>
+      <c r="BK9" s="21">
+        <v>30.69</v>
+      </c>
+      <c r="BL9" s="21">
+        <v>30.01</v>
+      </c>
+      <c r="BM9" s="102">
+        <f>(BF9-BL9)/(BK9-BL9)</f>
+        <v>0.205882352941172</v>
+      </c>
+      <c r="BN9" s="83">
+        <f>BJ9-AZ9</f>
         <v>-52.1360799999998</v>
       </c>
-      <c r="BO7" s="19"/>
-      <c r="BP7" s="61" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" ht="24" spans="1:67">
-      <c r="A8" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="23">
+      <c r="BO9" s="21"/>
+      <c r="BP9" s="60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" ht="24" spans="1:67">
+      <c r="A10" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="23">
         <v>44524</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="22">
+      <c r="C10" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="22">
         <v>18.26</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E10" s="22">
         <v>19.01</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F10" s="22">
         <v>21.05</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22">
+      <c r="G10" s="22"/>
+      <c r="H10" s="22">
         <v>23.2</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I10" s="22">
         <v>13.04</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J10" s="22">
         <v>26.64</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K10" s="40">
         <f t="shared" si="0"/>
         <v>0.779141104294479</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L10" s="40">
         <f t="shared" si="1"/>
         <v>0.129129129129129</v>
       </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22">
-        <v>18.5</v>
-      </c>
-      <c r="O8" s="22">
-        <v>22.39</v>
-      </c>
-      <c r="P8" s="22">
-        <v>18.85</v>
-      </c>
-      <c r="Q8" s="22">
-        <v>23.56</v>
-      </c>
-      <c r="R8" s="22">
-        <v>20.89</v>
-      </c>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z8" s="49">
-        <f t="shared" si="2"/>
-        <v>0.305555555555556</v>
-      </c>
-      <c r="AA8" s="50">
-        <f t="shared" si="3"/>
-        <v>0.158106297454221</v>
-      </c>
-      <c r="AB8" s="50">
-        <f t="shared" si="4"/>
-        <v>0.113327674023769</v>
-      </c>
-      <c r="AC8" s="50" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG8" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH8" s="22">
-        <v>25.19</v>
-      </c>
-      <c r="AI8" s="22">
-        <v>17.73</v>
-      </c>
-      <c r="AJ8" s="31">
-        <f>AH8-AI8</f>
-        <v>7.46</v>
-      </c>
-      <c r="AK8" s="22">
-        <v>23.56</v>
-      </c>
-      <c r="AL8" s="22">
-        <v>22.12</v>
-      </c>
-      <c r="AM8" s="22">
-        <v>26.91</v>
-      </c>
-      <c r="AN8" s="64">
-        <f t="shared" si="6"/>
-        <v>144</v>
-      </c>
-      <c r="AO8" s="22">
-        <f t="shared" si="8"/>
-        <v>200</v>
-      </c>
-      <c r="AP8" s="67">
-        <f t="shared" si="7"/>
-        <v>2.32638888888889</v>
-      </c>
-      <c r="AQ8" s="68">
-        <f>(AK8-AL8)/AK8</f>
-        <v>0.0611205432937181</v>
-      </c>
-      <c r="AR8" s="68">
-        <f>(AM8-AK8)/AK8</f>
-        <v>0.142190152801358</v>
-      </c>
-      <c r="AS8" s="22">
-        <v>53.49</v>
-      </c>
-      <c r="AT8" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU8" s="22"/>
-      <c r="AV8" s="22"/>
-      <c r="AW8" s="22"/>
-      <c r="AX8" s="22"/>
-      <c r="AY8" s="22"/>
-      <c r="AZ8" s="22"/>
-      <c r="BA8" s="22"/>
-      <c r="BB8" s="22"/>
-      <c r="BC8" s="22"/>
-      <c r="BD8" s="22"/>
-      <c r="BE8" s="22"/>
-      <c r="BF8" s="22"/>
-      <c r="BG8" s="22"/>
-      <c r="BH8" s="22"/>
-      <c r="BI8" s="22"/>
-      <c r="BJ8" s="22"/>
-      <c r="BK8" s="22"/>
-      <c r="BL8" s="22"/>
-      <c r="BM8" s="22"/>
-      <c r="BN8" s="22"/>
-      <c r="BO8" s="22"/>
-    </row>
-    <row r="9" ht="24" spans="1:67">
-      <c r="A9" s="106" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="23">
-        <v>44524</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="22">
-        <v>20.14</v>
-      </c>
-      <c r="E9" s="22">
-        <v>20.65</v>
-      </c>
-      <c r="F9" s="22">
-        <v>20.97</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22">
-        <v>21.52</v>
-      </c>
-      <c r="I9" s="22">
-        <v>7.07</v>
-      </c>
-      <c r="J9" s="22">
-        <v>29.28</v>
-      </c>
-      <c r="K9" s="40">
-        <f t="shared" si="0"/>
-        <v>2.04384724186704</v>
-      </c>
-      <c r="L9" s="40">
-        <f t="shared" si="1"/>
-        <v>0.265027322404372</v>
-      </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22">
-        <v>18.34</v>
-      </c>
-      <c r="O9" s="22">
-        <v>21.65</v>
-      </c>
-      <c r="P9" s="22">
-        <v>18.61</v>
-      </c>
-      <c r="Q9" s="22">
-        <v>21.14</v>
-      </c>
-      <c r="R9" s="22">
-        <v>18.86</v>
-      </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z9" s="49">
-        <f t="shared" si="2"/>
-        <v>0.373633879781421</v>
-      </c>
-      <c r="AA9" s="50">
-        <f t="shared" si="3"/>
-        <v>0.140415704387991</v>
-      </c>
-      <c r="AB9" s="50">
-        <f t="shared" si="4"/>
-        <v>0.107852412488174</v>
-      </c>
-      <c r="AC9" s="50" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG9" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22"/>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="64">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO9" s="22" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP9" s="67" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ9" s="22"/>
-      <c r="AR9" s="22"/>
-      <c r="AT9" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU9" s="22"/>
-      <c r="AV9" s="22"/>
-      <c r="AW9" s="22"/>
-      <c r="AX9" s="22"/>
-      <c r="AY9" s="22"/>
-      <c r="AZ9" s="22"/>
-      <c r="BA9" s="22"/>
-      <c r="BB9" s="22"/>
-      <c r="BC9" s="22"/>
-      <c r="BD9" s="22"/>
-      <c r="BE9" s="22"/>
-      <c r="BF9" s="22"/>
-      <c r="BG9" s="22"/>
-      <c r="BH9" s="22"/>
-      <c r="BI9" s="22"/>
-      <c r="BJ9" s="22"/>
-      <c r="BK9" s="22"/>
-      <c r="BL9" s="22"/>
-      <c r="BM9" s="22"/>
-      <c r="BN9" s="22"/>
-      <c r="BO9" s="22"/>
-    </row>
-    <row r="10" ht="13" spans="1:67">
-      <c r="A10" s="106" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="23">
-        <v>44524</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="22">
-        <v>19.9</v>
-      </c>
-      <c r="E10" s="22">
-        <v>20.73</v>
-      </c>
-      <c r="F10" s="22">
-        <v>22.88</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22">
-        <v>23.53</v>
-      </c>
-      <c r="I10" s="22">
-        <v>7.25</v>
-      </c>
-      <c r="J10" s="22">
-        <v>29.3</v>
-      </c>
-      <c r="K10" s="40">
-        <f t="shared" si="0"/>
-        <v>2.24551724137931</v>
-      </c>
-      <c r="L10" s="40">
-        <f t="shared" si="1"/>
-        <v>0.196928327645051</v>
-      </c>
       <c r="M10" s="22"/>
       <c r="N10" s="22">
-        <v>19.05</v>
+        <v>18.5</v>
       </c>
       <c r="O10" s="22">
-        <v>22.91</v>
+        <v>22.39</v>
       </c>
       <c r="P10" s="22">
-        <v>19.73</v>
+        <v>18.85</v>
       </c>
       <c r="Q10" s="22">
-        <v>25.5</v>
+        <v>23.56</v>
       </c>
       <c r="R10" s="22">
-        <v>23.12</v>
-      </c>
-      <c r="S10" s="22">
-        <v>26.45</v>
-      </c>
-      <c r="T10" s="22">
-        <v>23.48</v>
-      </c>
+        <v>20.89</v>
+      </c>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" s="22"/>
       <c r="X10" s="22"/>
       <c r="Y10" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z10" s="49">
+        <v>97</v>
+      </c>
+      <c r="Z10" s="50">
         <f t="shared" si="2"/>
-        <v>0.349829351535836</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="AA10" s="50">
         <f t="shared" si="3"/>
-        <v>0.138804015713662</v>
+        <v>0.158106297454221</v>
       </c>
       <c r="AB10" s="50">
         <f t="shared" si="4"/>
-        <v>0.0933333333333333</v>
-      </c>
-      <c r="AC10" s="50">
-        <f t="shared" si="5"/>
-        <v>0.112287334593573</v>
+        <v>0.113327674023769</v>
+      </c>
+      <c r="AC10" s="50" t="e">
+        <f>(S10-T10)/S10</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD10" s="22"/>
       <c r="AE10" s="22"/>
       <c r="AF10" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG10" s="63"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="22"/>
+        <v>91</v>
+      </c>
+      <c r="AG10" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH10" s="22">
+        <v>25.19</v>
+      </c>
+      <c r="AI10" s="22">
+        <v>17.73</v>
+      </c>
+      <c r="AJ10" s="63">
+        <f>AH10-AI10</f>
+        <v>7.46</v>
+      </c>
       <c r="AK10" s="22">
-        <v>25.15</v>
+        <v>23.56</v>
       </c>
       <c r="AL10" s="22">
-        <v>23.48</v>
+        <v>22.12</v>
       </c>
       <c r="AM10" s="22">
-        <v>27.83</v>
-      </c>
-      <c r="AN10" s="64">
+        <v>26.91</v>
+      </c>
+      <c r="AN10" s="63">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+      <c r="AO10" s="22">
         <f t="shared" si="6"/>
-        <v>167</v>
-      </c>
-      <c r="AO10" s="22">
-        <f t="shared" si="8"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AP10" s="67">
         <f t="shared" si="7"/>
-        <v>1.60479041916168</v>
-      </c>
-      <c r="AQ10" s="22"/>
-      <c r="AR10" s="22"/>
-      <c r="AT10" s="63" t="s">
+        <v>2.32638888888889</v>
+      </c>
+      <c r="AQ10" s="40">
+        <f>(AK10-AL10)/AK10</f>
+        <v>0.0611205432937181</v>
+      </c>
+      <c r="AR10" s="40">
+        <f>(AM10-AK10)/AK10</f>
+        <v>0.142190152801358</v>
+      </c>
+      <c r="AS10" s="22">
+        <v>53.49</v>
+      </c>
+      <c r="AT10" s="62" t="s">
         <v>80</v>
       </c>
       <c r="AU10" s="22"/>
@@ -5501,58 +5581,58 @@
       <c r="BN10" s="22"/>
       <c r="BO10" s="22"/>
     </row>
-    <row r="11" ht="13" spans="1:67">
-      <c r="A11" s="106" t="s">
-        <v>103</v>
+    <row r="11" ht="24" spans="1:67">
+      <c r="A11" s="111" t="s">
+        <v>105</v>
       </c>
       <c r="B11" s="23">
         <v>44524</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D11" s="22">
-        <v>26.7</v>
+        <v>20.14</v>
       </c>
       <c r="E11" s="22">
-        <v>28.65</v>
+        <v>20.65</v>
       </c>
       <c r="F11" s="22">
-        <v>33.16</v>
+        <v>20.97</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="22">
-        <v>36.11</v>
+        <v>21.52</v>
       </c>
       <c r="I11" s="22">
-        <v>11.38</v>
+        <v>7.07</v>
       </c>
       <c r="J11" s="22">
-        <v>41.75</v>
-      </c>
-      <c r="K11" s="40">
+        <v>29.28</v>
+      </c>
+      <c r="K11" s="41">
         <f t="shared" si="0"/>
-        <v>2.17311072056239</v>
-      </c>
-      <c r="L11" s="40">
+        <v>2.04384724186704</v>
+      </c>
+      <c r="L11" s="41">
         <f t="shared" si="1"/>
-        <v>0.135089820359281</v>
+        <v>0.265027322404372</v>
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22">
-        <v>28.85</v>
+        <v>18.34</v>
       </c>
       <c r="O11" s="22">
-        <v>35.46</v>
+        <v>21.65</v>
       </c>
       <c r="P11" s="22">
-        <v>29.05</v>
+        <v>18.61</v>
       </c>
       <c r="Q11" s="22">
-        <v>34.35</v>
+        <v>21.14</v>
       </c>
       <c r="R11" s="22">
-        <v>31.5</v>
+        <v>18.86</v>
       </c>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
@@ -5561,56 +5641,53 @@
       <c r="W11" s="22"/>
       <c r="X11" s="22"/>
       <c r="Y11" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z11" s="49">
+        <v>90</v>
+      </c>
+      <c r="Z11" s="51">
         <f t="shared" si="2"/>
-        <v>0.308982035928144</v>
-      </c>
-      <c r="AA11" s="50">
+        <v>0.373633879781421</v>
+      </c>
+      <c r="AA11" s="52">
         <f t="shared" si="3"/>
-        <v>0.180767061477721</v>
-      </c>
-      <c r="AB11" s="50">
+        <v>0.140415704387991</v>
+      </c>
+      <c r="AB11" s="52">
         <f t="shared" si="4"/>
-        <v>0.0829694323144105</v>
-      </c>
-      <c r="AC11" s="22"/>
+        <v>0.107852412488174</v>
+      </c>
+      <c r="AC11" s="52" t="e">
+        <f>(S11-T11)/S11</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AD11" s="22"/>
       <c r="AE11" s="22"/>
       <c r="AF11" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG11" s="22" t="s">
-        <v>105</v>
+        <v>91</v>
+      </c>
+      <c r="AG11" s="62" t="s">
+        <v>79</v>
       </c>
       <c r="AH11" s="22"/>
       <c r="AI11" s="22"/>
       <c r="AJ11" s="22"/>
-      <c r="AK11" s="22">
-        <v>37.13</v>
-      </c>
-      <c r="AL11" s="22">
-        <v>35.6</v>
-      </c>
-      <c r="AM11" s="22">
-        <v>38.61</v>
-      </c>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="22"/>
+      <c r="AM11" s="22"/>
       <c r="AN11" s="64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="22" t="e">
         <f t="shared" si="6"/>
-        <v>153</v>
-      </c>
-      <c r="AO11" s="22">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="AP11" s="67">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP11" s="68" t="e">
         <f t="shared" si="7"/>
-        <v>0.967320261437906</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AQ11" s="22"/>
       <c r="AR11" s="22"/>
-      <c r="AT11" s="63" t="s">
+      <c r="AT11" s="62" t="s">
         <v>80</v>
       </c>
       <c r="AU11" s="22"/>
@@ -5636,115 +5713,120 @@
       <c r="BO11" s="22"/>
     </row>
     <row r="12" ht="13" spans="1:67">
-      <c r="A12" s="106" t="s">
-        <v>106</v>
+      <c r="A12" s="111" t="s">
+        <v>107</v>
       </c>
       <c r="B12" s="23">
         <v>44524</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D12" s="22">
-        <v>32.91</v>
+        <v>19.9</v>
       </c>
       <c r="E12" s="22">
-        <v>33.52</v>
+        <v>20.73</v>
       </c>
       <c r="F12" s="22">
-        <v>34.71</v>
+        <v>22.88</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="22">
-        <v>36.09</v>
+        <v>23.53</v>
       </c>
       <c r="I12" s="22">
-        <v>25.12</v>
+        <v>7.25</v>
       </c>
       <c r="J12" s="22">
-        <v>41.77</v>
-      </c>
-      <c r="K12" s="40">
+        <v>29.3</v>
+      </c>
+      <c r="K12" s="41">
         <f t="shared" si="0"/>
-        <v>0.436703821656051</v>
-      </c>
-      <c r="L12" s="40">
+        <v>2.24551724137931</v>
+      </c>
+      <c r="L12" s="41">
         <f t="shared" si="1"/>
-        <v>0.135982762748384</v>
+        <v>0.196928327645051</v>
       </c>
       <c r="M12" s="22"/>
       <c r="N12" s="22">
-        <v>30.46</v>
+        <v>19.05</v>
       </c>
       <c r="O12" s="22">
-        <v>36.94</v>
+        <v>22.91</v>
       </c>
       <c r="P12" s="22">
-        <v>33.59</v>
+        <v>19.73</v>
       </c>
       <c r="Q12" s="22">
-        <v>37.1</v>
+        <v>25.5</v>
       </c>
       <c r="R12" s="22">
-        <v>34.44</v>
-      </c>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
+        <v>23.12</v>
+      </c>
+      <c r="S12" s="22">
+        <v>26.45</v>
+      </c>
+      <c r="T12" s="22">
+        <v>23.48</v>
+      </c>
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
       <c r="W12" s="22"/>
       <c r="X12" s="22"/>
       <c r="Y12" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z12" s="49">
+        <v>97</v>
+      </c>
+      <c r="Z12" s="51">
         <f t="shared" si="2"/>
-        <v>0.270768494134546</v>
-      </c>
-      <c r="AA12" s="50">
+        <v>0.349829351535836</v>
+      </c>
+      <c r="AA12" s="52">
         <f t="shared" si="3"/>
-        <v>0.0906876015159717</v>
-      </c>
-      <c r="AB12" s="50">
+        <v>0.138804015713662</v>
+      </c>
+      <c r="AB12" s="52">
         <f t="shared" si="4"/>
-        <v>0.0716981132075473</v>
-      </c>
-      <c r="AC12" s="22"/>
+        <v>0.0933333333333333</v>
+      </c>
+      <c r="AC12" s="52">
+        <f>(S12-T12)/S12</f>
+        <v>0.112287334593573</v>
+      </c>
       <c r="AD12" s="22"/>
       <c r="AE12" s="22"/>
       <c r="AF12" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG12" s="63" t="s">
-        <v>109</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="AG12" s="62"/>
       <c r="AH12" s="22"/>
       <c r="AI12" s="22"/>
       <c r="AJ12" s="22"/>
       <c r="AK12" s="22">
-        <v>37.09</v>
+        <v>25.15</v>
       </c>
       <c r="AL12" s="22">
-        <v>35.25</v>
+        <v>23.48</v>
       </c>
       <c r="AM12" s="22">
-        <v>38.8</v>
+        <v>27.83</v>
       </c>
       <c r="AN12" s="64">
+        <f t="shared" si="5"/>
+        <v>167</v>
+      </c>
+      <c r="AO12" s="22">
         <f t="shared" si="6"/>
-        <v>184</v>
-      </c>
-      <c r="AO12" s="22">
-        <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="AP12" s="67">
+      <c r="AP12" s="68">
         <f t="shared" si="7"/>
-        <v>0.929347826086951</v>
+        <v>1.60479041916168</v>
       </c>
       <c r="AQ12" s="22"/>
       <c r="AR12" s="22"/>
-      <c r="AT12" s="63" t="s">
+      <c r="AT12" s="62" t="s">
         <v>80</v>
       </c>
       <c r="AU12" s="22"/>
@@ -5770,53 +5852,117 @@
       <c r="BO12" s="22"/>
     </row>
     <row r="13" ht="13" spans="1:67">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="111" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="23">
+        <v>44524</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="D13" s="22">
+        <v>26.7</v>
+      </c>
+      <c r="E13" s="22">
+        <v>28.65</v>
+      </c>
+      <c r="F13" s="22">
+        <v>33.16</v>
+      </c>
       <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
+      <c r="H13" s="22">
+        <v>36.11</v>
+      </c>
+      <c r="I13" s="22">
+        <v>11.38</v>
+      </c>
+      <c r="J13" s="22">
+        <v>41.75</v>
+      </c>
+      <c r="K13" s="41">
+        <f t="shared" si="0"/>
+        <v>2.17311072056239</v>
+      </c>
+      <c r="L13" s="41">
+        <f t="shared" si="1"/>
+        <v>0.135089820359281</v>
+      </c>
       <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
+      <c r="N13" s="22">
+        <v>28.85</v>
+      </c>
+      <c r="O13" s="22">
+        <v>35.46</v>
+      </c>
+      <c r="P13" s="22">
+        <v>29.05</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>34.35</v>
+      </c>
+      <c r="R13" s="22">
+        <v>31.5</v>
+      </c>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
       <c r="W13" s="22"/>
       <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
+      <c r="Y13" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z13" s="51">
+        <f t="shared" si="2"/>
+        <v>0.308982035928144</v>
+      </c>
+      <c r="AA13" s="52">
+        <f t="shared" si="3"/>
+        <v>0.180767061477721</v>
+      </c>
+      <c r="AB13" s="52">
+        <f t="shared" si="4"/>
+        <v>0.0829694323144105</v>
+      </c>
       <c r="AC13" s="22"/>
       <c r="AD13" s="22"/>
       <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="22"/>
+      <c r="AF13" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG13" s="22" t="s">
+        <v>111</v>
+      </c>
       <c r="AH13" s="22"/>
       <c r="AI13" s="22"/>
       <c r="AJ13" s="22"/>
-      <c r="AK13" s="22"/>
-      <c r="AL13" s="22"/>
-      <c r="AM13" s="22"/>
-      <c r="AN13" s="22"/>
-      <c r="AO13" s="22"/>
-      <c r="AP13" s="22"/>
+      <c r="AK13" s="22">
+        <v>37.13</v>
+      </c>
+      <c r="AL13" s="22">
+        <v>35.6</v>
+      </c>
+      <c r="AM13" s="22">
+        <v>38.61</v>
+      </c>
+      <c r="AN13" s="64">
+        <f t="shared" si="5"/>
+        <v>153</v>
+      </c>
+      <c r="AO13" s="22">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="AP13" s="68">
+        <f t="shared" si="7"/>
+        <v>0.967320261437906</v>
+      </c>
       <c r="AQ13" s="22"/>
       <c r="AR13" s="22"/>
-      <c r="AT13" s="22"/>
+      <c r="AT13" s="62" t="s">
+        <v>80</v>
+      </c>
       <c r="AU13" s="22"/>
       <c r="AV13" s="22"/>
       <c r="AW13" s="22"/>
@@ -5840,53 +5986,117 @@
       <c r="BO13" s="22"/>
     </row>
     <row r="14" ht="13" spans="1:67">
-      <c r="A14" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="A14" s="111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="23">
+        <v>44524</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="22">
+        <v>32.91</v>
+      </c>
+      <c r="E14" s="22">
+        <v>33.52</v>
+      </c>
+      <c r="F14" s="22">
+        <v>34.71</v>
+      </c>
       <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
+      <c r="H14" s="22">
+        <v>36.09</v>
+      </c>
+      <c r="I14" s="22">
+        <v>25.12</v>
+      </c>
+      <c r="J14" s="22">
+        <v>41.77</v>
+      </c>
+      <c r="K14" s="41">
+        <f t="shared" si="0"/>
+        <v>0.436703821656051</v>
+      </c>
+      <c r="L14" s="41">
+        <f t="shared" si="1"/>
+        <v>0.135982762748384</v>
+      </c>
       <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
+      <c r="N14" s="22">
+        <v>30.46</v>
+      </c>
+      <c r="O14" s="22">
+        <v>36.94</v>
+      </c>
+      <c r="P14" s="22">
+        <v>33.59</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>37.1</v>
+      </c>
+      <c r="R14" s="22">
+        <v>34.44</v>
+      </c>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
       <c r="W14" s="22"/>
       <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
+      <c r="Y14" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z14" s="51">
+        <f t="shared" si="2"/>
+        <v>0.270768494134546</v>
+      </c>
+      <c r="AA14" s="52">
+        <f t="shared" si="3"/>
+        <v>0.0906876015159717</v>
+      </c>
+      <c r="AB14" s="52">
+        <f t="shared" si="4"/>
+        <v>0.0716981132075473</v>
+      </c>
       <c r="AC14" s="22"/>
       <c r="AD14" s="22"/>
       <c r="AE14" s="22"/>
-      <c r="AF14" s="22"/>
-      <c r="AG14" s="22"/>
+      <c r="AF14" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG14" s="62" t="s">
+        <v>115</v>
+      </c>
       <c r="AH14" s="22"/>
       <c r="AI14" s="22"/>
       <c r="AJ14" s="22"/>
-      <c r="AK14" s="22"/>
-      <c r="AL14" s="22"/>
-      <c r="AM14" s="22"/>
-      <c r="AN14" s="22"/>
-      <c r="AO14" s="22"/>
-      <c r="AP14" s="22"/>
+      <c r="AK14" s="22">
+        <v>37.09</v>
+      </c>
+      <c r="AL14" s="22">
+        <v>35.25</v>
+      </c>
+      <c r="AM14" s="22">
+        <v>38.8</v>
+      </c>
+      <c r="AN14" s="64">
+        <f t="shared" si="5"/>
+        <v>184</v>
+      </c>
+      <c r="AO14" s="22">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="AP14" s="68">
+        <f t="shared" si="7"/>
+        <v>0.929347826086951</v>
+      </c>
       <c r="AQ14" s="22"/>
       <c r="AR14" s="22"/>
-      <c r="AT14" s="22"/>
+      <c r="AT14" s="62" t="s">
+        <v>80</v>
+      </c>
       <c r="AU14" s="22"/>
       <c r="AV14" s="22"/>
       <c r="AW14" s="22"/>
@@ -5910,8 +6120,8 @@
       <c r="BO14" s="22"/>
     </row>
     <row r="15" ht="13" spans="1:67">
-      <c r="A15" s="106" t="s">
-        <v>112</v>
+      <c r="A15" s="111" t="s">
+        <v>116</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -5980,8 +6190,8 @@
       <c r="BO15" s="22"/>
     </row>
     <row r="16" ht="13" spans="1:67">
-      <c r="A16" s="106" t="s">
-        <v>113</v>
+      <c r="A16" s="111" t="s">
+        <v>117</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -6050,8 +6260,8 @@
       <c r="BO16" s="22"/>
     </row>
     <row r="17" ht="13" spans="1:67">
-      <c r="A17" s="106" t="s">
-        <v>114</v>
+      <c r="A17" s="111" t="s">
+        <v>118</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -6120,8 +6330,8 @@
       <c r="BO17" s="22"/>
     </row>
     <row r="18" ht="13" spans="1:67">
-      <c r="A18" s="106" t="s">
-        <v>115</v>
+      <c r="A18" s="111" t="s">
+        <v>119</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -6190,8 +6400,8 @@
       <c r="BO18" s="22"/>
     </row>
     <row r="19" ht="13" spans="1:67">
-      <c r="A19" s="106" t="s">
-        <v>116</v>
+      <c r="A19" s="111" t="s">
+        <v>120</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -6260,8 +6470,8 @@
       <c r="BO19" s="22"/>
     </row>
     <row r="20" ht="13" spans="1:67">
-      <c r="A20" s="106" t="s">
-        <v>117</v>
+      <c r="A20" s="111" t="s">
+        <v>121</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -6330,8 +6540,8 @@
       <c r="BO20" s="22"/>
     </row>
     <row r="21" ht="13" spans="1:67">
-      <c r="A21" s="106" t="s">
-        <v>118</v>
+      <c r="A21" s="111" t="s">
+        <v>122</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -6400,8 +6610,8 @@
       <c r="BO21" s="22"/>
     </row>
     <row r="22" ht="13" spans="1:67">
-      <c r="A22" s="106" t="s">
-        <v>119</v>
+      <c r="A22" s="111" t="s">
+        <v>123</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -6470,8 +6680,8 @@
       <c r="BO22" s="22"/>
     </row>
     <row r="23" ht="13" spans="1:67">
-      <c r="A23" s="106" t="s">
-        <v>120</v>
+      <c r="A23" s="111" t="s">
+        <v>124</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -6540,8 +6750,8 @@
       <c r="BO23" s="22"/>
     </row>
     <row r="24" ht="13" spans="1:67">
-      <c r="A24" s="106" t="s">
-        <v>121</v>
+      <c r="A24" s="111" t="s">
+        <v>125</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -6610,8 +6820,8 @@
       <c r="BO24" s="22"/>
     </row>
     <row r="25" ht="13" spans="1:67">
-      <c r="A25" s="106" t="s">
-        <v>122</v>
+      <c r="A25" s="111" t="s">
+        <v>126</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -6680,8 +6890,8 @@
       <c r="BO25" s="22"/>
     </row>
     <row r="26" ht="13" spans="1:67">
-      <c r="A26" s="106" t="s">
-        <v>123</v>
+      <c r="A26" s="111" t="s">
+        <v>127</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -6750,8 +6960,8 @@
       <c r="BO26" s="22"/>
     </row>
     <row r="27" ht="13" spans="1:67">
-      <c r="A27" s="106" t="s">
-        <v>124</v>
+      <c r="A27" s="111" t="s">
+        <v>128</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -6820,8 +7030,8 @@
       <c r="BO27" s="22"/>
     </row>
     <row r="28" ht="13" spans="1:67">
-      <c r="A28" s="106" t="s">
-        <v>125</v>
+      <c r="A28" s="111" t="s">
+        <v>129</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -6890,8 +7100,8 @@
       <c r="BO28" s="22"/>
     </row>
     <row r="29" ht="13" spans="1:67">
-      <c r="A29" s="106" t="s">
-        <v>126</v>
+      <c r="A29" s="111" t="s">
+        <v>130</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -6960,8 +7170,8 @@
       <c r="BO29" s="22"/>
     </row>
     <row r="30" ht="13" spans="1:67">
-      <c r="A30" s="106" t="s">
-        <v>127</v>
+      <c r="A30" s="111" t="s">
+        <v>131</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -7030,8 +7240,8 @@
       <c r="BO30" s="22"/>
     </row>
     <row r="31" ht="13" spans="1:67">
-      <c r="A31" s="106" t="s">
-        <v>128</v>
+      <c r="A31" s="111" t="s">
+        <v>132</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -7100,8 +7310,8 @@
       <c r="BO31" s="22"/>
     </row>
     <row r="32" ht="13" spans="1:67">
-      <c r="A32" s="106" t="s">
-        <v>129</v>
+      <c r="A32" s="111" t="s">
+        <v>133</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -7170,8 +7380,8 @@
       <c r="BO32" s="22"/>
     </row>
     <row r="33" ht="13" spans="1:67">
-      <c r="A33" s="106" t="s">
-        <v>130</v>
+      <c r="A33" s="111" t="s">
+        <v>134</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -7240,8 +7450,8 @@
       <c r="BO33" s="22"/>
     </row>
     <row r="34" ht="13" spans="1:67">
-      <c r="A34" s="106" t="s">
-        <v>131</v>
+      <c r="A34" s="111" t="s">
+        <v>135</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -7310,8 +7520,8 @@
       <c r="BO34" s="22"/>
     </row>
     <row r="35" ht="13" spans="1:67">
-      <c r="A35" s="106" t="s">
-        <v>132</v>
+      <c r="A35" s="111" t="s">
+        <v>136</v>
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -7380,8 +7590,8 @@
       <c r="BO35" s="22"/>
     </row>
     <row r="36" ht="13" spans="1:67">
-      <c r="A36" s="106" t="s">
-        <v>133</v>
+      <c r="A36" s="111" t="s">
+        <v>137</v>
       </c>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -7450,8 +7660,8 @@
       <c r="BO36" s="22"/>
     </row>
     <row r="37" ht="13" spans="1:67">
-      <c r="A37" s="106" t="s">
-        <v>134</v>
+      <c r="A37" s="111" t="s">
+        <v>138</v>
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -7520,8 +7730,8 @@
       <c r="BO37" s="22"/>
     </row>
     <row r="38" ht="13" spans="1:67">
-      <c r="A38" s="106" t="s">
-        <v>135</v>
+      <c r="A38" s="111" t="s">
+        <v>139</v>
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -7590,8 +7800,8 @@
       <c r="BO38" s="22"/>
     </row>
     <row r="39" ht="13" spans="1:67">
-      <c r="A39" s="106" t="s">
-        <v>136</v>
+      <c r="A39" s="111" t="s">
+        <v>140</v>
       </c>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -7660,8 +7870,8 @@
       <c r="BO39" s="22"/>
     </row>
     <row r="40" ht="13" spans="1:67">
-      <c r="A40" s="106" t="s">
-        <v>137</v>
+      <c r="A40" s="111" t="s">
+        <v>141</v>
       </c>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -7730,8 +7940,8 @@
       <c r="BO40" s="22"/>
     </row>
     <row r="41" ht="13" spans="1:67">
-      <c r="A41" s="106" t="s">
-        <v>138</v>
+      <c r="A41" s="111" t="s">
+        <v>142</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -7800,8 +8010,8 @@
       <c r="BO41" s="22"/>
     </row>
     <row r="42" ht="13" spans="1:67">
-      <c r="A42" s="106" t="s">
-        <v>139</v>
+      <c r="A42" s="111" t="s">
+        <v>143</v>
       </c>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -7870,8 +8080,8 @@
       <c r="BO42" s="22"/>
     </row>
     <row r="43" ht="13" spans="1:67">
-      <c r="A43" s="106" t="s">
-        <v>140</v>
+      <c r="A43" s="111" t="s">
+        <v>144</v>
       </c>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
@@ -7940,8 +8150,8 @@
       <c r="BO43" s="22"/>
     </row>
     <row r="44" ht="13" spans="1:67">
-      <c r="A44" s="106" t="s">
-        <v>141</v>
+      <c r="A44" s="111" t="s">
+        <v>145</v>
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -8010,8 +8220,8 @@
       <c r="BO44" s="22"/>
     </row>
     <row r="45" ht="13" spans="1:67">
-      <c r="A45" s="106" t="s">
-        <v>142</v>
+      <c r="A45" s="111" t="s">
+        <v>146</v>
       </c>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -8080,8 +8290,8 @@
       <c r="BO45" s="22"/>
     </row>
     <row r="46" ht="13" spans="1:67">
-      <c r="A46" s="106" t="s">
-        <v>143</v>
+      <c r="A46" s="111" t="s">
+        <v>147</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -8150,8 +8360,8 @@
       <c r="BO46" s="22"/>
     </row>
     <row r="47" ht="13" spans="1:67">
-      <c r="A47" s="106" t="s">
-        <v>144</v>
+      <c r="A47" s="111" t="s">
+        <v>148</v>
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -8220,8 +8430,8 @@
       <c r="BO47" s="22"/>
     </row>
     <row r="48" ht="13" spans="1:67">
-      <c r="A48" s="106" t="s">
-        <v>145</v>
+      <c r="A48" s="111" t="s">
+        <v>149</v>
       </c>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -8290,8 +8500,8 @@
       <c r="BO48" s="22"/>
     </row>
     <row r="49" ht="13" spans="1:67">
-      <c r="A49" s="106" t="s">
-        <v>146</v>
+      <c r="A49" s="111" t="s">
+        <v>150</v>
       </c>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -8360,8 +8570,8 @@
       <c r="BO49" s="22"/>
     </row>
     <row r="50" ht="13" spans="1:67">
-      <c r="A50" s="106" t="s">
-        <v>147</v>
+      <c r="A50" s="111" t="s">
+        <v>151</v>
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -8430,8 +8640,8 @@
       <c r="BO50" s="22"/>
     </row>
     <row r="51" ht="13" spans="1:67">
-      <c r="A51" s="106" t="s">
-        <v>148</v>
+      <c r="A51" s="111" t="s">
+        <v>152</v>
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -8500,8 +8710,8 @@
       <c r="BO51" s="22"/>
     </row>
     <row r="52" ht="13" spans="1:67">
-      <c r="A52" s="106" t="s">
-        <v>149</v>
+      <c r="A52" s="111" t="s">
+        <v>153</v>
       </c>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
@@ -8570,8 +8780,8 @@
       <c r="BO52" s="22"/>
     </row>
     <row r="53" ht="13" spans="1:67">
-      <c r="A53" s="106" t="s">
-        <v>150</v>
+      <c r="A53" s="111" t="s">
+        <v>154</v>
       </c>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
@@ -8640,8 +8850,8 @@
       <c r="BO53" s="22"/>
     </row>
     <row r="54" ht="13" spans="1:67">
-      <c r="A54" s="106" t="s">
-        <v>151</v>
+      <c r="A54" s="111" t="s">
+        <v>155</v>
       </c>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
@@ -8710,8 +8920,8 @@
       <c r="BO54" s="22"/>
     </row>
     <row r="55" ht="13" spans="1:67">
-      <c r="A55" s="106" t="s">
-        <v>152</v>
+      <c r="A55" s="111" t="s">
+        <v>156</v>
       </c>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
@@ -8780,8 +8990,8 @@
       <c r="BO55" s="22"/>
     </row>
     <row r="56" ht="13" spans="1:67">
-      <c r="A56" s="106" t="s">
-        <v>153</v>
+      <c r="A56" s="111" t="s">
+        <v>157</v>
       </c>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -8850,8 +9060,8 @@
       <c r="BO56" s="22"/>
     </row>
     <row r="57" ht="13" spans="1:67">
-      <c r="A57" s="106" t="s">
-        <v>154</v>
+      <c r="A57" s="111" t="s">
+        <v>158</v>
       </c>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
@@ -8920,8 +9130,8 @@
       <c r="BO57" s="22"/>
     </row>
     <row r="58" ht="13" spans="1:67">
-      <c r="A58" s="106" t="s">
-        <v>155</v>
+      <c r="A58" s="111" t="s">
+        <v>159</v>
       </c>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
@@ -8990,8 +9200,8 @@
       <c r="BO58" s="22"/>
     </row>
     <row r="59" ht="13" spans="1:67">
-      <c r="A59" s="106" t="s">
-        <v>156</v>
+      <c r="A59" s="111" t="s">
+        <v>160</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
@@ -9060,8 +9270,8 @@
       <c r="BO59" s="22"/>
     </row>
     <row r="60" ht="13" spans="1:67">
-      <c r="A60" s="106" t="s">
-        <v>157</v>
+      <c r="A60" s="111" t="s">
+        <v>161</v>
       </c>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -9130,8 +9340,8 @@
       <c r="BO60" s="22"/>
     </row>
     <row r="61" ht="13" spans="1:67">
-      <c r="A61" s="106" t="s">
-        <v>158</v>
+      <c r="A61" s="111" t="s">
+        <v>162</v>
       </c>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
@@ -9200,8 +9410,8 @@
       <c r="BO61" s="22"/>
     </row>
     <row r="62" ht="13" spans="1:67">
-      <c r="A62" s="106" t="s">
-        <v>159</v>
+      <c r="A62" s="111" t="s">
+        <v>163</v>
       </c>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -9270,8 +9480,8 @@
       <c r="BO62" s="22"/>
     </row>
     <row r="63" ht="13" spans="1:67">
-      <c r="A63" s="106" t="s">
-        <v>160</v>
+      <c r="A63" s="111" t="s">
+        <v>164</v>
       </c>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
@@ -9339,8 +9549,10 @@
       <c r="BN63" s="22"/>
       <c r="BO63" s="22"/>
     </row>
-    <row r="64" spans="1:67">
-      <c r="A64" s="22"/>
+    <row r="64" ht="13" spans="1:67">
+      <c r="A64" s="111" t="s">
+        <v>165</v>
+      </c>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
@@ -9407,8 +9619,10 @@
       <c r="BN64" s="22"/>
       <c r="BO64" s="22"/>
     </row>
-    <row r="65" spans="1:67">
-      <c r="A65" s="22"/>
+    <row r="65" ht="13" spans="1:67">
+      <c r="A65" s="111" t="s">
+        <v>166</v>
+      </c>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
       <c r="D65" s="22"/>
@@ -37697,6 +37911,50 @@
     </row>
     <row r="481" spans="1:67">
       <c r="A481" s="22"/>
+      <c r="B481" s="22"/>
+      <c r="C481" s="22"/>
+      <c r="D481" s="22"/>
+      <c r="E481" s="22"/>
+      <c r="F481" s="22"/>
+      <c r="G481" s="22"/>
+      <c r="H481" s="22"/>
+      <c r="I481" s="22"/>
+      <c r="J481" s="22"/>
+      <c r="K481" s="22"/>
+      <c r="L481" s="22"/>
+      <c r="M481" s="22"/>
+      <c r="N481" s="22"/>
+      <c r="O481" s="22"/>
+      <c r="P481" s="22"/>
+      <c r="Q481" s="22"/>
+      <c r="R481" s="22"/>
+      <c r="S481" s="22"/>
+      <c r="T481" s="22"/>
+      <c r="U481" s="22"/>
+      <c r="V481" s="22"/>
+      <c r="W481" s="22"/>
+      <c r="X481" s="22"/>
+      <c r="Y481" s="22"/>
+      <c r="Z481" s="22"/>
+      <c r="AA481" s="22"/>
+      <c r="AB481" s="22"/>
+      <c r="AC481" s="22"/>
+      <c r="AD481" s="22"/>
+      <c r="AE481" s="22"/>
+      <c r="AF481" s="22"/>
+      <c r="AG481" s="22"/>
+      <c r="AH481" s="22"/>
+      <c r="AI481" s="22"/>
+      <c r="AJ481" s="22"/>
+      <c r="AK481" s="22"/>
+      <c r="AL481" s="22"/>
+      <c r="AM481" s="22"/>
+      <c r="AN481" s="22"/>
+      <c r="AO481" s="22"/>
+      <c r="AP481" s="22"/>
+      <c r="AQ481" s="22"/>
+      <c r="AR481" s="22"/>
+      <c r="AT481" s="22"/>
       <c r="AU481" s="22"/>
       <c r="AV481" s="22"/>
       <c r="AW481" s="22"/>
@@ -37721,6 +37979,50 @@
     </row>
     <row r="482" spans="1:67">
       <c r="A482" s="22"/>
+      <c r="B482" s="22"/>
+      <c r="C482" s="22"/>
+      <c r="D482" s="22"/>
+      <c r="E482" s="22"/>
+      <c r="F482" s="22"/>
+      <c r="G482" s="22"/>
+      <c r="H482" s="22"/>
+      <c r="I482" s="22"/>
+      <c r="J482" s="22"/>
+      <c r="K482" s="22"/>
+      <c r="L482" s="22"/>
+      <c r="M482" s="22"/>
+      <c r="N482" s="22"/>
+      <c r="O482" s="22"/>
+      <c r="P482" s="22"/>
+      <c r="Q482" s="22"/>
+      <c r="R482" s="22"/>
+      <c r="S482" s="22"/>
+      <c r="T482" s="22"/>
+      <c r="U482" s="22"/>
+      <c r="V482" s="22"/>
+      <c r="W482" s="22"/>
+      <c r="X482" s="22"/>
+      <c r="Y482" s="22"/>
+      <c r="Z482" s="22"/>
+      <c r="AA482" s="22"/>
+      <c r="AB482" s="22"/>
+      <c r="AC482" s="22"/>
+      <c r="AD482" s="22"/>
+      <c r="AE482" s="22"/>
+      <c r="AF482" s="22"/>
+      <c r="AG482" s="22"/>
+      <c r="AH482" s="22"/>
+      <c r="AI482" s="22"/>
+      <c r="AJ482" s="22"/>
+      <c r="AK482" s="22"/>
+      <c r="AL482" s="22"/>
+      <c r="AM482" s="22"/>
+      <c r="AN482" s="22"/>
+      <c r="AO482" s="22"/>
+      <c r="AP482" s="22"/>
+      <c r="AQ482" s="22"/>
+      <c r="AR482" s="22"/>
+      <c r="AT482" s="22"/>
       <c r="AU482" s="22"/>
       <c r="AV482" s="22"/>
       <c r="AW482" s="22"/>
@@ -37863,11 +38165,53 @@
       <c r="BN487" s="22"/>
       <c r="BO487" s="22"/>
     </row>
-    <row r="488" spans="1:1">
+    <row r="488" spans="1:67">
       <c r="A488" s="22"/>
-    </row>
-    <row r="489" spans="1:1">
+      <c r="AU488" s="22"/>
+      <c r="AV488" s="22"/>
+      <c r="AW488" s="22"/>
+      <c r="AX488" s="22"/>
+      <c r="AY488" s="22"/>
+      <c r="AZ488" s="22"/>
+      <c r="BA488" s="22"/>
+      <c r="BB488" s="22"/>
+      <c r="BC488" s="22"/>
+      <c r="BD488" s="22"/>
+      <c r="BE488" s="22"/>
+      <c r="BF488" s="22"/>
+      <c r="BG488" s="22"/>
+      <c r="BH488" s="22"/>
+      <c r="BI488" s="22"/>
+      <c r="BJ488" s="22"/>
+      <c r="BK488" s="22"/>
+      <c r="BL488" s="22"/>
+      <c r="BM488" s="22"/>
+      <c r="BN488" s="22"/>
+      <c r="BO488" s="22"/>
+    </row>
+    <row r="489" spans="1:67">
       <c r="A489" s="22"/>
+      <c r="AU489" s="22"/>
+      <c r="AV489" s="22"/>
+      <c r="AW489" s="22"/>
+      <c r="AX489" s="22"/>
+      <c r="AY489" s="22"/>
+      <c r="AZ489" s="22"/>
+      <c r="BA489" s="22"/>
+      <c r="BB489" s="22"/>
+      <c r="BC489" s="22"/>
+      <c r="BD489" s="22"/>
+      <c r="BE489" s="22"/>
+      <c r="BF489" s="22"/>
+      <c r="BG489" s="22"/>
+      <c r="BH489" s="22"/>
+      <c r="BI489" s="22"/>
+      <c r="BJ489" s="22"/>
+      <c r="BK489" s="22"/>
+      <c r="BL489" s="22"/>
+      <c r="BM489" s="22"/>
+      <c r="BN489" s="22"/>
+      <c r="BO489" s="22"/>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" s="22"/>
@@ -38082,8 +38426,14 @@
     <row r="560" spans="1:1">
       <c r="A560" s="22"/>
     </row>
+    <row r="561" spans="1:1">
+      <c r="A561" s="22"/>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="108">
     <mergeCell ref="A1:AT1"/>
     <mergeCell ref="AU1:BD1"/>
     <mergeCell ref="BE1:BM1"/>
@@ -38091,38 +38441,94 @@
     <mergeCell ref="N2:AG2"/>
     <mergeCell ref="AH2:AJ2"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AK4:AK5"/>
     <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AL4:AL5"/>
     <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AM4:AM5"/>
     <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AN4:AN5"/>
     <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AO4:AO5"/>
     <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AP4:AP5"/>
     <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AQ4:AQ5"/>
     <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AR4:AR5"/>
     <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AS4:AS5"/>
     <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AT4:AT5"/>
     <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AU4:AU5"/>
     <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AV4:AV5"/>
     <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AW4:AW5"/>
     <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AX4:AX5"/>
     <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AY4:AY5"/>
     <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="AZ4:AZ5"/>
     <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="BA4:BA5"/>
     <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BB4:BB5"/>
     <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BC4:BC5"/>
     <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BD4:BD5"/>
     <mergeCell ref="BE2:BE3"/>
     <mergeCell ref="BF2:BF3"/>
     <mergeCell ref="BG2:BG3"/>
@@ -38135,12 +38541,13 @@
     <mergeCell ref="BN2:BN3"/>
     <mergeCell ref="BO2:BO3"/>
     <mergeCell ref="BP2:BP3"/>
+    <mergeCell ref="BP4:BP5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="603867(新化股份)"/>
-    <hyperlink ref="C5" r:id="rId2" display="600085(同仁堂)"/>
+    <hyperlink ref="C7" r:id="rId1" display="603867(新化股份)"/>
+    <hyperlink ref="C6" r:id="rId2" display="600085(同仁堂)"/>
     <hyperlink ref="C4" r:id="rId3" display="003040(楚天龙)"/>
-    <hyperlink ref="C7" r:id="rId4" display="605016(百龙创园)"/>
+    <hyperlink ref="C9" r:id="rId4" display="605016(百龙创园)"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -38167,28 +38574,28 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:99">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="CU1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2">
-        <f>SUM(交易计划及执行表!BA4:BA7)</f>
-        <v>744.298739999999</v>
+        <f>SUM(交易计划及执行表!BA4:BA9)</f>
+        <v>1268.44288</v>
       </c>
     </row>
   </sheetData>

--- a/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
@@ -3834,11 +3834,11 @@
   <dimension ref="A1:DE562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BH2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BN5" sqref="BN5"/>
+      <selection pane="bottomRight" activeCell="BM9" sqref="BM9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
   <si>
     <t>交易计划</t>
   </si>
@@ -1224,6 +1224,29 @@
     <t>000019</t>
   </si>
   <si>
+    <r>
+      <t>603010(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万盛股份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>000020</t>
   </si>
   <si>
@@ -1394,12 +1417,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -1512,21 +1535,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1534,21 +1543,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1562,18 +1564,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1594,18 +1596,48 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1624,9 +1656,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1639,16 +1670,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1733,13 +1756,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1751,7 +1798,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1763,73 +1912,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1841,73 +1924,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2091,34 +2114,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2147,6 +2159,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2163,16 +2186,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2180,8 +2203,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2190,94 +2213,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2286,52 +2309,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2342,7 +2365,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2531,16 +2554,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2567,7 +2590,7 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2576,16 +2599,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3822,11 +3845,11 @@
   <dimension ref="A1:DE562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BI2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BJ5" sqref="BJ5"/>
+      <selection pane="bottomRight" activeCell="AK15" sqref="AK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -5469,8 +5492,12 @@
       <c r="R10" s="22">
         <v>20.89</v>
       </c>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
+      <c r="S10" s="22">
+        <v>23.49</v>
+      </c>
+      <c r="T10" s="22">
+        <v>22.12</v>
+      </c>
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" s="22"/>
@@ -5490,9 +5517,9 @@
         <f t="shared" si="5"/>
         <v>0.113327674023769</v>
       </c>
-      <c r="AC10" s="50" t="e">
+      <c r="AC10" s="50">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.0583226905065984</v>
       </c>
       <c r="AD10" s="22"/>
       <c r="AE10" s="22"/>
@@ -5657,7 +5684,10 @@
       </c>
       <c r="AH11" s="22"/>
       <c r="AI11" s="22"/>
-      <c r="AJ11" s="22"/>
+      <c r="AJ11" s="63">
+        <f>AH11-AI11</f>
+        <v>0</v>
+      </c>
       <c r="AK11" s="22"/>
       <c r="AL11" s="22"/>
       <c r="AM11" s="22"/>
@@ -5673,8 +5703,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ11" s="22"/>
-      <c r="AR11" s="22"/>
+      <c r="AQ11" s="40" t="e">
+        <f>(AK11-AL11)/AK11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR11" s="40" t="e">
+        <f>(AM11-AK11)/AK11</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AT11" s="62" t="s">
         <v>80</v>
       </c>
@@ -5757,7 +5793,7 @@
         <v>26.45</v>
       </c>
       <c r="T12" s="22">
-        <v>23.48</v>
+        <v>22.8</v>
       </c>
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
@@ -5780,7 +5816,7 @@
       </c>
       <c r="AC12" s="52">
         <f t="shared" si="0"/>
-        <v>0.112287334593573</v>
+        <v>0.137996219281663</v>
       </c>
       <c r="AD12" s="22"/>
       <c r="AE12" s="22"/>
@@ -5790,7 +5826,10 @@
       <c r="AG12" s="62"/>
       <c r="AH12" s="22"/>
       <c r="AI12" s="22"/>
-      <c r="AJ12" s="22"/>
+      <c r="AJ12" s="63">
+        <f>AH12-AI12</f>
+        <v>0</v>
+      </c>
       <c r="AK12" s="22">
         <v>25.15</v>
       </c>
@@ -5812,8 +5851,14 @@
         <f t="shared" si="8"/>
         <v>1.60479041916168</v>
       </c>
-      <c r="AQ12" s="22"/>
-      <c r="AR12" s="22"/>
+      <c r="AQ12" s="40">
+        <f>(AK12-AL12)/AK12</f>
+        <v>0.0664015904572564</v>
+      </c>
+      <c r="AR12" s="40">
+        <f>(AM12-AK12)/AK12</f>
+        <v>0.106560636182903</v>
+      </c>
       <c r="AT12" s="62" t="s">
         <v>80</v>
       </c>
@@ -5913,7 +5958,10 @@
         <f t="shared" si="5"/>
         <v>0.0829694323144105</v>
       </c>
-      <c r="AC13" s="22"/>
+      <c r="AC13" s="52" t="e">
+        <f>(S13-T13)/S13</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AD13" s="22"/>
       <c r="AE13" s="22"/>
       <c r="AF13" s="22" t="s">
@@ -5924,7 +5972,10 @@
       </c>
       <c r="AH13" s="22"/>
       <c r="AI13" s="22"/>
-      <c r="AJ13" s="22"/>
+      <c r="AJ13" s="63">
+        <f>AH13-AI13</f>
+        <v>0</v>
+      </c>
       <c r="AK13" s="22">
         <v>37.13</v>
       </c>
@@ -5946,8 +5997,14 @@
         <f t="shared" si="8"/>
         <v>0.967320261437906</v>
       </c>
-      <c r="AQ13" s="22"/>
-      <c r="AR13" s="22"/>
+      <c r="AQ13" s="40">
+        <f>(AK13-AL13)/AK13</f>
+        <v>0.0412065715055212</v>
+      </c>
+      <c r="AR13" s="40">
+        <f>(AM13-AK13)/AK13</f>
+        <v>0.0398599515216805</v>
+      </c>
       <c r="AT13" s="62" t="s">
         <v>80</v>
       </c>
@@ -6047,7 +6104,10 @@
         <f t="shared" si="5"/>
         <v>0.0716981132075473</v>
       </c>
-      <c r="AC14" s="22"/>
+      <c r="AC14" s="52" t="e">
+        <f>(S14-T14)/S14</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AD14" s="22"/>
       <c r="AE14" s="22"/>
       <c r="AF14" s="22" t="s">
@@ -6058,7 +6118,10 @@
       </c>
       <c r="AH14" s="22"/>
       <c r="AI14" s="22"/>
-      <c r="AJ14" s="22"/>
+      <c r="AJ14" s="63">
+        <f>AH14-AI14</f>
+        <v>0</v>
+      </c>
       <c r="AK14" s="22">
         <v>37.09</v>
       </c>
@@ -6080,8 +6143,14 @@
         <f t="shared" si="8"/>
         <v>0.929347826086951</v>
       </c>
-      <c r="AQ14" s="22"/>
-      <c r="AR14" s="22"/>
+      <c r="AQ14" s="40">
+        <f>(AK14-AL14)/AK14</f>
+        <v>0.0496090590455649</v>
+      </c>
+      <c r="AR14" s="40">
+        <f>(AM14-AK14)/AK14</f>
+        <v>0.046104071178215</v>
+      </c>
       <c r="AT14" s="62" t="s">
         <v>80</v>
       </c>
@@ -6111,50 +6180,137 @@
       <c r="A15" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
+      <c r="B15" s="23">
+        <v>44529</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="22">
+        <v>22.26</v>
+      </c>
+      <c r="E15" s="22">
+        <v>22.69</v>
+      </c>
+      <c r="F15" s="22">
+        <v>24.83</v>
+      </c>
       <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
+      <c r="H15" s="22">
+        <v>28.99</v>
+      </c>
+      <c r="I15" s="22">
+        <v>14.46</v>
+      </c>
+      <c r="J15" s="22">
+        <v>31.94</v>
+      </c>
+      <c r="K15" s="41">
+        <f>(H15-I15)/I15</f>
+        <v>1.00484094052559</v>
+      </c>
+      <c r="L15" s="41">
+        <f>(J15-H15)/J15</f>
+        <v>0.0923606762680026</v>
+      </c>
       <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
+      <c r="N15" s="22">
+        <v>20.63</v>
+      </c>
+      <c r="O15" s="22">
+        <v>25.66</v>
+      </c>
+      <c r="P15" s="22">
+        <v>21.46</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>28.89</v>
+      </c>
+      <c r="R15" s="22">
+        <v>24.22</v>
+      </c>
+      <c r="S15" s="22">
+        <v>29.7</v>
+      </c>
+      <c r="T15" s="22">
+        <v>27.72</v>
+      </c>
       <c r="U15" s="22"/>
       <c r="V15" s="22"/>
       <c r="W15" s="22"/>
       <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
+      <c r="Y15" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z15" s="51">
+        <f>(J15-N15)/J15</f>
+        <v>0.354101440200376</v>
+      </c>
+      <c r="AA15" s="52">
+        <f>(O15-P15)/O15</f>
+        <v>0.163678877630553</v>
+      </c>
+      <c r="AB15" s="52">
+        <f>(Q15-R15)/Q15</f>
+        <v>0.161647628937349</v>
+      </c>
+      <c r="AC15" s="52">
+        <f>(S15-T15)/S15</f>
+        <v>0.0666666666666667</v>
+      </c>
       <c r="AD15" s="22"/>
       <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="22"/>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="22"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="22"/>
-      <c r="AL15" s="22"/>
-      <c r="AM15" s="22"/>
-      <c r="AN15" s="22"/>
-      <c r="AO15" s="22"/>
-      <c r="AP15" s="22"/>
-      <c r="AQ15" s="22"/>
-      <c r="AR15" s="22"/>
-      <c r="AT15" s="22"/>
+      <c r="AF15" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG15" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH15" s="22">
+        <v>31.18</v>
+      </c>
+      <c r="AI15" s="22">
+        <v>21.1</v>
+      </c>
+      <c r="AJ15" s="63">
+        <f>AH15-AI15</f>
+        <v>10.08</v>
+      </c>
+      <c r="AK15" s="22">
+        <v>29.77</v>
+      </c>
+      <c r="AL15" s="22">
+        <v>27.72</v>
+      </c>
+      <c r="AM15" s="22">
+        <v>34.93</v>
+      </c>
+      <c r="AN15" s="64">
+        <f>(AK15-AL15)*100</f>
+        <v>205</v>
+      </c>
+      <c r="AO15" s="22">
+        <f>FLOOR(300/(AK15-AL15),100)</f>
+        <v>100</v>
+      </c>
+      <c r="AP15" s="68">
+        <f>(AM15-AK15)/(AK15-AL15)</f>
+        <v>2.51707317073171</v>
+      </c>
+      <c r="AQ15" s="40">
+        <f>(AK15-AL15)/AK15</f>
+        <v>0.0688612697346322</v>
+      </c>
+      <c r="AR15" s="40">
+        <f>(AM15-AK15)/AK15</f>
+        <v>0.173328854551562</v>
+      </c>
+      <c r="AS15">
+        <v>17.95</v>
+      </c>
+      <c r="AT15" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="AU15" s="22"/>
       <c r="AV15" s="22"/>
       <c r="AW15" s="22"/>
@@ -6179,7 +6335,7 @@
     </row>
     <row r="16" ht="13" spans="1:67">
       <c r="A16" s="105" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -6249,7 +6405,7 @@
     </row>
     <row r="17" ht="13" spans="1:67">
       <c r="A17" s="105" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -6319,7 +6475,7 @@
     </row>
     <row r="18" ht="13" spans="1:67">
       <c r="A18" s="105" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -6389,7 +6545,7 @@
     </row>
     <row r="19" ht="13" spans="1:67">
       <c r="A19" s="105" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -6459,7 +6615,7 @@
     </row>
     <row r="20" ht="13" spans="1:67">
       <c r="A20" s="105" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -6529,7 +6685,7 @@
     </row>
     <row r="21" ht="13" spans="1:67">
       <c r="A21" s="105" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -6599,7 +6755,7 @@
     </row>
     <row r="22" ht="13" spans="1:67">
       <c r="A22" s="105" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -6669,7 +6825,7 @@
     </row>
     <row r="23" ht="13" spans="1:67">
       <c r="A23" s="105" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -6739,7 +6895,7 @@
     </row>
     <row r="24" ht="13" spans="1:67">
       <c r="A24" s="105" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -6809,7 +6965,7 @@
     </row>
     <row r="25" ht="13" spans="1:67">
       <c r="A25" s="105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -6879,7 +7035,7 @@
     </row>
     <row r="26" ht="13" spans="1:67">
       <c r="A26" s="105" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -6949,7 +7105,7 @@
     </row>
     <row r="27" ht="13" spans="1:67">
       <c r="A27" s="105" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -7019,7 +7175,7 @@
     </row>
     <row r="28" ht="13" spans="1:67">
       <c r="A28" s="105" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -7089,7 +7245,7 @@
     </row>
     <row r="29" ht="13" spans="1:67">
       <c r="A29" s="105" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -7159,7 +7315,7 @@
     </row>
     <row r="30" ht="13" spans="1:67">
       <c r="A30" s="105" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -7229,7 +7385,7 @@
     </row>
     <row r="31" ht="13" spans="1:67">
       <c r="A31" s="105" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -7299,7 +7455,7 @@
     </row>
     <row r="32" ht="13" spans="1:67">
       <c r="A32" s="105" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -7369,7 +7525,7 @@
     </row>
     <row r="33" ht="13" spans="1:67">
       <c r="A33" s="105" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -7439,7 +7595,7 @@
     </row>
     <row r="34" ht="13" spans="1:67">
       <c r="A34" s="105" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -7509,7 +7665,7 @@
     </row>
     <row r="35" ht="13" spans="1:67">
       <c r="A35" s="105" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -7579,7 +7735,7 @@
     </row>
     <row r="36" ht="13" spans="1:67">
       <c r="A36" s="105" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -7649,7 +7805,7 @@
     </row>
     <row r="37" ht="13" spans="1:67">
       <c r="A37" s="105" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -7719,7 +7875,7 @@
     </row>
     <row r="38" ht="13" spans="1:67">
       <c r="A38" s="105" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -7789,7 +7945,7 @@
     </row>
     <row r="39" ht="13" spans="1:67">
       <c r="A39" s="105" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -7859,7 +8015,7 @@
     </row>
     <row r="40" ht="13" spans="1:67">
       <c r="A40" s="105" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -7929,7 +8085,7 @@
     </row>
     <row r="41" ht="13" spans="1:67">
       <c r="A41" s="105" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -7999,7 +8155,7 @@
     </row>
     <row r="42" ht="13" spans="1:67">
       <c r="A42" s="105" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -8069,7 +8225,7 @@
     </row>
     <row r="43" ht="13" spans="1:67">
       <c r="A43" s="105" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
@@ -8139,7 +8295,7 @@
     </row>
     <row r="44" ht="13" spans="1:67">
       <c r="A44" s="105" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -8209,7 +8365,7 @@
     </row>
     <row r="45" ht="13" spans="1:67">
       <c r="A45" s="105" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -8279,7 +8435,7 @@
     </row>
     <row r="46" ht="13" spans="1:67">
       <c r="A46" s="105" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -8349,7 +8505,7 @@
     </row>
     <row r="47" ht="13" spans="1:67">
       <c r="A47" s="105" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -8419,7 +8575,7 @@
     </row>
     <row r="48" ht="13" spans="1:67">
       <c r="A48" s="105" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -8489,7 +8645,7 @@
     </row>
     <row r="49" ht="13" spans="1:67">
       <c r="A49" s="105" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -8559,7 +8715,7 @@
     </row>
     <row r="50" ht="13" spans="1:67">
       <c r="A50" s="105" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -8629,7 +8785,7 @@
     </row>
     <row r="51" ht="13" spans="1:67">
       <c r="A51" s="105" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -8699,7 +8855,7 @@
     </row>
     <row r="52" ht="13" spans="1:67">
       <c r="A52" s="105" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
@@ -8769,7 +8925,7 @@
     </row>
     <row r="53" ht="13" spans="1:67">
       <c r="A53" s="105" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
@@ -8839,7 +8995,7 @@
     </row>
     <row r="54" ht="13" spans="1:67">
       <c r="A54" s="105" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
@@ -8909,7 +9065,7 @@
     </row>
     <row r="55" ht="13" spans="1:67">
       <c r="A55" s="105" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
@@ -8979,7 +9135,7 @@
     </row>
     <row r="56" ht="13" spans="1:67">
       <c r="A56" s="105" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -9049,7 +9205,7 @@
     </row>
     <row r="57" ht="13" spans="1:67">
       <c r="A57" s="105" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
@@ -9119,7 +9275,7 @@
     </row>
     <row r="58" ht="13" spans="1:67">
       <c r="A58" s="105" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
@@ -9189,7 +9345,7 @@
     </row>
     <row r="59" ht="13" spans="1:67">
       <c r="A59" s="105" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
@@ -9259,7 +9415,7 @@
     </row>
     <row r="60" ht="13" spans="1:67">
       <c r="A60" s="105" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -9329,7 +9485,7 @@
     </row>
     <row r="61" ht="13" spans="1:67">
       <c r="A61" s="105" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
@@ -9399,7 +9555,7 @@
     </row>
     <row r="62" ht="13" spans="1:67">
       <c r="A62" s="105" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -9469,7 +9625,7 @@
     </row>
     <row r="63" ht="13" spans="1:67">
       <c r="A63" s="105" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
@@ -9539,7 +9695,7 @@
     </row>
     <row r="64" ht="13" spans="1:67">
       <c r="A64" s="105" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
@@ -9609,7 +9765,7 @@
     </row>
     <row r="65" ht="13" spans="1:67">
       <c r="A65" s="105" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
@@ -38563,22 +38719,22 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:99">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="CU1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
@@ -3845,11 +3845,11 @@
   <dimension ref="A1:DE562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK15" sqref="AK15"/>
+      <selection pane="bottomRight" activeCell="AS15" sqref="AS15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -6305,7 +6305,7 @@
         <f>(AM15-AK15)/AK15</f>
         <v>0.173328854551562</v>
       </c>
-      <c r="AS15">
+      <c r="AS15" s="22">
         <v>17.95</v>
       </c>
       <c r="AT15" s="62" t="s">

--- a/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
   <si>
     <t>交易计划</t>
   </si>
@@ -838,6 +838,12 @@
   50日均线：向上</t>
   </si>
   <si>
+    <t>26.96</t>
+  </si>
+  <si>
+    <t>24.74</t>
+  </si>
+  <si>
     <t>24w</t>
   </si>
   <si>
@@ -1264,7 +1270,7 @@
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1346,6 +1352,13 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue Bold"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2023,152 +2036,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2310,6 +2323,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2320,6 +2339,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2337,13 +2359,13 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2394,7 +2416,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2424,13 +2446,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2442,22 +2464,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -3640,11 +3659,11 @@
   <dimension ref="A1:DE557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AV9" sqref="AV9"/>
+      <selection pane="bottomRight" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3734,71 +3753,71 @@
       <c r="AR1" s="7"/>
       <c r="AS1" s="7"/>
       <c r="AT1" s="7"/>
-      <c r="AU1" s="63" t="s">
+      <c r="AU1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="63"/>
-      <c r="AY1" s="63"/>
-      <c r="AZ1" s="63"/>
-      <c r="BA1" s="63"/>
-      <c r="BB1" s="63"/>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="79" t="s">
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="66"/>
+      <c r="BC1" s="66"/>
+      <c r="BD1" s="66"/>
+      <c r="BE1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="BF1" s="79"/>
-      <c r="BG1" s="79"/>
-      <c r="BH1" s="79"/>
-      <c r="BI1" s="79"/>
-      <c r="BJ1" s="79"/>
-      <c r="BK1" s="79"/>
-      <c r="BL1" s="79"/>
-      <c r="BM1" s="79"/>
-      <c r="BN1" s="85" t="s">
+      <c r="BF1" s="82"/>
+      <c r="BG1" s="82"/>
+      <c r="BH1" s="82"/>
+      <c r="BI1" s="82"/>
+      <c r="BJ1" s="82"/>
+      <c r="BK1" s="82"/>
+      <c r="BL1" s="82"/>
+      <c r="BM1" s="82"/>
+      <c r="BN1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="BO1" s="85"/>
-      <c r="BP1" s="85"/>
-      <c r="BQ1" s="93"/>
-      <c r="BR1" s="93"/>
-      <c r="BS1" s="93"/>
-      <c r="BT1" s="93"/>
-      <c r="BU1" s="93"/>
-      <c r="BV1" s="93"/>
-      <c r="BW1" s="93"/>
-      <c r="BX1" s="93"/>
-      <c r="BZ1" s="95"/>
-      <c r="CA1" s="95"/>
-      <c r="CB1" s="95"/>
-      <c r="CC1" s="95"/>
-      <c r="CD1" s="95"/>
-      <c r="CE1" s="95"/>
-      <c r="CF1" s="95"/>
-      <c r="CG1" s="95"/>
-      <c r="CI1" s="95"/>
-      <c r="CJ1" s="95"/>
-      <c r="CK1" s="95"/>
-      <c r="CL1" s="95"/>
-      <c r="CM1" s="95"/>
-      <c r="CN1" s="95"/>
-      <c r="CO1" s="95"/>
-      <c r="CQ1" s="95"/>
-      <c r="CR1" s="95"/>
-      <c r="CS1" s="95"/>
-      <c r="CT1" s="95"/>
-      <c r="CU1" s="95"/>
-      <c r="CV1" s="95"/>
-      <c r="CW1" s="95"/>
-      <c r="CY1" s="95"/>
-      <c r="CZ1" s="95"/>
-      <c r="DA1" s="95"/>
-      <c r="DB1" s="95"/>
-      <c r="DC1" s="95"/>
-      <c r="DD1" s="95"/>
-      <c r="DE1" s="95"/>
+      <c r="BO1" s="88"/>
+      <c r="BP1" s="88"/>
+      <c r="BQ1" s="95"/>
+      <c r="BR1" s="95"/>
+      <c r="BS1" s="95"/>
+      <c r="BT1" s="95"/>
+      <c r="BU1" s="95"/>
+      <c r="BV1" s="95"/>
+      <c r="BW1" s="95"/>
+      <c r="BX1" s="95"/>
+      <c r="BZ1" s="97"/>
+      <c r="CA1" s="97"/>
+      <c r="CB1" s="97"/>
+      <c r="CC1" s="97"/>
+      <c r="CD1" s="97"/>
+      <c r="CE1" s="97"/>
+      <c r="CF1" s="97"/>
+      <c r="CG1" s="97"/>
+      <c r="CI1" s="97"/>
+      <c r="CJ1" s="97"/>
+      <c r="CK1" s="97"/>
+      <c r="CL1" s="97"/>
+      <c r="CM1" s="97"/>
+      <c r="CN1" s="97"/>
+      <c r="CO1" s="97"/>
+      <c r="CQ1" s="97"/>
+      <c r="CR1" s="97"/>
+      <c r="CS1" s="97"/>
+      <c r="CT1" s="97"/>
+      <c r="CU1" s="97"/>
+      <c r="CV1" s="97"/>
+      <c r="CW1" s="97"/>
+      <c r="CY1" s="97"/>
+      <c r="CZ1" s="97"/>
+      <c r="DA1" s="97"/>
+      <c r="DB1" s="97"/>
+      <c r="DC1" s="97"/>
+      <c r="DD1" s="97"/>
+      <c r="DE1" s="97"/>
     </row>
     <row r="2" ht="23.6" spans="1:109">
       <c r="A2" s="9" t="s">
@@ -3866,7 +3885,7 @@
         <v>18</v>
       </c>
       <c r="AI2" s="44"/>
-      <c r="AJ2" s="52"/>
+      <c r="AJ2" s="55"/>
       <c r="AK2" s="29" t="s">
         <v>19</v>
       </c>
@@ -3891,115 +3910,115 @@
       <c r="AR2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AS2" s="64" t="s">
+      <c r="AS2" s="67" t="s">
         <v>27</v>
       </c>
       <c r="AT2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AU2" s="65" t="s">
+      <c r="AU2" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AV2" s="66" t="s">
+      <c r="AV2" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="AW2" s="66" t="s">
+      <c r="AW2" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="AX2" s="66" t="s">
+      <c r="AX2" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="AY2" s="66" t="s">
+      <c r="AY2" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="AZ2" s="66" t="s">
+      <c r="AZ2" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="BA2" s="66" t="s">
+      <c r="BA2" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="BB2" s="66" t="s">
+      <c r="BB2" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="BC2" s="66" t="s">
+      <c r="BC2" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="BD2" s="66" t="s">
+      <c r="BD2" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="BE2" s="80" t="s">
+      <c r="BE2" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="BF2" s="80" t="s">
+      <c r="BF2" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="BG2" s="80" t="s">
+      <c r="BG2" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="BH2" s="80" t="s">
+      <c r="BH2" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="BI2" s="80" t="s">
+      <c r="BI2" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="BJ2" s="80" t="s">
+      <c r="BJ2" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="BK2" s="80" t="s">
+      <c r="BK2" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="BL2" s="80" t="s">
+      <c r="BL2" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="BM2" s="80" t="s">
+      <c r="BM2" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="BN2" s="86" t="s">
+      <c r="BN2" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="BO2" s="86" t="s">
+      <c r="BO2" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="BP2" s="87" t="s">
+      <c r="BP2" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="BQ2" s="93"/>
-      <c r="BR2" s="93"/>
-      <c r="BS2" s="93"/>
-      <c r="BT2" s="93"/>
-      <c r="BU2" s="93"/>
-      <c r="BV2" s="93"/>
-      <c r="BW2" s="93"/>
-      <c r="BX2" s="93"/>
-      <c r="BZ2" s="95"/>
-      <c r="CA2" s="95"/>
-      <c r="CB2" s="95"/>
-      <c r="CC2" s="95"/>
-      <c r="CD2" s="95"/>
-      <c r="CE2" s="95"/>
-      <c r="CF2" s="95"/>
-      <c r="CG2" s="95"/>
-      <c r="CI2" s="95"/>
-      <c r="CJ2" s="95"/>
-      <c r="CK2" s="95"/>
-      <c r="CL2" s="95"/>
-      <c r="CM2" s="95"/>
-      <c r="CN2" s="95"/>
-      <c r="CO2" s="95"/>
-      <c r="CQ2" s="95"/>
-      <c r="CR2" s="95"/>
-      <c r="CS2" s="95"/>
-      <c r="CT2" s="95"/>
-      <c r="CU2" s="95"/>
-      <c r="CV2" s="95"/>
-      <c r="CW2" s="95"/>
-      <c r="CY2" s="95"/>
-      <c r="CZ2" s="95"/>
-      <c r="DA2" s="95"/>
-      <c r="DB2" s="95"/>
-      <c r="DC2" s="95"/>
-      <c r="DD2" s="95"/>
-      <c r="DE2" s="95"/>
+      <c r="BQ2" s="95"/>
+      <c r="BR2" s="95"/>
+      <c r="BS2" s="95"/>
+      <c r="BT2" s="95"/>
+      <c r="BU2" s="95"/>
+      <c r="BV2" s="95"/>
+      <c r="BW2" s="95"/>
+      <c r="BX2" s="95"/>
+      <c r="BZ2" s="97"/>
+      <c r="CA2" s="97"/>
+      <c r="CB2" s="97"/>
+      <c r="CC2" s="97"/>
+      <c r="CD2" s="97"/>
+      <c r="CE2" s="97"/>
+      <c r="CF2" s="97"/>
+      <c r="CG2" s="97"/>
+      <c r="CI2" s="97"/>
+      <c r="CJ2" s="97"/>
+      <c r="CK2" s="97"/>
+      <c r="CL2" s="97"/>
+      <c r="CM2" s="97"/>
+      <c r="CN2" s="97"/>
+      <c r="CO2" s="97"/>
+      <c r="CQ2" s="97"/>
+      <c r="CR2" s="97"/>
+      <c r="CS2" s="97"/>
+      <c r="CT2" s="97"/>
+      <c r="CU2" s="97"/>
+      <c r="CV2" s="97"/>
+      <c r="CW2" s="97"/>
+      <c r="CY2" s="97"/>
+      <c r="CZ2" s="97"/>
+      <c r="DA2" s="97"/>
+      <c r="DB2" s="97"/>
+      <c r="DC2" s="97"/>
+      <c r="DD2" s="97"/>
+      <c r="DE2" s="97"/>
     </row>
     <row r="3" ht="48" spans="1:109">
       <c r="A3" s="9"/>
@@ -4072,90 +4091,90 @@
       <c r="AF3" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="AG3" s="53" t="s">
+      <c r="AG3" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="AH3" s="54" t="s">
+      <c r="AH3" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="AI3" s="54" t="s">
+      <c r="AI3" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="AJ3" s="55" t="s">
+      <c r="AJ3" s="58" t="s">
         <v>73</v>
       </c>
       <c r="AK3" s="30"/>
       <c r="AL3" s="30"/>
       <c r="AM3" s="30"/>
-      <c r="AN3" s="53"/>
-      <c r="AO3" s="53"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
       <c r="AP3" s="30"/>
       <c r="AQ3" s="30"/>
       <c r="AR3" s="30"/>
-      <c r="AS3" s="67"/>
+      <c r="AS3" s="70"/>
       <c r="AT3" s="30"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="69"/>
-      <c r="AW3" s="76"/>
-      <c r="AX3" s="76"/>
-      <c r="AY3" s="76"/>
-      <c r="AZ3" s="76"/>
-      <c r="BA3" s="76"/>
-      <c r="BB3" s="76"/>
-      <c r="BC3" s="76"/>
-      <c r="BD3" s="69"/>
-      <c r="BE3" s="81"/>
-      <c r="BF3" s="82"/>
-      <c r="BG3" s="81"/>
-      <c r="BH3" s="82"/>
-      <c r="BI3" s="82"/>
-      <c r="BJ3" s="82"/>
-      <c r="BK3" s="81"/>
-      <c r="BL3" s="81"/>
-      <c r="BM3" s="82"/>
-      <c r="BN3" s="88"/>
-      <c r="BO3" s="89"/>
-      <c r="BP3" s="90"/>
-      <c r="BQ3" s="93"/>
-      <c r="BR3" s="93"/>
-      <c r="BS3" s="93"/>
-      <c r="BT3" s="93"/>
-      <c r="BU3" s="93"/>
-      <c r="BV3" s="93"/>
-      <c r="BW3" s="93"/>
-      <c r="BX3" s="93"/>
-      <c r="BZ3" s="95"/>
-      <c r="CA3" s="95"/>
-      <c r="CB3" s="95"/>
-      <c r="CC3" s="95"/>
-      <c r="CD3" s="95"/>
-      <c r="CE3" s="95"/>
-      <c r="CF3" s="95"/>
-      <c r="CG3" s="95"/>
-      <c r="CI3" s="95"/>
-      <c r="CJ3" s="95"/>
-      <c r="CK3" s="95"/>
-      <c r="CL3" s="95"/>
-      <c r="CM3" s="95"/>
-      <c r="CN3" s="95"/>
-      <c r="CO3" s="95"/>
-      <c r="CQ3" s="95"/>
-      <c r="CR3" s="95"/>
-      <c r="CS3" s="95"/>
-      <c r="CT3" s="95"/>
-      <c r="CU3" s="95"/>
-      <c r="CV3" s="95"/>
-      <c r="CW3" s="95"/>
-      <c r="CY3" s="95"/>
-      <c r="CZ3" s="95"/>
-      <c r="DA3" s="95"/>
-      <c r="DB3" s="95"/>
-      <c r="DC3" s="95"/>
-      <c r="DD3" s="95"/>
-      <c r="DE3" s="95"/>
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="79"/>
+      <c r="AX3" s="79"/>
+      <c r="AY3" s="79"/>
+      <c r="AZ3" s="79"/>
+      <c r="BA3" s="79"/>
+      <c r="BB3" s="79"/>
+      <c r="BC3" s="79"/>
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="84"/>
+      <c r="BF3" s="85"/>
+      <c r="BG3" s="84"/>
+      <c r="BH3" s="85"/>
+      <c r="BI3" s="85"/>
+      <c r="BJ3" s="85"/>
+      <c r="BK3" s="84"/>
+      <c r="BL3" s="84"/>
+      <c r="BM3" s="85"/>
+      <c r="BN3" s="91"/>
+      <c r="BO3" s="92"/>
+      <c r="BP3" s="93"/>
+      <c r="BQ3" s="95"/>
+      <c r="BR3" s="95"/>
+      <c r="BS3" s="95"/>
+      <c r="BT3" s="95"/>
+      <c r="BU3" s="95"/>
+      <c r="BV3" s="95"/>
+      <c r="BW3" s="95"/>
+      <c r="BX3" s="95"/>
+      <c r="BZ3" s="97"/>
+      <c r="CA3" s="97"/>
+      <c r="CB3" s="97"/>
+      <c r="CC3" s="97"/>
+      <c r="CD3" s="97"/>
+      <c r="CE3" s="97"/>
+      <c r="CF3" s="97"/>
+      <c r="CG3" s="97"/>
+      <c r="CI3" s="97"/>
+      <c r="CJ3" s="97"/>
+      <c r="CK3" s="97"/>
+      <c r="CL3" s="97"/>
+      <c r="CM3" s="97"/>
+      <c r="CN3" s="97"/>
+      <c r="CO3" s="97"/>
+      <c r="CQ3" s="97"/>
+      <c r="CR3" s="97"/>
+      <c r="CS3" s="97"/>
+      <c r="CT3" s="97"/>
+      <c r="CU3" s="97"/>
+      <c r="CV3" s="97"/>
+      <c r="CW3" s="97"/>
+      <c r="CY3" s="97"/>
+      <c r="CZ3" s="97"/>
+      <c r="DA3" s="97"/>
+      <c r="DB3" s="97"/>
+      <c r="DC3" s="97"/>
+      <c r="DD3" s="97"/>
+      <c r="DE3" s="97"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="23.6" spans="1:109">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="99" t="s">
         <v>74</v>
       </c>
       <c r="B4" s="15">
@@ -4221,10 +4240,14 @@
       <c r="V4" s="14">
         <v>24.52</v>
       </c>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="48" t="s">
+      <c r="W4" s="49" t="s">
         <v>77</v>
+      </c>
+      <c r="X4" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y4" s="50" t="s">
+        <v>79</v>
       </c>
       <c r="Z4" s="40">
         <f>(J4-N4)/J4</f>
@@ -4246,12 +4269,15 @@
         <f>(U4-V4)/U4</f>
         <v>0.0641221374045801</v>
       </c>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG4" s="56" t="s">
-        <v>79</v>
+      <c r="AE4" s="53">
+        <f>(W4-X4)/W4</f>
+        <v>0.0823442136498517</v>
+      </c>
+      <c r="AF4" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG4" s="59" t="s">
+        <v>81</v>
       </c>
       <c r="AH4" s="17">
         <v>28.15</v>
@@ -4280,7 +4306,7 @@
         <f>FLOOR(300/(AK4-AL4),100)</f>
         <v>100</v>
       </c>
-      <c r="AP4" s="60">
+      <c r="AP4" s="63">
         <f>(AM4-AK4)/(AK4-AL4)</f>
         <v>4.13815789473685</v>
       </c>
@@ -4295,13 +4321,13 @@
       <c r="AS4" s="17">
         <v>150.88</v>
       </c>
-      <c r="AT4" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU4" s="70">
+      <c r="AT4" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU4" s="73">
         <v>44523</v>
       </c>
-      <c r="AV4" s="71">
+      <c r="AV4" s="74">
         <v>26.2</v>
       </c>
       <c r="AW4" s="14">
@@ -4310,14 +4336,14 @@
       <c r="AX4" s="14">
         <v>5</v>
       </c>
-      <c r="AY4" s="60">
+      <c r="AY4" s="63">
         <v>0</v>
       </c>
-      <c r="AZ4" s="71">
+      <c r="AZ4" s="74">
         <f>AV4*AW4+AX4+AY4</f>
         <v>5245</v>
       </c>
-      <c r="BA4" s="71">
+      <c r="BA4" s="74">
         <f>(AV4-AL4)*AW4+AX4+AY4</f>
         <v>309</v>
       </c>
@@ -4331,13 +4357,13 @@
         <f>(BB4-AV4)/(BB4-BC4)</f>
         <v>0.232558139534884</v>
       </c>
-      <c r="BE4" s="83">
+      <c r="BE4" s="86">
         <v>44526</v>
       </c>
       <c r="BF4" s="46">
         <v>24.89</v>
       </c>
-      <c r="BG4" s="84">
+      <c r="BG4" s="87">
         <v>100</v>
       </c>
       <c r="BH4" s="46">
@@ -4346,65 +4372,65 @@
       <c r="BI4" s="46">
         <v>2.489</v>
       </c>
-      <c r="BJ4" s="61">
+      <c r="BJ4" s="64">
         <f>BF4*BG4-BH4-BI4</f>
         <v>2481.511</v>
       </c>
-      <c r="BK4" s="84">
+      <c r="BK4" s="87">
         <v>27.43</v>
       </c>
-      <c r="BL4" s="84">
+      <c r="BL4" s="87">
         <v>24.74</v>
       </c>
-      <c r="BM4" s="91">
+      <c r="BM4" s="53">
         <f>(BF4-BL4)/(BK4-BL4)</f>
         <v>0.0557620817843874</v>
       </c>
-      <c r="BN4" s="61">
+      <c r="BN4" s="64">
         <f>BJ4-AZ4/2</f>
         <v>-140.989</v>
       </c>
       <c r="BO4" s="46"/>
-      <c r="BP4" s="92" t="s">
-        <v>81</v>
-      </c>
-      <c r="BQ4" s="94"/>
-      <c r="BR4" s="94"/>
-      <c r="BS4" s="94"/>
-      <c r="BT4" s="94"/>
-      <c r="BU4" s="94"/>
-      <c r="BV4" s="94"/>
-      <c r="BW4" s="94"/>
-      <c r="BX4" s="94"/>
-      <c r="BZ4" s="96"/>
-      <c r="CA4" s="96"/>
-      <c r="CB4" s="96"/>
-      <c r="CC4" s="96"/>
-      <c r="CD4" s="96"/>
-      <c r="CE4" s="96"/>
-      <c r="CF4" s="96"/>
-      <c r="CG4" s="96"/>
-      <c r="CI4" s="96"/>
-      <c r="CJ4" s="96"/>
-      <c r="CK4" s="96"/>
-      <c r="CL4" s="96"/>
-      <c r="CM4" s="96"/>
-      <c r="CN4" s="96"/>
-      <c r="CO4" s="96"/>
-      <c r="CQ4" s="96"/>
-      <c r="CR4" s="96"/>
-      <c r="CS4" s="96"/>
-      <c r="CT4" s="96"/>
-      <c r="CU4" s="96"/>
-      <c r="CV4" s="96"/>
-      <c r="CW4" s="96"/>
-      <c r="CY4" s="96"/>
-      <c r="CZ4" s="96"/>
-      <c r="DA4" s="96"/>
-      <c r="DB4" s="96"/>
-      <c r="DC4" s="96"/>
-      <c r="DD4" s="96"/>
-      <c r="DE4" s="96"/>
+      <c r="BP4" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="BQ4" s="96"/>
+      <c r="BR4" s="96"/>
+      <c r="BS4" s="96"/>
+      <c r="BT4" s="96"/>
+      <c r="BU4" s="96"/>
+      <c r="BV4" s="96"/>
+      <c r="BW4" s="96"/>
+      <c r="BX4" s="96"/>
+      <c r="BZ4" s="98"/>
+      <c r="CA4" s="98"/>
+      <c r="CB4" s="98"/>
+      <c r="CC4" s="98"/>
+      <c r="CD4" s="98"/>
+      <c r="CE4" s="98"/>
+      <c r="CF4" s="98"/>
+      <c r="CG4" s="98"/>
+      <c r="CI4" s="98"/>
+      <c r="CJ4" s="98"/>
+      <c r="CK4" s="98"/>
+      <c r="CL4" s="98"/>
+      <c r="CM4" s="98"/>
+      <c r="CN4" s="98"/>
+      <c r="CO4" s="98"/>
+      <c r="CQ4" s="98"/>
+      <c r="CR4" s="98"/>
+      <c r="CS4" s="98"/>
+      <c r="CT4" s="98"/>
+      <c r="CU4" s="98"/>
+      <c r="CV4" s="98"/>
+      <c r="CW4" s="98"/>
+      <c r="CY4" s="98"/>
+      <c r="CZ4" s="98"/>
+      <c r="DA4" s="98"/>
+      <c r="DB4" s="98"/>
+      <c r="DC4" s="98"/>
+      <c r="DD4" s="98"/>
+      <c r="DE4" s="98"/>
     </row>
     <row r="5" s="4" customFormat="1" spans="1:68">
       <c r="A5" s="14"/>
@@ -4429,17 +4455,17 @@
       <c r="T5" s="17"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="48"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="50"/>
       <c r="Z5" s="40"/>
       <c r="AA5" s="40"/>
       <c r="AB5" s="40"/>
       <c r="AC5" s="40"/>
       <c r="AD5" s="40"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="56"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="59"/>
       <c r="AH5" s="17"/>
       <c r="AI5" s="17"/>
       <c r="AJ5" s="17"/>
@@ -4448,18 +4474,18 @@
       <c r="AM5" s="17"/>
       <c r="AN5" s="17"/>
       <c r="AO5" s="17"/>
-      <c r="AP5" s="60"/>
+      <c r="AP5" s="63"/>
       <c r="AQ5" s="40"/>
       <c r="AR5" s="40"/>
       <c r="AS5" s="17"/>
-      <c r="AT5" s="56"/>
-      <c r="AU5" s="70"/>
-      <c r="AV5" s="71"/>
+      <c r="AT5" s="59"/>
+      <c r="AU5" s="73"/>
+      <c r="AV5" s="74"/>
       <c r="AW5" s="14"/>
       <c r="AX5" s="14"/>
-      <c r="AY5" s="60"/>
-      <c r="AZ5" s="71"/>
-      <c r="BA5" s="71"/>
+      <c r="AY5" s="63"/>
+      <c r="AZ5" s="74"/>
+      <c r="BA5" s="74"/>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
       <c r="BD5" s="40"/>
@@ -4468,26 +4494,26 @@
       <c r="BG5" s="14"/>
       <c r="BH5" s="14"/>
       <c r="BI5" s="14"/>
-      <c r="BJ5" s="61"/>
+      <c r="BJ5" s="64"/>
       <c r="BK5" s="14"/>
       <c r="BL5" s="14"/>
-      <c r="BM5" s="91" t="e">
+      <c r="BM5" s="53" t="e">
         <f>(BF5-BL5)/(BK5-BL5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BN5" s="61"/>
+      <c r="BN5" s="64"/>
       <c r="BO5" s="14"/>
-      <c r="BP5" s="92"/>
+      <c r="BP5" s="94"/>
     </row>
     <row r="6" s="5" customFormat="1" ht="38" spans="1:67">
-      <c r="A6" s="98" t="s">
-        <v>82</v>
+      <c r="A6" s="100" t="s">
+        <v>84</v>
       </c>
       <c r="B6" s="15">
         <v>44517</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D6" s="19">
         <v>31.92</v>
@@ -4499,7 +4525,7 @@
         <v>33.17</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H6" s="19">
         <v>33.73</v>
@@ -4544,35 +4570,35 @@
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
       <c r="X6" s="18"/>
-      <c r="Y6" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z6" s="50">
+      <c r="Y6" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z6" s="52">
         <f>(J6-N6)/J6</f>
         <v>0.307068887888339</v>
       </c>
-      <c r="AA6" s="50">
+      <c r="AA6" s="52">
         <f>(O6-P6)/O6</f>
         <v>0.106571428571429</v>
       </c>
-      <c r="AB6" s="50">
+      <c r="AB6" s="52">
         <f>(Q6-R6)/Q6</f>
         <v>0.077541642734061</v>
       </c>
-      <c r="AC6" s="50">
+      <c r="AC6" s="52">
         <f>(S6-T6)/S6</f>
         <v>0.0463207270595133</v>
       </c>
-      <c r="AD6" s="50" t="e">
+      <c r="AD6" s="52" t="e">
         <f>(U6-V6)/U6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE6" s="18"/>
-      <c r="AF6" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG6" s="57" t="s">
-        <v>86</v>
+      <c r="AF6" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG6" s="60" t="s">
+        <v>88</v>
       </c>
       <c r="AH6" s="19">
         <v>35.48</v>
@@ -4601,7 +4627,7 @@
         <f>FLOOR(300/(AK6-AL6),100)</f>
         <v>100</v>
       </c>
-      <c r="AP6" s="60">
+      <c r="AP6" s="63">
         <f>(AM6-AK6)/(AK6-AL6)</f>
         <v>3.27672955974844</v>
       </c>
@@ -4616,64 +4642,64 @@
       <c r="AS6" s="19">
         <v>37.41</v>
       </c>
-      <c r="AT6" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU6" s="72">
+      <c r="AT6" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU6" s="75">
         <v>44523</v>
       </c>
-      <c r="AV6" s="73">
+      <c r="AV6" s="76">
         <v>33.73</v>
       </c>
-      <c r="AW6" s="73">
+      <c r="AW6" s="76">
         <v>100</v>
       </c>
-      <c r="AX6" s="73">
+      <c r="AX6" s="76">
         <v>5</v>
       </c>
-      <c r="AY6" s="77">
+      <c r="AY6" s="80">
         <f>AV6*AW6*0.2/10000</f>
         <v>0.06746</v>
       </c>
-      <c r="AZ6" s="74">
+      <c r="AZ6" s="77">
         <f>AV6*AW6+AX6+AY6</f>
         <v>3378.06746</v>
       </c>
-      <c r="BA6" s="74">
+      <c r="BA6" s="77">
         <f>(AV6-AL6)*AW6+AX6+AY6</f>
         <v>125.06746</v>
       </c>
-      <c r="BB6" s="73">
+      <c r="BB6" s="76">
         <v>35.36</v>
       </c>
-      <c r="BC6" s="73">
+      <c r="BC6" s="76">
         <v>33.1</v>
       </c>
       <c r="BD6" s="41">
         <f>(BB6-AV6)/(BB6-BC6)</f>
         <v>0.721238938053099</v>
       </c>
-      <c r="BE6" s="73"/>
+      <c r="BE6" s="76"/>
       <c r="BF6" s="18"/>
       <c r="BG6" s="18"/>
       <c r="BH6" s="18"/>
       <c r="BI6" s="18"/>
-      <c r="BJ6" s="61"/>
+      <c r="BJ6" s="64"/>
       <c r="BK6" s="18"/>
       <c r="BL6" s="18"/>
-      <c r="BM6" s="91"/>
-      <c r="BN6" s="61"/>
+      <c r="BM6" s="53"/>
+      <c r="BN6" s="64"/>
       <c r="BO6" s="18"/>
     </row>
     <row r="7" s="5" customFormat="1" ht="38" spans="1:67">
-      <c r="A7" s="98" t="s">
-        <v>88</v>
+      <c r="A7" s="100" t="s">
+        <v>90</v>
       </c>
       <c r="B7" s="15">
         <v>44519</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D7" s="19">
         <v>28.2</v>
@@ -4685,7 +4711,7 @@
         <v>31.53</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H7" s="34">
         <v>32.57</v>
@@ -4720,41 +4746,45 @@
       <c r="R7" s="19">
         <v>30.89</v>
       </c>
-      <c r="S7" s="19"/>
-      <c r="T7" s="18"/>
+      <c r="S7" s="47">
+        <v>34.66</v>
+      </c>
+      <c r="T7" s="48">
+        <v>32.59</v>
+      </c>
       <c r="U7" s="18"/>
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
       <c r="X7" s="18"/>
-      <c r="Y7" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z7" s="50">
+      <c r="Y7" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z7" s="52">
         <f>(J7-N7)/J7</f>
         <v>0.315180722891566</v>
       </c>
-      <c r="AA7" s="50">
+      <c r="AA7" s="52">
         <f>(O7-P7)/O7</f>
         <v>0.164265129682997</v>
       </c>
-      <c r="AB7" s="50">
+      <c r="AB7" s="52">
         <f>(Q7-R7)/Q7</f>
         <v>0.124184859654097</v>
       </c>
-      <c r="AC7" s="50" t="e">
+      <c r="AC7" s="52">
         <f>(S7-T7)/S7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD7" s="50" t="e">
+        <v>0.0597230236583957</v>
+      </c>
+      <c r="AD7" s="52" t="e">
         <f>(U7-V7)/U7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE7" s="18"/>
-      <c r="AF7" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG7" s="57" t="s">
-        <v>92</v>
+      <c r="AF7" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG7" s="60" t="s">
+        <v>94</v>
       </c>
       <c r="AH7" s="19">
         <v>36.21</v>
@@ -4783,7 +4813,7 @@
         <f>FLOOR(300/(AK7-AL7),100)</f>
         <v>100</v>
       </c>
-      <c r="AP7" s="60">
+      <c r="AP7" s="63">
         <f>(AM7-AK7)/(AK7-AL7)</f>
         <v>2.02840909090909</v>
       </c>
@@ -4798,76 +4828,76 @@
       <c r="AS7" s="19">
         <v>28.82</v>
       </c>
-      <c r="AT7" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU7" s="72">
+      <c r="AT7" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU7" s="75">
         <v>44522</v>
       </c>
-      <c r="AV7" s="74">
+      <c r="AV7" s="77">
         <v>32.7</v>
       </c>
-      <c r="AW7" s="73">
+      <c r="AW7" s="76">
         <v>100</v>
       </c>
-      <c r="AX7" s="73">
+      <c r="AX7" s="76">
         <v>5</v>
       </c>
-      <c r="AY7" s="77">
+      <c r="AY7" s="80">
         <f>AV7*AW7*0.2/10000</f>
         <v>0.0654</v>
       </c>
-      <c r="AZ7" s="74">
+      <c r="AZ7" s="77">
         <f>AV7*AW7+AX7+AY7</f>
         <v>3275.0654</v>
       </c>
-      <c r="BA7" s="74">
+      <c r="BA7" s="77">
         <f>(AV7-AL7)*AW7+AX7+AY7</f>
         <v>186.0654</v>
       </c>
-      <c r="BB7" s="74">
+      <c r="BB7" s="77">
         <v>33.9</v>
       </c>
-      <c r="BC7" s="74">
+      <c r="BC7" s="77">
         <v>32.49</v>
       </c>
       <c r="BD7" s="41">
         <f>(BB7-AV7)/(BB7-BC7)</f>
         <v>0.851063829787233</v>
       </c>
-      <c r="BE7" s="73"/>
+      <c r="BE7" s="76"/>
       <c r="BF7" s="18"/>
       <c r="BG7" s="18"/>
       <c r="BH7" s="18"/>
       <c r="BI7" s="18"/>
-      <c r="BJ7" s="61"/>
+      <c r="BJ7" s="64"/>
       <c r="BK7" s="18"/>
       <c r="BL7" s="18"/>
-      <c r="BM7" s="91"/>
-      <c r="BN7" s="61"/>
+      <c r="BM7" s="53"/>
+      <c r="BN7" s="64"/>
       <c r="BO7" s="18"/>
     </row>
     <row r="8" s="4" customFormat="1" ht="38" spans="1:68">
-      <c r="A8" s="98" t="s">
-        <v>93</v>
+      <c r="A8" s="100" t="s">
+        <v>95</v>
       </c>
       <c r="B8" s="20">
         <v>44525</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D8" s="22">
         <v>64.32</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F8" s="22">
         <v>68.37</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H8" s="22">
         <v>69.16</v>
@@ -4909,31 +4939,31 @@
       <c r="W8" s="22"/>
       <c r="X8" s="22"/>
       <c r="Y8" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z8" s="50">
+        <v>99</v>
+      </c>
+      <c r="Z8" s="52">
         <f>(J8-N8)/J8</f>
         <v>0.33492081072101</v>
       </c>
-      <c r="AA8" s="50">
+      <c r="AA8" s="52">
         <f>(O8-P8)/O8</f>
         <v>0.123745819397993</v>
       </c>
-      <c r="AB8" s="50">
+      <c r="AB8" s="52">
         <f>(Q8-R8)/Q8</f>
         <v>0.0577627500704425</v>
       </c>
-      <c r="AC8" s="50" t="e">
+      <c r="AC8" s="52" t="e">
         <f>(S8-T8)/S8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AD8" s="42"/>
       <c r="AE8" s="22"/>
       <c r="AF8" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG8" s="58" t="s">
-        <v>98</v>
+        <v>93</v>
+      </c>
+      <c r="AG8" s="61" t="s">
+        <v>100</v>
       </c>
       <c r="AH8" s="22">
         <v>75.02</v>
@@ -4962,7 +4992,7 @@
         <f>FLOOR(300/(AK8-AL8),100)</f>
         <v>0</v>
       </c>
-      <c r="AP8" s="60">
+      <c r="AP8" s="63">
         <f>(AM8-AK8)/(AK8-AL8)</f>
         <v>3.40487804878048</v>
       </c>
@@ -4977,8 +5007,8 @@
       <c r="AS8" s="22">
         <v>6.49</v>
       </c>
-      <c r="AT8" s="58" t="s">
-        <v>87</v>
+      <c r="AT8" s="61" t="s">
+        <v>89</v>
       </c>
       <c r="AU8" s="20">
         <v>44526</v>
@@ -4992,14 +5022,14 @@
       <c r="AX8" s="22">
         <v>5</v>
       </c>
-      <c r="AY8" s="77">
+      <c r="AY8" s="80">
         <v>0</v>
       </c>
-      <c r="AZ8" s="74">
+      <c r="AZ8" s="77">
         <f>AV8*AW8+AX8+AY8</f>
         <v>7212</v>
       </c>
-      <c r="BA8" s="74">
+      <c r="BA8" s="77">
         <f>(AV8-AL8)*AW8+AX8+AY8</f>
         <v>524</v>
       </c>
@@ -5018,23 +5048,23 @@
       <c r="BG8" s="22"/>
       <c r="BH8" s="22"/>
       <c r="BI8" s="22"/>
-      <c r="BJ8" s="61"/>
+      <c r="BJ8" s="64"/>
       <c r="BK8" s="22"/>
       <c r="BL8" s="22"/>
-      <c r="BM8" s="91"/>
-      <c r="BN8" s="61"/>
+      <c r="BM8" s="53"/>
+      <c r="BN8" s="64"/>
       <c r="BO8" s="22"/>
-      <c r="BP8" s="58"/>
+      <c r="BP8" s="61"/>
     </row>
     <row r="9" s="4" customFormat="1" ht="24" spans="1:68">
-      <c r="A9" s="99" t="s">
-        <v>99</v>
+      <c r="A9" s="101" t="s">
+        <v>101</v>
       </c>
       <c r="B9" s="20">
         <v>44522</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D9" s="22">
         <v>28.37</v>
@@ -5086,7 +5116,7 @@
       <c r="W9" s="22"/>
       <c r="X9" s="22"/>
       <c r="Y9" s="22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z9" s="42">
         <f>(J9-N9)/J9</f>
@@ -5110,10 +5140,10 @@
       </c>
       <c r="AE9" s="22"/>
       <c r="AF9" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG9" s="58" t="s">
-        <v>101</v>
+        <v>93</v>
+      </c>
+      <c r="AG9" s="61" t="s">
+        <v>103</v>
       </c>
       <c r="AH9" s="22">
         <v>32.43</v>
@@ -5121,7 +5151,7 @@
       <c r="AI9" s="22">
         <v>26.16</v>
       </c>
-      <c r="AJ9" s="59">
+      <c r="AJ9" s="62">
         <f>AH9-AI9</f>
         <v>6.27</v>
       </c>
@@ -5134,7 +5164,7 @@
       <c r="AM9" s="22">
         <v>38.71</v>
       </c>
-      <c r="AN9" s="59">
+      <c r="AN9" s="62">
         <f>(AK9-AL9)*100</f>
         <v>131</v>
       </c>
@@ -5142,7 +5172,7 @@
         <f>FLOOR(300/(AK9-AL9),100)</f>
         <v>200</v>
       </c>
-      <c r="AP9" s="61">
+      <c r="AP9" s="64">
         <f>(AM9-AK9)/(AK9-AL9)</f>
         <v>6.14503816793894</v>
       </c>
@@ -5157,8 +5187,8 @@
       <c r="AS9" s="22">
         <v>38.46</v>
       </c>
-      <c r="AT9" s="58" t="s">
-        <v>80</v>
+      <c r="AT9" s="61" t="s">
+        <v>82</v>
       </c>
       <c r="AU9" s="20">
         <v>44524</v>
@@ -5172,15 +5202,15 @@
       <c r="AX9" s="22">
         <v>5</v>
       </c>
-      <c r="AY9" s="61">
+      <c r="AY9" s="64">
         <f>AV9*AW9*0.2/10000</f>
         <v>0.06108</v>
       </c>
-      <c r="AZ9" s="78">
+      <c r="AZ9" s="81">
         <f>AV9*AW9+AX9+AY9</f>
         <v>3059.06108</v>
       </c>
-      <c r="BA9" s="78">
+      <c r="BA9" s="81">
         <f>(AV9-AL9)*AW9+AX9+AY9</f>
         <v>124.06108</v>
       </c>
@@ -5209,7 +5239,7 @@
       <c r="BI9" s="22">
         <v>3.075</v>
       </c>
-      <c r="BJ9" s="61">
+      <c r="BJ9" s="64">
         <f>BF9*BG9-BH9-BI9</f>
         <v>3006.925</v>
       </c>
@@ -5219,28 +5249,28 @@
       <c r="BL9" s="22">
         <v>30.01</v>
       </c>
-      <c r="BM9" s="91">
+      <c r="BM9" s="53">
         <f>(BF9-BL9)/(BK9-BL9)</f>
         <v>0.205882352941172</v>
       </c>
-      <c r="BN9" s="61">
+      <c r="BN9" s="64">
         <f>BJ9-AZ9</f>
         <v>-52.1360799999998</v>
       </c>
       <c r="BO9" s="22"/>
-      <c r="BP9" s="58" t="s">
-        <v>102</v>
+      <c r="BP9" s="61" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="13" spans="1:67">
-      <c r="A10" s="99" t="s">
-        <v>103</v>
+      <c r="A10" s="101" t="s">
+        <v>105</v>
       </c>
       <c r="B10" s="24">
         <v>44529</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D10" s="26">
         <v>22.26</v>
@@ -5296,31 +5326,31 @@
       <c r="W10" s="26"/>
       <c r="X10" s="26"/>
       <c r="Y10" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z10" s="50">
+        <v>92</v>
+      </c>
+      <c r="Z10" s="52">
         <f>(J10-N10)/J10</f>
         <v>0.354101440200376</v>
       </c>
-      <c r="AA10" s="50">
+      <c r="AA10" s="52">
         <f>(O10-P10)/O10</f>
         <v>0.163678877630553</v>
       </c>
-      <c r="AB10" s="50">
+      <c r="AB10" s="52">
         <f>(Q10-R10)/Q10</f>
         <v>0.161647628937349</v>
       </c>
-      <c r="AC10" s="50">
+      <c r="AC10" s="52">
         <f>(S10-T10)/S10</f>
         <v>0.0666666666666667</v>
       </c>
       <c r="AD10" s="26"/>
       <c r="AE10" s="26"/>
       <c r="AF10" s="26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AG10" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AH10" s="26">
         <v>31.18</v>
@@ -5349,7 +5379,7 @@
         <f>FLOOR(300/(AK10-AL10),100)</f>
         <v>100</v>
       </c>
-      <c r="AP10" s="62">
+      <c r="AP10" s="65">
         <f>(AM10-AK10)/(AK10-AL10)</f>
         <v>2.51707317073171</v>
       </c>
@@ -5364,8 +5394,8 @@
       <c r="AS10" s="26">
         <v>17.95</v>
       </c>
-      <c r="AT10" s="75" t="s">
-        <v>87</v>
+      <c r="AT10" s="78" t="s">
+        <v>89</v>
       </c>
       <c r="AU10" s="24">
         <v>44530</v>
@@ -5379,15 +5409,15 @@
       <c r="AX10" s="26">
         <v>5</v>
       </c>
-      <c r="AY10" s="61">
+      <c r="AY10" s="64">
         <f>AV10*AW10*0.2/10000</f>
         <v>0.05962</v>
       </c>
-      <c r="AZ10" s="78">
+      <c r="AZ10" s="81">
         <f>AV10*AW10+AX10+AY10</f>
         <v>2986.05962</v>
       </c>
-      <c r="BA10" s="78">
+      <c r="BA10" s="81">
         <f>(AV10-AL10)*AW10+AX10+AY10</f>
         <v>214.05962</v>
       </c>
@@ -5414,8 +5444,8 @@
       <c r="BO10" s="26"/>
     </row>
     <row r="11" ht="13" spans="1:67">
-      <c r="A11" s="100" t="s">
-        <v>106</v>
+      <c r="A11" s="102" t="s">
+        <v>108</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -5484,8 +5514,8 @@
       <c r="BO11" s="27"/>
     </row>
     <row r="12" ht="13" spans="1:67">
-      <c r="A12" s="100" t="s">
-        <v>107</v>
+      <c r="A12" s="102" t="s">
+        <v>109</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -5554,8 +5584,8 @@
       <c r="BO12" s="27"/>
     </row>
     <row r="13" ht="13" spans="1:67">
-      <c r="A13" s="100" t="s">
-        <v>108</v>
+      <c r="A13" s="102" t="s">
+        <v>110</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -5624,8 +5654,8 @@
       <c r="BO13" s="27"/>
     </row>
     <row r="14" ht="13" spans="1:67">
-      <c r="A14" s="100" t="s">
-        <v>109</v>
+      <c r="A14" s="102" t="s">
+        <v>111</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
@@ -5694,8 +5724,8 @@
       <c r="BO14" s="27"/>
     </row>
     <row r="15" ht="13" spans="1:67">
-      <c r="A15" s="100" t="s">
-        <v>110</v>
+      <c r="A15" s="102" t="s">
+        <v>112</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -5764,8 +5794,8 @@
       <c r="BO15" s="27"/>
     </row>
     <row r="16" ht="13" spans="1:67">
-      <c r="A16" s="100" t="s">
-        <v>111</v>
+      <c r="A16" s="102" t="s">
+        <v>113</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -5834,8 +5864,8 @@
       <c r="BO16" s="27"/>
     </row>
     <row r="17" ht="13" spans="1:67">
-      <c r="A17" s="100" t="s">
-        <v>112</v>
+      <c r="A17" s="102" t="s">
+        <v>114</v>
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
@@ -5904,8 +5934,8 @@
       <c r="BO17" s="27"/>
     </row>
     <row r="18" ht="13" spans="1:67">
-      <c r="A18" s="100" t="s">
-        <v>113</v>
+      <c r="A18" s="102" t="s">
+        <v>115</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
@@ -5974,8 +6004,8 @@
       <c r="BO18" s="27"/>
     </row>
     <row r="19" ht="13" spans="1:67">
-      <c r="A19" s="100" t="s">
-        <v>114</v>
+      <c r="A19" s="102" t="s">
+        <v>116</v>
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
@@ -6044,8 +6074,8 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" ht="13" spans="1:67">
-      <c r="A20" s="100" t="s">
-        <v>115</v>
+      <c r="A20" s="102" t="s">
+        <v>117</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -6114,8 +6144,8 @@
       <c r="BO20" s="27"/>
     </row>
     <row r="21" ht="13" spans="1:67">
-      <c r="A21" s="100" t="s">
-        <v>116</v>
+      <c r="A21" s="102" t="s">
+        <v>118</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -6184,8 +6214,8 @@
       <c r="BO21" s="27"/>
     </row>
     <row r="22" ht="13" spans="1:67">
-      <c r="A22" s="100" t="s">
-        <v>117</v>
+      <c r="A22" s="102" t="s">
+        <v>119</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
@@ -6254,8 +6284,8 @@
       <c r="BO22" s="27"/>
     </row>
     <row r="23" ht="13" spans="1:67">
-      <c r="A23" s="100" t="s">
-        <v>118</v>
+      <c r="A23" s="102" t="s">
+        <v>120</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -6324,8 +6354,8 @@
       <c r="BO23" s="27"/>
     </row>
     <row r="24" ht="13" spans="1:67">
-      <c r="A24" s="100" t="s">
-        <v>119</v>
+      <c r="A24" s="102" t="s">
+        <v>121</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -6394,8 +6424,8 @@
       <c r="BO24" s="27"/>
     </row>
     <row r="25" ht="13" spans="1:67">
-      <c r="A25" s="100" t="s">
-        <v>120</v>
+      <c r="A25" s="102" t="s">
+        <v>122</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -6464,8 +6494,8 @@
       <c r="BO25" s="27"/>
     </row>
     <row r="26" ht="13" spans="1:67">
-      <c r="A26" s="100" t="s">
-        <v>121</v>
+      <c r="A26" s="102" t="s">
+        <v>123</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -6534,8 +6564,8 @@
       <c r="BO26" s="27"/>
     </row>
     <row r="27" ht="13" spans="1:67">
-      <c r="A27" s="100" t="s">
-        <v>122</v>
+      <c r="A27" s="102" t="s">
+        <v>124</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -6604,8 +6634,8 @@
       <c r="BO27" s="27"/>
     </row>
     <row r="28" ht="13" spans="1:67">
-      <c r="A28" s="100" t="s">
-        <v>123</v>
+      <c r="A28" s="102" t="s">
+        <v>125</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -6674,8 +6704,8 @@
       <c r="BO28" s="27"/>
     </row>
     <row r="29" ht="13" spans="1:67">
-      <c r="A29" s="100" t="s">
-        <v>124</v>
+      <c r="A29" s="102" t="s">
+        <v>126</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -6744,8 +6774,8 @@
       <c r="BO29" s="27"/>
     </row>
     <row r="30" ht="13" spans="1:67">
-      <c r="A30" s="100" t="s">
-        <v>125</v>
+      <c r="A30" s="102" t="s">
+        <v>127</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -6814,8 +6844,8 @@
       <c r="BO30" s="27"/>
     </row>
     <row r="31" ht="13" spans="1:67">
-      <c r="A31" s="100" t="s">
-        <v>126</v>
+      <c r="A31" s="102" t="s">
+        <v>128</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -6884,8 +6914,8 @@
       <c r="BO31" s="27"/>
     </row>
     <row r="32" ht="13" spans="1:67">
-      <c r="A32" s="100" t="s">
-        <v>127</v>
+      <c r="A32" s="102" t="s">
+        <v>129</v>
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -6954,8 +6984,8 @@
       <c r="BO32" s="27"/>
     </row>
     <row r="33" ht="13" spans="1:67">
-      <c r="A33" s="100" t="s">
-        <v>128</v>
+      <c r="A33" s="102" t="s">
+        <v>130</v>
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
@@ -7024,8 +7054,8 @@
       <c r="BO33" s="27"/>
     </row>
     <row r="34" ht="13" spans="1:67">
-      <c r="A34" s="100" t="s">
-        <v>129</v>
+      <c r="A34" s="102" t="s">
+        <v>131</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
@@ -7094,8 +7124,8 @@
       <c r="BO34" s="27"/>
     </row>
     <row r="35" ht="13" spans="1:67">
-      <c r="A35" s="100" t="s">
-        <v>130</v>
+      <c r="A35" s="102" t="s">
+        <v>132</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -7164,8 +7194,8 @@
       <c r="BO35" s="27"/>
     </row>
     <row r="36" ht="13" spans="1:67">
-      <c r="A36" s="100" t="s">
-        <v>131</v>
+      <c r="A36" s="102" t="s">
+        <v>133</v>
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
@@ -7234,8 +7264,8 @@
       <c r="BO36" s="27"/>
     </row>
     <row r="37" ht="13" spans="1:67">
-      <c r="A37" s="100" t="s">
-        <v>132</v>
+      <c r="A37" s="102" t="s">
+        <v>134</v>
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -7304,8 +7334,8 @@
       <c r="BO37" s="27"/>
     </row>
     <row r="38" ht="13" spans="1:67">
-      <c r="A38" s="100" t="s">
-        <v>133</v>
+      <c r="A38" s="102" t="s">
+        <v>135</v>
       </c>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
@@ -7374,8 +7404,8 @@
       <c r="BO38" s="27"/>
     </row>
     <row r="39" ht="13" spans="1:67">
-      <c r="A39" s="100" t="s">
-        <v>134</v>
+      <c r="A39" s="102" t="s">
+        <v>136</v>
       </c>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
@@ -7444,8 +7474,8 @@
       <c r="BO39" s="27"/>
     </row>
     <row r="40" ht="13" spans="1:67">
-      <c r="A40" s="100" t="s">
-        <v>135</v>
+      <c r="A40" s="102" t="s">
+        <v>137</v>
       </c>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -7514,8 +7544,8 @@
       <c r="BO40" s="27"/>
     </row>
     <row r="41" ht="13" spans="1:67">
-      <c r="A41" s="100" t="s">
-        <v>136</v>
+      <c r="A41" s="102" t="s">
+        <v>138</v>
       </c>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -7584,8 +7614,8 @@
       <c r="BO41" s="27"/>
     </row>
     <row r="42" ht="13" spans="1:67">
-      <c r="A42" s="100" t="s">
-        <v>137</v>
+      <c r="A42" s="102" t="s">
+        <v>139</v>
       </c>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
@@ -7654,8 +7684,8 @@
       <c r="BO42" s="27"/>
     </row>
     <row r="43" ht="13" spans="1:67">
-      <c r="A43" s="100" t="s">
-        <v>138</v>
+      <c r="A43" s="102" t="s">
+        <v>140</v>
       </c>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -7724,8 +7754,8 @@
       <c r="BO43" s="27"/>
     </row>
     <row r="44" ht="13" spans="1:67">
-      <c r="A44" s="100" t="s">
-        <v>139</v>
+      <c r="A44" s="102" t="s">
+        <v>141</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -7794,8 +7824,8 @@
       <c r="BO44" s="27"/>
     </row>
     <row r="45" ht="13" spans="1:67">
-      <c r="A45" s="100" t="s">
-        <v>140</v>
+      <c r="A45" s="102" t="s">
+        <v>142</v>
       </c>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
@@ -7864,8 +7894,8 @@
       <c r="BO45" s="27"/>
     </row>
     <row r="46" ht="13" spans="1:67">
-      <c r="A46" s="100" t="s">
-        <v>141</v>
+      <c r="A46" s="102" t="s">
+        <v>143</v>
       </c>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
@@ -7934,8 +7964,8 @@
       <c r="BO46" s="27"/>
     </row>
     <row r="47" ht="13" spans="1:67">
-      <c r="A47" s="100" t="s">
-        <v>142</v>
+      <c r="A47" s="102" t="s">
+        <v>144</v>
       </c>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
@@ -8004,8 +8034,8 @@
       <c r="BO47" s="27"/>
     </row>
     <row r="48" ht="13" spans="1:67">
-      <c r="A48" s="100" t="s">
-        <v>143</v>
+      <c r="A48" s="102" t="s">
+        <v>145</v>
       </c>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
@@ -8074,8 +8104,8 @@
       <c r="BO48" s="27"/>
     </row>
     <row r="49" ht="13" spans="1:67">
-      <c r="A49" s="100" t="s">
-        <v>144</v>
+      <c r="A49" s="102" t="s">
+        <v>146</v>
       </c>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
@@ -8144,8 +8174,8 @@
       <c r="BO49" s="27"/>
     </row>
     <row r="50" ht="13" spans="1:67">
-      <c r="A50" s="100" t="s">
-        <v>145</v>
+      <c r="A50" s="102" t="s">
+        <v>147</v>
       </c>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
@@ -8214,8 +8244,8 @@
       <c r="BO50" s="27"/>
     </row>
     <row r="51" ht="13" spans="1:67">
-      <c r="A51" s="100" t="s">
-        <v>146</v>
+      <c r="A51" s="102" t="s">
+        <v>148</v>
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -8284,8 +8314,8 @@
       <c r="BO51" s="27"/>
     </row>
     <row r="52" ht="13" spans="1:67">
-      <c r="A52" s="100" t="s">
-        <v>147</v>
+      <c r="A52" s="102" t="s">
+        <v>149</v>
       </c>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -8354,8 +8384,8 @@
       <c r="BO52" s="27"/>
     </row>
     <row r="53" ht="13" spans="1:67">
-      <c r="A53" s="100" t="s">
-        <v>148</v>
+      <c r="A53" s="102" t="s">
+        <v>150</v>
       </c>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
@@ -8424,8 +8454,8 @@
       <c r="BO53" s="27"/>
     </row>
     <row r="54" ht="13" spans="1:67">
-      <c r="A54" s="100" t="s">
-        <v>149</v>
+      <c r="A54" s="102" t="s">
+        <v>151</v>
       </c>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
@@ -8494,8 +8524,8 @@
       <c r="BO54" s="27"/>
     </row>
     <row r="55" ht="13" spans="1:67">
-      <c r="A55" s="100" t="s">
-        <v>150</v>
+      <c r="A55" s="102" t="s">
+        <v>152</v>
       </c>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
@@ -8564,8 +8594,8 @@
       <c r="BO55" s="27"/>
     </row>
     <row r="56" ht="13" spans="1:67">
-      <c r="A56" s="100" t="s">
-        <v>151</v>
+      <c r="A56" s="102" t="s">
+        <v>153</v>
       </c>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
@@ -8634,8 +8664,8 @@
       <c r="BO56" s="27"/>
     </row>
     <row r="57" ht="13" spans="1:67">
-      <c r="A57" s="100" t="s">
-        <v>152</v>
+      <c r="A57" s="102" t="s">
+        <v>154</v>
       </c>
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
@@ -8704,8 +8734,8 @@
       <c r="BO57" s="27"/>
     </row>
     <row r="58" ht="13" spans="1:67">
-      <c r="A58" s="100" t="s">
-        <v>153</v>
+      <c r="A58" s="102" t="s">
+        <v>155</v>
       </c>
       <c r="B58" s="27"/>
       <c r="C58" s="27"/>
@@ -8774,8 +8804,8 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" ht="13" spans="1:67">
-      <c r="A59" s="100" t="s">
-        <v>154</v>
+      <c r="A59" s="102" t="s">
+        <v>156</v>
       </c>
       <c r="B59" s="27"/>
       <c r="C59" s="27"/>
@@ -8844,8 +8874,8 @@
       <c r="BO59" s="27"/>
     </row>
     <row r="60" ht="13" spans="1:67">
-      <c r="A60" s="100" t="s">
-        <v>155</v>
+      <c r="A60" s="102" t="s">
+        <v>157</v>
       </c>
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
@@ -37799,22 +37829,22 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:99">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="CU1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
@@ -1061,33 +1061,7 @@
     <t>000006</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>603010(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>万盛股份</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>603010(万盛股份)</t>
   </si>
   <si>
     <t>减少明显，空头几乎被榨干</t>
@@ -1341,6 +1315,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color theme="2" tint="-0.9"/>
@@ -1488,14 +1470,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2036,148 +2010,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2257,7 +2231,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2293,13 +2267,13 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2311,7 +2285,7 @@
     <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2323,10 +2297,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2359,13 +2333,13 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2416,7 +2390,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2446,13 +2420,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2464,19 +2438,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -3659,11 +3633,11 @@
   <dimension ref="A1:DE557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U7" sqref="U7"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -5262,7 +5236,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" ht="13" spans="1:67">
+    <row r="10" s="6" customFormat="1" ht="14" spans="1:67">
       <c r="A10" s="101" t="s">
         <v>105</v>
       </c>
@@ -37803,6 +37777,7 @@
     <hyperlink ref="C4" r:id="rId3" display="003040(楚天龙)"/>
     <hyperlink ref="C9" r:id="rId4" display="605016(百龙创园)"/>
     <hyperlink ref="C8" r:id="rId5" display="002932(明德生物)"/>
+    <hyperlink ref="C10" r:id="rId6" display="603010(万盛股份)"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
@@ -1315,14 +1315,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="2" tint="-0.9"/>
@@ -1475,6 +1467,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
@@ -1532,7 +1532,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1554,6 +1554,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2010,152 +2016,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2231,7 +2237,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2267,16 +2273,19 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2285,7 +2294,10 @@
     <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2297,10 +2309,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2333,13 +2345,13 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2354,25 +2366,25 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2390,10 +2402,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2402,16 +2414,16 @@
     <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2420,37 +2432,37 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -3633,11 +3645,11 @@
   <dimension ref="A1:DE557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3727,71 +3739,71 @@
       <c r="AR1" s="7"/>
       <c r="AS1" s="7"/>
       <c r="AT1" s="7"/>
-      <c r="AU1" s="66" t="s">
+      <c r="AU1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="AV1" s="66"/>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="66"/>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="66"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="66"/>
-      <c r="BC1" s="66"/>
-      <c r="BD1" s="66"/>
-      <c r="BE1" s="82" t="s">
+      <c r="AV1" s="68"/>
+      <c r="AW1" s="68"/>
+      <c r="AX1" s="68"/>
+      <c r="AY1" s="68"/>
+      <c r="AZ1" s="68"/>
+      <c r="BA1" s="68"/>
+      <c r="BB1" s="68"/>
+      <c r="BC1" s="68"/>
+      <c r="BD1" s="68"/>
+      <c r="BE1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="BF1" s="82"/>
-      <c r="BG1" s="82"/>
-      <c r="BH1" s="82"/>
-      <c r="BI1" s="82"/>
-      <c r="BJ1" s="82"/>
-      <c r="BK1" s="82"/>
-      <c r="BL1" s="82"/>
-      <c r="BM1" s="82"/>
-      <c r="BN1" s="88" t="s">
+      <c r="BF1" s="84"/>
+      <c r="BG1" s="84"/>
+      <c r="BH1" s="84"/>
+      <c r="BI1" s="84"/>
+      <c r="BJ1" s="84"/>
+      <c r="BK1" s="84"/>
+      <c r="BL1" s="84"/>
+      <c r="BM1" s="84"/>
+      <c r="BN1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="BO1" s="88"/>
-      <c r="BP1" s="88"/>
-      <c r="BQ1" s="95"/>
-      <c r="BR1" s="95"/>
-      <c r="BS1" s="95"/>
-      <c r="BT1" s="95"/>
-      <c r="BU1" s="95"/>
-      <c r="BV1" s="95"/>
-      <c r="BW1" s="95"/>
-      <c r="BX1" s="95"/>
-      <c r="BZ1" s="97"/>
-      <c r="CA1" s="97"/>
-      <c r="CB1" s="97"/>
-      <c r="CC1" s="97"/>
-      <c r="CD1" s="97"/>
-      <c r="CE1" s="97"/>
-      <c r="CF1" s="97"/>
-      <c r="CG1" s="97"/>
-      <c r="CI1" s="97"/>
-      <c r="CJ1" s="97"/>
-      <c r="CK1" s="97"/>
-      <c r="CL1" s="97"/>
-      <c r="CM1" s="97"/>
-      <c r="CN1" s="97"/>
-      <c r="CO1" s="97"/>
-      <c r="CQ1" s="97"/>
-      <c r="CR1" s="97"/>
-      <c r="CS1" s="97"/>
-      <c r="CT1" s="97"/>
-      <c r="CU1" s="97"/>
-      <c r="CV1" s="97"/>
-      <c r="CW1" s="97"/>
-      <c r="CY1" s="97"/>
-      <c r="CZ1" s="97"/>
-      <c r="DA1" s="97"/>
-      <c r="DB1" s="97"/>
-      <c r="DC1" s="97"/>
-      <c r="DD1" s="97"/>
-      <c r="DE1" s="97"/>
+      <c r="BO1" s="90"/>
+      <c r="BP1" s="90"/>
+      <c r="BQ1" s="97"/>
+      <c r="BR1" s="97"/>
+      <c r="BS1" s="97"/>
+      <c r="BT1" s="97"/>
+      <c r="BU1" s="97"/>
+      <c r="BV1" s="97"/>
+      <c r="BW1" s="97"/>
+      <c r="BX1" s="97"/>
+      <c r="BZ1" s="99"/>
+      <c r="CA1" s="99"/>
+      <c r="CB1" s="99"/>
+      <c r="CC1" s="99"/>
+      <c r="CD1" s="99"/>
+      <c r="CE1" s="99"/>
+      <c r="CF1" s="99"/>
+      <c r="CG1" s="99"/>
+      <c r="CI1" s="99"/>
+      <c r="CJ1" s="99"/>
+      <c r="CK1" s="99"/>
+      <c r="CL1" s="99"/>
+      <c r="CM1" s="99"/>
+      <c r="CN1" s="99"/>
+      <c r="CO1" s="99"/>
+      <c r="CQ1" s="99"/>
+      <c r="CR1" s="99"/>
+      <c r="CS1" s="99"/>
+      <c r="CT1" s="99"/>
+      <c r="CU1" s="99"/>
+      <c r="CV1" s="99"/>
+      <c r="CW1" s="99"/>
+      <c r="CY1" s="99"/>
+      <c r="CZ1" s="99"/>
+      <c r="DA1" s="99"/>
+      <c r="DB1" s="99"/>
+      <c r="DC1" s="99"/>
+      <c r="DD1" s="99"/>
+      <c r="DE1" s="99"/>
     </row>
     <row r="2" ht="23.6" spans="1:109">
       <c r="A2" s="9" t="s">
@@ -3833,33 +3845,33 @@
       <c r="M2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
       <c r="AH2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="55"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="57"/>
       <c r="AK2" s="29" t="s">
         <v>19</v>
       </c>
@@ -3884,115 +3896,115 @@
       <c r="AR2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AS2" s="67" t="s">
+      <c r="AS2" s="69" t="s">
         <v>27</v>
       </c>
       <c r="AT2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AU2" s="68" t="s">
+      <c r="AU2" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="AV2" s="69" t="s">
+      <c r="AV2" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="AW2" s="69" t="s">
+      <c r="AW2" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="AX2" s="69" t="s">
+      <c r="AX2" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="AY2" s="69" t="s">
+      <c r="AY2" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="AZ2" s="69" t="s">
+      <c r="AZ2" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="BA2" s="69" t="s">
+      <c r="BA2" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="BB2" s="69" t="s">
+      <c r="BB2" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="BC2" s="69" t="s">
+      <c r="BC2" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="BD2" s="69" t="s">
+      <c r="BD2" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="BE2" s="83" t="s">
+      <c r="BE2" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="BF2" s="83" t="s">
+      <c r="BF2" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="BG2" s="83" t="s">
+      <c r="BG2" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="BH2" s="83" t="s">
+      <c r="BH2" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="BI2" s="83" t="s">
+      <c r="BI2" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="BJ2" s="83" t="s">
+      <c r="BJ2" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="BK2" s="83" t="s">
+      <c r="BK2" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="BL2" s="83" t="s">
+      <c r="BL2" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="BM2" s="83" t="s">
+      <c r="BM2" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="BN2" s="89" t="s">
+      <c r="BN2" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="BO2" s="89" t="s">
+      <c r="BO2" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="BP2" s="90" t="s">
+      <c r="BP2" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="BQ2" s="95"/>
-      <c r="BR2" s="95"/>
-      <c r="BS2" s="95"/>
-      <c r="BT2" s="95"/>
-      <c r="BU2" s="95"/>
-      <c r="BV2" s="95"/>
-      <c r="BW2" s="95"/>
-      <c r="BX2" s="95"/>
-      <c r="BZ2" s="97"/>
-      <c r="CA2" s="97"/>
-      <c r="CB2" s="97"/>
-      <c r="CC2" s="97"/>
-      <c r="CD2" s="97"/>
-      <c r="CE2" s="97"/>
-      <c r="CF2" s="97"/>
-      <c r="CG2" s="97"/>
-      <c r="CI2" s="97"/>
-      <c r="CJ2" s="97"/>
-      <c r="CK2" s="97"/>
-      <c r="CL2" s="97"/>
-      <c r="CM2" s="97"/>
-      <c r="CN2" s="97"/>
-      <c r="CO2" s="97"/>
-      <c r="CQ2" s="97"/>
-      <c r="CR2" s="97"/>
-      <c r="CS2" s="97"/>
-      <c r="CT2" s="97"/>
-      <c r="CU2" s="97"/>
-      <c r="CV2" s="97"/>
-      <c r="CW2" s="97"/>
-      <c r="CY2" s="97"/>
-      <c r="CZ2" s="97"/>
-      <c r="DA2" s="97"/>
-      <c r="DB2" s="97"/>
-      <c r="DC2" s="97"/>
-      <c r="DD2" s="97"/>
-      <c r="DE2" s="97"/>
+      <c r="BQ2" s="97"/>
+      <c r="BR2" s="97"/>
+      <c r="BS2" s="97"/>
+      <c r="BT2" s="97"/>
+      <c r="BU2" s="97"/>
+      <c r="BV2" s="97"/>
+      <c r="BW2" s="97"/>
+      <c r="BX2" s="97"/>
+      <c r="BZ2" s="99"/>
+      <c r="CA2" s="99"/>
+      <c r="CB2" s="99"/>
+      <c r="CC2" s="99"/>
+      <c r="CD2" s="99"/>
+      <c r="CE2" s="99"/>
+      <c r="CF2" s="99"/>
+      <c r="CG2" s="99"/>
+      <c r="CI2" s="99"/>
+      <c r="CJ2" s="99"/>
+      <c r="CK2" s="99"/>
+      <c r="CL2" s="99"/>
+      <c r="CM2" s="99"/>
+      <c r="CN2" s="99"/>
+      <c r="CO2" s="99"/>
+      <c r="CQ2" s="99"/>
+      <c r="CR2" s="99"/>
+      <c r="CS2" s="99"/>
+      <c r="CT2" s="99"/>
+      <c r="CU2" s="99"/>
+      <c r="CV2" s="99"/>
+      <c r="CW2" s="99"/>
+      <c r="CY2" s="99"/>
+      <c r="CZ2" s="99"/>
+      <c r="DA2" s="99"/>
+      <c r="DB2" s="99"/>
+      <c r="DC2" s="99"/>
+      <c r="DD2" s="99"/>
+      <c r="DE2" s="99"/>
     </row>
     <row r="3" ht="48" spans="1:109">
       <c r="A3" s="9"/>
@@ -4008,37 +4020,37 @@
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
       <c r="M3" s="30"/>
-      <c r="N3" s="45" t="s">
+      <c r="N3" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="45" t="s">
+      <c r="O3" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="45" t="s">
+      <c r="P3" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="45" t="s">
+      <c r="Q3" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="45" t="s">
+      <c r="R3" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="S3" s="45" t="s">
+      <c r="S3" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="T3" s="45" t="s">
+      <c r="T3" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="U3" s="45" t="s">
+      <c r="U3" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="V3" s="45" t="s">
+      <c r="V3" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="W3" s="45" t="s">
+      <c r="W3" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="X3" s="45" t="s">
+      <c r="X3" s="47" t="s">
         <v>61</v>
       </c>
       <c r="Y3" s="31" t="s">
@@ -4065,90 +4077,90 @@
       <c r="AF3" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="AG3" s="56" t="s">
+      <c r="AG3" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="AH3" s="57" t="s">
+      <c r="AH3" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="AI3" s="57" t="s">
+      <c r="AI3" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="AJ3" s="58" t="s">
+      <c r="AJ3" s="60" t="s">
         <v>73</v>
       </c>
       <c r="AK3" s="30"/>
       <c r="AL3" s="30"/>
       <c r="AM3" s="30"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
       <c r="AP3" s="30"/>
       <c r="AQ3" s="30"/>
       <c r="AR3" s="30"/>
-      <c r="AS3" s="70"/>
+      <c r="AS3" s="72"/>
       <c r="AT3" s="30"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="72"/>
-      <c r="AW3" s="79"/>
-      <c r="AX3" s="79"/>
-      <c r="AY3" s="79"/>
-      <c r="AZ3" s="79"/>
-      <c r="BA3" s="79"/>
-      <c r="BB3" s="79"/>
-      <c r="BC3" s="79"/>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="84"/>
-      <c r="BF3" s="85"/>
-      <c r="BG3" s="84"/>
-      <c r="BH3" s="85"/>
-      <c r="BI3" s="85"/>
-      <c r="BJ3" s="85"/>
-      <c r="BK3" s="84"/>
-      <c r="BL3" s="84"/>
-      <c r="BM3" s="85"/>
-      <c r="BN3" s="91"/>
-      <c r="BO3" s="92"/>
-      <c r="BP3" s="93"/>
-      <c r="BQ3" s="95"/>
-      <c r="BR3" s="95"/>
-      <c r="BS3" s="95"/>
-      <c r="BT3" s="95"/>
-      <c r="BU3" s="95"/>
-      <c r="BV3" s="95"/>
-      <c r="BW3" s="95"/>
-      <c r="BX3" s="95"/>
-      <c r="BZ3" s="97"/>
-      <c r="CA3" s="97"/>
-      <c r="CB3" s="97"/>
-      <c r="CC3" s="97"/>
-      <c r="CD3" s="97"/>
-      <c r="CE3" s="97"/>
-      <c r="CF3" s="97"/>
-      <c r="CG3" s="97"/>
-      <c r="CI3" s="97"/>
-      <c r="CJ3" s="97"/>
-      <c r="CK3" s="97"/>
-      <c r="CL3" s="97"/>
-      <c r="CM3" s="97"/>
-      <c r="CN3" s="97"/>
-      <c r="CO3" s="97"/>
-      <c r="CQ3" s="97"/>
-      <c r="CR3" s="97"/>
-      <c r="CS3" s="97"/>
-      <c r="CT3" s="97"/>
-      <c r="CU3" s="97"/>
-      <c r="CV3" s="97"/>
-      <c r="CW3" s="97"/>
-      <c r="CY3" s="97"/>
-      <c r="CZ3" s="97"/>
-      <c r="DA3" s="97"/>
-      <c r="DB3" s="97"/>
-      <c r="DC3" s="97"/>
-      <c r="DD3" s="97"/>
-      <c r="DE3" s="97"/>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="74"/>
+      <c r="AW3" s="81"/>
+      <c r="AX3" s="81"/>
+      <c r="AY3" s="81"/>
+      <c r="AZ3" s="81"/>
+      <c r="BA3" s="81"/>
+      <c r="BB3" s="81"/>
+      <c r="BC3" s="81"/>
+      <c r="BD3" s="74"/>
+      <c r="BE3" s="86"/>
+      <c r="BF3" s="87"/>
+      <c r="BG3" s="86"/>
+      <c r="BH3" s="87"/>
+      <c r="BI3" s="87"/>
+      <c r="BJ3" s="87"/>
+      <c r="BK3" s="86"/>
+      <c r="BL3" s="86"/>
+      <c r="BM3" s="87"/>
+      <c r="BN3" s="93"/>
+      <c r="BO3" s="94"/>
+      <c r="BP3" s="95"/>
+      <c r="BQ3" s="97"/>
+      <c r="BR3" s="97"/>
+      <c r="BS3" s="97"/>
+      <c r="BT3" s="97"/>
+      <c r="BU3" s="97"/>
+      <c r="BV3" s="97"/>
+      <c r="BW3" s="97"/>
+      <c r="BX3" s="97"/>
+      <c r="BZ3" s="99"/>
+      <c r="CA3" s="99"/>
+      <c r="CB3" s="99"/>
+      <c r="CC3" s="99"/>
+      <c r="CD3" s="99"/>
+      <c r="CE3" s="99"/>
+      <c r="CF3" s="99"/>
+      <c r="CG3" s="99"/>
+      <c r="CI3" s="99"/>
+      <c r="CJ3" s="99"/>
+      <c r="CK3" s="99"/>
+      <c r="CL3" s="99"/>
+      <c r="CM3" s="99"/>
+      <c r="CN3" s="99"/>
+      <c r="CO3" s="99"/>
+      <c r="CQ3" s="99"/>
+      <c r="CR3" s="99"/>
+      <c r="CS3" s="99"/>
+      <c r="CT3" s="99"/>
+      <c r="CU3" s="99"/>
+      <c r="CV3" s="99"/>
+      <c r="CW3" s="99"/>
+      <c r="CY3" s="99"/>
+      <c r="CZ3" s="99"/>
+      <c r="DA3" s="99"/>
+      <c r="DB3" s="99"/>
+      <c r="DC3" s="99"/>
+      <c r="DD3" s="99"/>
+      <c r="DE3" s="99"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="23.6" spans="1:109">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="101" t="s">
         <v>74</v>
       </c>
       <c r="B4" s="15">
@@ -4182,11 +4194,11 @@
         <f>(H4-I4)/I4</f>
         <v>3.70695970695971</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="41">
         <f>(J4-H4)/J4</f>
         <v>0.445283833369307</v>
       </c>
-      <c r="M4" s="46"/>
+      <c r="M4" s="48"/>
       <c r="N4" s="17">
         <v>20.79</v>
       </c>
@@ -4214,13 +4226,13 @@
       <c r="V4" s="14">
         <v>24.52</v>
       </c>
-      <c r="W4" s="49" t="s">
+      <c r="W4" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="X4" s="49" t="s">
+      <c r="X4" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="Y4" s="50" t="s">
+      <c r="Y4" s="52" t="s">
         <v>79</v>
       </c>
       <c r="Z4" s="40">
@@ -4243,14 +4255,14 @@
         <f>(U4-V4)/U4</f>
         <v>0.0641221374045801</v>
       </c>
-      <c r="AE4" s="53">
+      <c r="AE4" s="55">
         <f>(W4-X4)/W4</f>
         <v>0.0823442136498517</v>
       </c>
-      <c r="AF4" s="50" t="s">
+      <c r="AF4" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="AG4" s="59" t="s">
+      <c r="AG4" s="61" t="s">
         <v>81</v>
       </c>
       <c r="AH4" s="17">
@@ -4280,7 +4292,7 @@
         <f>FLOOR(300/(AK4-AL4),100)</f>
         <v>100</v>
       </c>
-      <c r="AP4" s="63">
+      <c r="AP4" s="65">
         <f>(AM4-AK4)/(AK4-AL4)</f>
         <v>4.13815789473685</v>
       </c>
@@ -4295,13 +4307,13 @@
       <c r="AS4" s="17">
         <v>150.88</v>
       </c>
-      <c r="AT4" s="59" t="s">
+      <c r="AT4" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="AU4" s="73">
+      <c r="AU4" s="75">
         <v>44523</v>
       </c>
-      <c r="AV4" s="74">
+      <c r="AV4" s="76">
         <v>26.2</v>
       </c>
       <c r="AW4" s="14">
@@ -4310,14 +4322,14 @@
       <c r="AX4" s="14">
         <v>5</v>
       </c>
-      <c r="AY4" s="63">
+      <c r="AY4" s="65">
         <v>0</v>
       </c>
-      <c r="AZ4" s="74">
+      <c r="AZ4" s="76">
         <f>AV4*AW4+AX4+AY4</f>
         <v>5245</v>
       </c>
-      <c r="BA4" s="74">
+      <c r="BA4" s="76">
         <f>(AV4-AL4)*AW4+AX4+AY4</f>
         <v>309</v>
       </c>
@@ -4331,80 +4343,80 @@
         <f>(BB4-AV4)/(BB4-BC4)</f>
         <v>0.232558139534884</v>
       </c>
-      <c r="BE4" s="86">
+      <c r="BE4" s="88">
         <v>44526</v>
       </c>
-      <c r="BF4" s="46">
+      <c r="BF4" s="48">
         <v>24.89</v>
       </c>
-      <c r="BG4" s="87">
+      <c r="BG4" s="89">
         <v>100</v>
       </c>
-      <c r="BH4" s="46">
+      <c r="BH4" s="48">
         <v>5</v>
       </c>
-      <c r="BI4" s="46">
+      <c r="BI4" s="48">
         <v>2.489</v>
       </c>
-      <c r="BJ4" s="64">
+      <c r="BJ4" s="66">
         <f>BF4*BG4-BH4-BI4</f>
         <v>2481.511</v>
       </c>
-      <c r="BK4" s="87">
+      <c r="BK4" s="89">
         <v>27.43</v>
       </c>
-      <c r="BL4" s="87">
+      <c r="BL4" s="89">
         <v>24.74</v>
       </c>
-      <c r="BM4" s="53">
+      <c r="BM4" s="55">
         <f>(BF4-BL4)/(BK4-BL4)</f>
         <v>0.0557620817843874</v>
       </c>
-      <c r="BN4" s="64">
+      <c r="BN4" s="66">
         <f>BJ4-AZ4/2</f>
         <v>-140.989</v>
       </c>
-      <c r="BO4" s="46"/>
-      <c r="BP4" s="94" t="s">
+      <c r="BO4" s="48"/>
+      <c r="BP4" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="BQ4" s="96"/>
-      <c r="BR4" s="96"/>
-      <c r="BS4" s="96"/>
-      <c r="BT4" s="96"/>
-      <c r="BU4" s="96"/>
-      <c r="BV4" s="96"/>
-      <c r="BW4" s="96"/>
-      <c r="BX4" s="96"/>
-      <c r="BZ4" s="98"/>
-      <c r="CA4" s="98"/>
-      <c r="CB4" s="98"/>
-      <c r="CC4" s="98"/>
-      <c r="CD4" s="98"/>
-      <c r="CE4" s="98"/>
-      <c r="CF4" s="98"/>
-      <c r="CG4" s="98"/>
-      <c r="CI4" s="98"/>
-      <c r="CJ4" s="98"/>
-      <c r="CK4" s="98"/>
-      <c r="CL4" s="98"/>
-      <c r="CM4" s="98"/>
-      <c r="CN4" s="98"/>
-      <c r="CO4" s="98"/>
-      <c r="CQ4" s="98"/>
-      <c r="CR4" s="98"/>
-      <c r="CS4" s="98"/>
-      <c r="CT4" s="98"/>
-      <c r="CU4" s="98"/>
-      <c r="CV4" s="98"/>
-      <c r="CW4" s="98"/>
-      <c r="CY4" s="98"/>
-      <c r="CZ4" s="98"/>
-      <c r="DA4" s="98"/>
-      <c r="DB4" s="98"/>
-      <c r="DC4" s="98"/>
-      <c r="DD4" s="98"/>
-      <c r="DE4" s="98"/>
+      <c r="BQ4" s="98"/>
+      <c r="BR4" s="98"/>
+      <c r="BS4" s="98"/>
+      <c r="BT4" s="98"/>
+      <c r="BU4" s="98"/>
+      <c r="BV4" s="98"/>
+      <c r="BW4" s="98"/>
+      <c r="BX4" s="98"/>
+      <c r="BZ4" s="100"/>
+      <c r="CA4" s="100"/>
+      <c r="CB4" s="100"/>
+      <c r="CC4" s="100"/>
+      <c r="CD4" s="100"/>
+      <c r="CE4" s="100"/>
+      <c r="CF4" s="100"/>
+      <c r="CG4" s="100"/>
+      <c r="CI4" s="100"/>
+      <c r="CJ4" s="100"/>
+      <c r="CK4" s="100"/>
+      <c r="CL4" s="100"/>
+      <c r="CM4" s="100"/>
+      <c r="CN4" s="100"/>
+      <c r="CO4" s="100"/>
+      <c r="CQ4" s="100"/>
+      <c r="CR4" s="100"/>
+      <c r="CS4" s="100"/>
+      <c r="CT4" s="100"/>
+      <c r="CU4" s="100"/>
+      <c r="CV4" s="100"/>
+      <c r="CW4" s="100"/>
+      <c r="CY4" s="100"/>
+      <c r="CZ4" s="100"/>
+      <c r="DA4" s="100"/>
+      <c r="DB4" s="100"/>
+      <c r="DC4" s="100"/>
+      <c r="DD4" s="100"/>
+      <c r="DE4" s="100"/>
     </row>
     <row r="5" s="4" customFormat="1" spans="1:68">
       <c r="A5" s="14"/>
@@ -4418,8 +4430,8 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="46"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="48"/>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
@@ -4429,17 +4441,17 @@
       <c r="T5" s="17"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="50"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="52"/>
       <c r="Z5" s="40"/>
       <c r="AA5" s="40"/>
       <c r="AB5" s="40"/>
       <c r="AC5" s="40"/>
       <c r="AD5" s="40"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="59"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="61"/>
       <c r="AH5" s="17"/>
       <c r="AI5" s="17"/>
       <c r="AJ5" s="17"/>
@@ -4448,18 +4460,18 @@
       <c r="AM5" s="17"/>
       <c r="AN5" s="17"/>
       <c r="AO5" s="17"/>
-      <c r="AP5" s="63"/>
+      <c r="AP5" s="65"/>
       <c r="AQ5" s="40"/>
       <c r="AR5" s="40"/>
       <c r="AS5" s="17"/>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="73"/>
-      <c r="AV5" s="74"/>
+      <c r="AT5" s="61"/>
+      <c r="AU5" s="75"/>
+      <c r="AV5" s="76"/>
       <c r="AW5" s="14"/>
       <c r="AX5" s="14"/>
-      <c r="AY5" s="63"/>
-      <c r="AZ5" s="74"/>
-      <c r="BA5" s="74"/>
+      <c r="AY5" s="65"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
       <c r="BD5" s="40"/>
@@ -4468,19 +4480,19 @@
       <c r="BG5" s="14"/>
       <c r="BH5" s="14"/>
       <c r="BI5" s="14"/>
-      <c r="BJ5" s="64"/>
+      <c r="BJ5" s="66"/>
       <c r="BK5" s="14"/>
       <c r="BL5" s="14"/>
-      <c r="BM5" s="53" t="e">
+      <c r="BM5" s="55" t="e">
         <f>(BF5-BL5)/(BK5-BL5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BN5" s="64"/>
+      <c r="BN5" s="66"/>
       <c r="BO5" s="14"/>
-      <c r="BP5" s="94"/>
+      <c r="BP5" s="96"/>
     </row>
     <row r="6" s="5" customFormat="1" ht="38" spans="1:67">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="102" t="s">
         <v>84</v>
       </c>
       <c r="B6" s="15">
@@ -4510,11 +4522,11 @@
       <c r="J6" s="19">
         <v>44.42</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="42">
         <f>(H6-I6)/I6</f>
         <v>0.467798085291558</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="42">
         <f>(J6-H6)/J6</f>
         <v>0.240657361548852</v>
       </c>
@@ -4544,34 +4556,34 @@
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
       <c r="X6" s="18"/>
-      <c r="Y6" s="51" t="s">
+      <c r="Y6" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="Z6" s="52">
+      <c r="Z6" s="54">
         <f>(J6-N6)/J6</f>
         <v>0.307068887888339</v>
       </c>
-      <c r="AA6" s="52">
+      <c r="AA6" s="54">
         <f>(O6-P6)/O6</f>
         <v>0.106571428571429</v>
       </c>
-      <c r="AB6" s="52">
+      <c r="AB6" s="54">
         <f>(Q6-R6)/Q6</f>
         <v>0.077541642734061</v>
       </c>
-      <c r="AC6" s="52">
+      <c r="AC6" s="54">
         <f>(S6-T6)/S6</f>
         <v>0.0463207270595133</v>
       </c>
-      <c r="AD6" s="52" t="e">
+      <c r="AD6" s="54" t="e">
         <f>(U6-V6)/U6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE6" s="18"/>
-      <c r="AF6" s="51" t="s">
+      <c r="AF6" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="AG6" s="60" t="s">
+      <c r="AG6" s="62" t="s">
         <v>88</v>
       </c>
       <c r="AH6" s="19">
@@ -4601,7 +4613,7 @@
         <f>FLOOR(300/(AK6-AL6),100)</f>
         <v>100</v>
       </c>
-      <c r="AP6" s="63">
+      <c r="AP6" s="65">
         <f>(AM6-AK6)/(AK6-AL6)</f>
         <v>3.27672955974844</v>
       </c>
@@ -4616,57 +4628,57 @@
       <c r="AS6" s="19">
         <v>37.41</v>
       </c>
-      <c r="AT6" s="54" t="s">
+      <c r="AT6" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="AU6" s="75">
+      <c r="AU6" s="77">
         <v>44523</v>
       </c>
-      <c r="AV6" s="76">
+      <c r="AV6" s="78">
         <v>33.73</v>
       </c>
-      <c r="AW6" s="76">
+      <c r="AW6" s="78">
         <v>100</v>
       </c>
-      <c r="AX6" s="76">
+      <c r="AX6" s="78">
         <v>5</v>
       </c>
-      <c r="AY6" s="80">
+      <c r="AY6" s="82">
         <f>AV6*AW6*0.2/10000</f>
         <v>0.06746</v>
       </c>
-      <c r="AZ6" s="77">
+      <c r="AZ6" s="79">
         <f>AV6*AW6+AX6+AY6</f>
         <v>3378.06746</v>
       </c>
-      <c r="BA6" s="77">
+      <c r="BA6" s="79">
         <f>(AV6-AL6)*AW6+AX6+AY6</f>
         <v>125.06746</v>
       </c>
-      <c r="BB6" s="76">
+      <c r="BB6" s="78">
         <v>35.36</v>
       </c>
-      <c r="BC6" s="76">
+      <c r="BC6" s="78">
         <v>33.1</v>
       </c>
-      <c r="BD6" s="41">
+      <c r="BD6" s="42">
         <f>(BB6-AV6)/(BB6-BC6)</f>
         <v>0.721238938053099</v>
       </c>
-      <c r="BE6" s="76"/>
+      <c r="BE6" s="78"/>
       <c r="BF6" s="18"/>
       <c r="BG6" s="18"/>
       <c r="BH6" s="18"/>
       <c r="BI6" s="18"/>
-      <c r="BJ6" s="64"/>
+      <c r="BJ6" s="66"/>
       <c r="BK6" s="18"/>
       <c r="BL6" s="18"/>
-      <c r="BM6" s="53"/>
-      <c r="BN6" s="64"/>
+      <c r="BM6" s="55"/>
+      <c r="BN6" s="66"/>
       <c r="BO6" s="18"/>
     </row>
     <row r="7" s="5" customFormat="1" ht="38" spans="1:67">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="102" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="15">
@@ -4696,11 +4708,11 @@
       <c r="J7" s="19">
         <v>41.5</v>
       </c>
-      <c r="K7" s="41">
+      <c r="K7" s="42">
         <f>(H7-I7)/I7</f>
         <v>0.58030082484231</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="42">
         <f>(J7-H7)/J7</f>
         <v>0.215180722891566</v>
       </c>
@@ -4720,44 +4732,44 @@
       <c r="R7" s="19">
         <v>30.89</v>
       </c>
-      <c r="S7" s="47">
+      <c r="S7" s="49">
         <v>34.66</v>
       </c>
-      <c r="T7" s="48">
+      <c r="T7" s="50">
         <v>32.59</v>
       </c>
       <c r="U7" s="18"/>
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
       <c r="X7" s="18"/>
-      <c r="Y7" s="51" t="s">
+      <c r="Y7" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="Z7" s="52">
+      <c r="Z7" s="54">
         <f>(J7-N7)/J7</f>
         <v>0.315180722891566</v>
       </c>
-      <c r="AA7" s="52">
+      <c r="AA7" s="54">
         <f>(O7-P7)/O7</f>
         <v>0.164265129682997</v>
       </c>
-      <c r="AB7" s="52">
+      <c r="AB7" s="54">
         <f>(Q7-R7)/Q7</f>
         <v>0.124184859654097</v>
       </c>
-      <c r="AC7" s="52">
+      <c r="AC7" s="54">
         <f>(S7-T7)/S7</f>
         <v>0.0597230236583957</v>
       </c>
-      <c r="AD7" s="52" t="e">
+      <c r="AD7" s="54" t="e">
         <f>(U7-V7)/U7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE7" s="18"/>
-      <c r="AF7" s="54" t="s">
+      <c r="AF7" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="AG7" s="60" t="s">
+      <c r="AG7" s="62" t="s">
         <v>94</v>
       </c>
       <c r="AH7" s="19">
@@ -4787,7 +4799,7 @@
         <f>FLOOR(300/(AK7-AL7),100)</f>
         <v>100</v>
       </c>
-      <c r="AP7" s="63">
+      <c r="AP7" s="65">
         <f>(AM7-AK7)/(AK7-AL7)</f>
         <v>2.02840909090909</v>
       </c>
@@ -4802,57 +4814,57 @@
       <c r="AS7" s="19">
         <v>28.82</v>
       </c>
-      <c r="AT7" s="51" t="s">
+      <c r="AT7" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="AU7" s="75">
+      <c r="AU7" s="77">
         <v>44522</v>
       </c>
-      <c r="AV7" s="77">
+      <c r="AV7" s="79">
         <v>32.7</v>
       </c>
-      <c r="AW7" s="76">
+      <c r="AW7" s="78">
         <v>100</v>
       </c>
-      <c r="AX7" s="76">
+      <c r="AX7" s="78">
         <v>5</v>
       </c>
-      <c r="AY7" s="80">
+      <c r="AY7" s="82">
         <f>AV7*AW7*0.2/10000</f>
         <v>0.0654</v>
       </c>
-      <c r="AZ7" s="77">
+      <c r="AZ7" s="79">
         <f>AV7*AW7+AX7+AY7</f>
         <v>3275.0654</v>
       </c>
-      <c r="BA7" s="77">
+      <c r="BA7" s="79">
         <f>(AV7-AL7)*AW7+AX7+AY7</f>
         <v>186.0654</v>
       </c>
-      <c r="BB7" s="77">
+      <c r="BB7" s="79">
         <v>33.9</v>
       </c>
-      <c r="BC7" s="77">
+      <c r="BC7" s="79">
         <v>32.49</v>
       </c>
-      <c r="BD7" s="41">
+      <c r="BD7" s="42">
         <f>(BB7-AV7)/(BB7-BC7)</f>
         <v>0.851063829787233</v>
       </c>
-      <c r="BE7" s="76"/>
+      <c r="BE7" s="78"/>
       <c r="BF7" s="18"/>
       <c r="BG7" s="18"/>
       <c r="BH7" s="18"/>
       <c r="BI7" s="18"/>
-      <c r="BJ7" s="64"/>
+      <c r="BJ7" s="66"/>
       <c r="BK7" s="18"/>
       <c r="BL7" s="18"/>
-      <c r="BM7" s="53"/>
-      <c r="BN7" s="64"/>
+      <c r="BM7" s="55"/>
+      <c r="BN7" s="66"/>
       <c r="BO7" s="18"/>
     </row>
     <row r="8" s="4" customFormat="1" ht="38" spans="1:68">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="102" t="s">
         <v>95</v>
       </c>
       <c r="B8" s="20">
@@ -4882,11 +4894,11 @@
       <c r="J8" s="22">
         <v>90.29</v>
       </c>
-      <c r="K8" s="41">
+      <c r="K8" s="42">
         <f>(H8-I8)/I8</f>
         <v>0.701771653543307</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="42">
         <f>(J8-H8)/J8</f>
         <v>0.234023701406579</v>
       </c>
@@ -4915,28 +4927,28 @@
       <c r="Y8" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="Z8" s="52">
+      <c r="Z8" s="54">
         <f>(J8-N8)/J8</f>
         <v>0.33492081072101</v>
       </c>
-      <c r="AA8" s="52">
+      <c r="AA8" s="54">
         <f>(O8-P8)/O8</f>
         <v>0.123745819397993</v>
       </c>
-      <c r="AB8" s="52">
+      <c r="AB8" s="54">
         <f>(Q8-R8)/Q8</f>
         <v>0.0577627500704425</v>
       </c>
-      <c r="AC8" s="52" t="e">
+      <c r="AC8" s="54" t="e">
         <f>(S8-T8)/S8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD8" s="42"/>
+      <c r="AD8" s="43"/>
       <c r="AE8" s="22"/>
       <c r="AF8" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="AG8" s="61" t="s">
+      <c r="AG8" s="63" t="s">
         <v>100</v>
       </c>
       <c r="AH8" s="22">
@@ -4966,7 +4978,7 @@
         <f>FLOOR(300/(AK8-AL8),100)</f>
         <v>0</v>
       </c>
-      <c r="AP8" s="63">
+      <c r="AP8" s="65">
         <f>(AM8-AK8)/(AK8-AL8)</f>
         <v>3.40487804878048</v>
       </c>
@@ -4981,7 +4993,7 @@
       <c r="AS8" s="22">
         <v>6.49</v>
       </c>
-      <c r="AT8" s="61" t="s">
+      <c r="AT8" s="63" t="s">
         <v>89</v>
       </c>
       <c r="AU8" s="20">
@@ -4996,14 +5008,14 @@
       <c r="AX8" s="22">
         <v>5</v>
       </c>
-      <c r="AY8" s="80">
+      <c r="AY8" s="82">
         <v>0</v>
       </c>
-      <c r="AZ8" s="77">
+      <c r="AZ8" s="79">
         <f>AV8*AW8+AX8+AY8</f>
         <v>7212</v>
       </c>
-      <c r="BA8" s="77">
+      <c r="BA8" s="79">
         <f>(AV8-AL8)*AW8+AX8+AY8</f>
         <v>524</v>
       </c>
@@ -5013,7 +5025,7 @@
       <c r="BC8" s="22">
         <v>70.4</v>
       </c>
-      <c r="BD8" s="41">
+      <c r="BD8" s="42">
         <f>(BB8-AV8)/(BB8-BC8)</f>
         <v>0.592682926829271</v>
       </c>
@@ -5022,16 +5034,16 @@
       <c r="BG8" s="22"/>
       <c r="BH8" s="22"/>
       <c r="BI8" s="22"/>
-      <c r="BJ8" s="64"/>
+      <c r="BJ8" s="66"/>
       <c r="BK8" s="22"/>
       <c r="BL8" s="22"/>
-      <c r="BM8" s="53"/>
-      <c r="BN8" s="64"/>
+      <c r="BM8" s="55"/>
+      <c r="BN8" s="66"/>
       <c r="BO8" s="22"/>
-      <c r="BP8" s="61"/>
+      <c r="BP8" s="63"/>
     </row>
     <row r="9" s="4" customFormat="1" ht="24" spans="1:68">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="103" t="s">
         <v>101</v>
       </c>
       <c r="B9" s="20">
@@ -5059,11 +5071,11 @@
       <c r="J9" s="22">
         <v>48.5</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="43">
         <f>(H9-I9)/I9</f>
         <v>0.692702394526796</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="44">
         <f>(J9-H9)/J9</f>
         <v>0.387835051546392</v>
       </c>
@@ -5092,23 +5104,23 @@
       <c r="Y9" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="Z9" s="42">
+      <c r="Z9" s="43">
         <f>(J9-N9)/J9</f>
         <v>0.502886597938144</v>
       </c>
-      <c r="AA9" s="42">
+      <c r="AA9" s="43">
         <f>(O9-P9)/O9</f>
         <v>0.341719077568134</v>
       </c>
-      <c r="AB9" s="42">
+      <c r="AB9" s="43">
         <f>(Q9-R9)/Q9</f>
         <v>0.0550161812297734</v>
       </c>
-      <c r="AC9" s="42" t="e">
+      <c r="AC9" s="43" t="e">
         <f>(S9-T9)/S9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD9" s="42" t="e">
+      <c r="AD9" s="43" t="e">
         <f>(U9-V9)/U9</f>
         <v>#DIV/0!</v>
       </c>
@@ -5116,7 +5128,7 @@
       <c r="AF9" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="AG9" s="61" t="s">
+      <c r="AG9" s="63" t="s">
         <v>103</v>
       </c>
       <c r="AH9" s="22">
@@ -5125,7 +5137,7 @@
       <c r="AI9" s="22">
         <v>26.16</v>
       </c>
-      <c r="AJ9" s="62">
+      <c r="AJ9" s="64">
         <f>AH9-AI9</f>
         <v>6.27</v>
       </c>
@@ -5138,7 +5150,7 @@
       <c r="AM9" s="22">
         <v>38.71</v>
       </c>
-      <c r="AN9" s="62">
+      <c r="AN9" s="64">
         <f>(AK9-AL9)*100</f>
         <v>131</v>
       </c>
@@ -5146,22 +5158,22 @@
         <f>FLOOR(300/(AK9-AL9),100)</f>
         <v>200</v>
       </c>
-      <c r="AP9" s="64">
+      <c r="AP9" s="66">
         <f>(AM9-AK9)/(AK9-AL9)</f>
         <v>6.14503816793894</v>
       </c>
-      <c r="AQ9" s="42">
+      <c r="AQ9" s="43">
         <f>(AK9-AL9)/AK9</f>
         <v>0.042726679712981</v>
       </c>
-      <c r="AR9" s="42">
+      <c r="AR9" s="43">
         <f>(AM9-AK9)/AK9</f>
         <v>0.262557077625571</v>
       </c>
       <c r="AS9" s="22">
         <v>38.46</v>
       </c>
-      <c r="AT9" s="61" t="s">
+      <c r="AT9" s="63" t="s">
         <v>82</v>
       </c>
       <c r="AU9" s="20">
@@ -5176,15 +5188,15 @@
       <c r="AX9" s="22">
         <v>5</v>
       </c>
-      <c r="AY9" s="64">
+      <c r="AY9" s="66">
         <f>AV9*AW9*0.2/10000</f>
         <v>0.06108</v>
       </c>
-      <c r="AZ9" s="81">
+      <c r="AZ9" s="83">
         <f>AV9*AW9+AX9+AY9</f>
         <v>3059.06108</v>
       </c>
-      <c r="BA9" s="81">
+      <c r="BA9" s="83">
         <f>(AV9-AL9)*AW9+AX9+AY9</f>
         <v>124.06108</v>
       </c>
@@ -5194,7 +5206,7 @@
       <c r="BC9" s="22">
         <v>29.33</v>
       </c>
-      <c r="BD9" s="42">
+      <c r="BD9" s="43">
         <f>(BB9-AV9)/(BB9-BC9)</f>
         <v>0.129496402877698</v>
       </c>
@@ -5213,7 +5225,7 @@
       <c r="BI9" s="22">
         <v>3.075</v>
       </c>
-      <c r="BJ9" s="64">
+      <c r="BJ9" s="66">
         <f>BF9*BG9-BH9-BI9</f>
         <v>3006.925</v>
       </c>
@@ -5223,21 +5235,21 @@
       <c r="BL9" s="22">
         <v>30.01</v>
       </c>
-      <c r="BM9" s="53">
+      <c r="BM9" s="55">
         <f>(BF9-BL9)/(BK9-BL9)</f>
         <v>0.205882352941172</v>
       </c>
-      <c r="BN9" s="64">
+      <c r="BN9" s="66">
         <f>BJ9-AZ9</f>
         <v>-52.1360799999998</v>
       </c>
       <c r="BO9" s="22"/>
-      <c r="BP9" s="61" t="s">
+      <c r="BP9" s="63" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="14" spans="1:67">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="103" t="s">
         <v>105</v>
       </c>
       <c r="B10" s="24">
@@ -5265,11 +5277,11 @@
       <c r="J10" s="26">
         <v>31.94</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="42">
         <f>(H10-I10)/I10</f>
         <v>1.00484094052559</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="42">
         <f>(J10-H10)/J10</f>
         <v>0.0923606762680026</v>
       </c>
@@ -5302,19 +5314,19 @@
       <c r="Y10" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="Z10" s="52">
+      <c r="Z10" s="54">
         <f>(J10-N10)/J10</f>
         <v>0.354101440200376</v>
       </c>
-      <c r="AA10" s="52">
+      <c r="AA10" s="54">
         <f>(O10-P10)/O10</f>
         <v>0.163678877630553</v>
       </c>
-      <c r="AB10" s="52">
+      <c r="AB10" s="54">
         <f>(Q10-R10)/Q10</f>
         <v>0.161647628937349</v>
       </c>
-      <c r="AC10" s="52">
+      <c r="AC10" s="54">
         <f>(S10-T10)/S10</f>
         <v>0.0666666666666667</v>
       </c>
@@ -5353,22 +5365,22 @@
         <f>FLOOR(300/(AK10-AL10),100)</f>
         <v>100</v>
       </c>
-      <c r="AP10" s="65">
+      <c r="AP10" s="67">
         <f>(AM10-AK10)/(AK10-AL10)</f>
         <v>2.51707317073171</v>
       </c>
-      <c r="AQ10" s="41">
+      <c r="AQ10" s="42">
         <f>(AK10-AL10)/AK10</f>
         <v>0.0688612697346322</v>
       </c>
-      <c r="AR10" s="41">
+      <c r="AR10" s="42">
         <f>(AM10-AK10)/AK10</f>
         <v>0.173328854551562</v>
       </c>
       <c r="AS10" s="26">
         <v>17.95</v>
       </c>
-      <c r="AT10" s="78" t="s">
+      <c r="AT10" s="80" t="s">
         <v>89</v>
       </c>
       <c r="AU10" s="24">
@@ -5383,15 +5395,15 @@
       <c r="AX10" s="26">
         <v>5</v>
       </c>
-      <c r="AY10" s="64">
+      <c r="AY10" s="66">
         <f>AV10*AW10*0.2/10000</f>
         <v>0.05962</v>
       </c>
-      <c r="AZ10" s="81">
+      <c r="AZ10" s="83">
         <f>AV10*AW10+AX10+AY10</f>
         <v>2986.05962</v>
       </c>
-      <c r="BA10" s="81">
+      <c r="BA10" s="83">
         <f>(AV10-AL10)*AW10+AX10+AY10</f>
         <v>214.05962</v>
       </c>
@@ -5401,7 +5413,7 @@
       <c r="BC10" s="26">
         <v>28.81</v>
       </c>
-      <c r="BD10" s="42">
+      <c r="BD10" s="43">
         <f>(BB10-AV10)/(BB10-BC10)</f>
         <v>0.337748344370862</v>
       </c>
@@ -5418,7 +5430,7 @@
       <c r="BO10" s="26"/>
     </row>
     <row r="11" ht="13" spans="1:67">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="104" t="s">
         <v>108</v>
       </c>
       <c r="B11" s="27"/>
@@ -5488,7 +5500,7 @@
       <c r="BO11" s="27"/>
     </row>
     <row r="12" ht="13" spans="1:67">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="104" t="s">
         <v>109</v>
       </c>
       <c r="B12" s="27"/>
@@ -5558,7 +5570,7 @@
       <c r="BO12" s="27"/>
     </row>
     <row r="13" ht="13" spans="1:67">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="104" t="s">
         <v>110</v>
       </c>
       <c r="B13" s="27"/>
@@ -5628,7 +5640,7 @@
       <c r="BO13" s="27"/>
     </row>
     <row r="14" ht="13" spans="1:67">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="104" t="s">
         <v>111</v>
       </c>
       <c r="B14" s="27"/>
@@ -5698,7 +5710,7 @@
       <c r="BO14" s="27"/>
     </row>
     <row r="15" ht="13" spans="1:67">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="104" t="s">
         <v>112</v>
       </c>
       <c r="B15" s="27"/>
@@ -5768,7 +5780,7 @@
       <c r="BO15" s="27"/>
     </row>
     <row r="16" ht="13" spans="1:67">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="104" t="s">
         <v>113</v>
       </c>
       <c r="B16" s="27"/>
@@ -5838,7 +5850,7 @@
       <c r="BO16" s="27"/>
     </row>
     <row r="17" ht="13" spans="1:67">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="104" t="s">
         <v>114</v>
       </c>
       <c r="B17" s="27"/>
@@ -5908,7 +5920,7 @@
       <c r="BO17" s="27"/>
     </row>
     <row r="18" ht="13" spans="1:67">
-      <c r="A18" s="102" t="s">
+      <c r="A18" s="104" t="s">
         <v>115</v>
       </c>
       <c r="B18" s="27"/>
@@ -5978,7 +5990,7 @@
       <c r="BO18" s="27"/>
     </row>
     <row r="19" ht="13" spans="1:67">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="104" t="s">
         <v>116</v>
       </c>
       <c r="B19" s="27"/>
@@ -6048,7 +6060,7 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" ht="13" spans="1:67">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="104" t="s">
         <v>117</v>
       </c>
       <c r="B20" s="27"/>
@@ -6118,7 +6130,7 @@
       <c r="BO20" s="27"/>
     </row>
     <row r="21" ht="13" spans="1:67">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="104" t="s">
         <v>118</v>
       </c>
       <c r="B21" s="27"/>
@@ -6188,7 +6200,7 @@
       <c r="BO21" s="27"/>
     </row>
     <row r="22" ht="13" spans="1:67">
-      <c r="A22" s="102" t="s">
+      <c r="A22" s="104" t="s">
         <v>119</v>
       </c>
       <c r="B22" s="27"/>
@@ -6258,7 +6270,7 @@
       <c r="BO22" s="27"/>
     </row>
     <row r="23" ht="13" spans="1:67">
-      <c r="A23" s="102" t="s">
+      <c r="A23" s="104" t="s">
         <v>120</v>
       </c>
       <c r="B23" s="27"/>
@@ -6328,7 +6340,7 @@
       <c r="BO23" s="27"/>
     </row>
     <row r="24" ht="13" spans="1:67">
-      <c r="A24" s="102" t="s">
+      <c r="A24" s="104" t="s">
         <v>121</v>
       </c>
       <c r="B24" s="27"/>
@@ -6398,7 +6410,7 @@
       <c r="BO24" s="27"/>
     </row>
     <row r="25" ht="13" spans="1:67">
-      <c r="A25" s="102" t="s">
+      <c r="A25" s="104" t="s">
         <v>122</v>
       </c>
       <c r="B25" s="27"/>
@@ -6468,7 +6480,7 @@
       <c r="BO25" s="27"/>
     </row>
     <row r="26" ht="13" spans="1:67">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="104" t="s">
         <v>123</v>
       </c>
       <c r="B26" s="27"/>
@@ -6538,7 +6550,7 @@
       <c r="BO26" s="27"/>
     </row>
     <row r="27" ht="13" spans="1:67">
-      <c r="A27" s="102" t="s">
+      <c r="A27" s="104" t="s">
         <v>124</v>
       </c>
       <c r="B27" s="27"/>
@@ -6608,7 +6620,7 @@
       <c r="BO27" s="27"/>
     </row>
     <row r="28" ht="13" spans="1:67">
-      <c r="A28" s="102" t="s">
+      <c r="A28" s="104" t="s">
         <v>125</v>
       </c>
       <c r="B28" s="27"/>
@@ -6678,7 +6690,7 @@
       <c r="BO28" s="27"/>
     </row>
     <row r="29" ht="13" spans="1:67">
-      <c r="A29" s="102" t="s">
+      <c r="A29" s="104" t="s">
         <v>126</v>
       </c>
       <c r="B29" s="27"/>
@@ -6748,7 +6760,7 @@
       <c r="BO29" s="27"/>
     </row>
     <row r="30" ht="13" spans="1:67">
-      <c r="A30" s="102" t="s">
+      <c r="A30" s="104" t="s">
         <v>127</v>
       </c>
       <c r="B30" s="27"/>
@@ -6818,7 +6830,7 @@
       <c r="BO30" s="27"/>
     </row>
     <row r="31" ht="13" spans="1:67">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="104" t="s">
         <v>128</v>
       </c>
       <c r="B31" s="27"/>
@@ -6888,7 +6900,7 @@
       <c r="BO31" s="27"/>
     </row>
     <row r="32" ht="13" spans="1:67">
-      <c r="A32" s="102" t="s">
+      <c r="A32" s="104" t="s">
         <v>129</v>
       </c>
       <c r="B32" s="27"/>
@@ -6958,7 +6970,7 @@
       <c r="BO32" s="27"/>
     </row>
     <row r="33" ht="13" spans="1:67">
-      <c r="A33" s="102" t="s">
+      <c r="A33" s="104" t="s">
         <v>130</v>
       </c>
       <c r="B33" s="27"/>
@@ -7028,7 +7040,7 @@
       <c r="BO33" s="27"/>
     </row>
     <row r="34" ht="13" spans="1:67">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="104" t="s">
         <v>131</v>
       </c>
       <c r="B34" s="27"/>
@@ -7098,7 +7110,7 @@
       <c r="BO34" s="27"/>
     </row>
     <row r="35" ht="13" spans="1:67">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="104" t="s">
         <v>132</v>
       </c>
       <c r="B35" s="27"/>
@@ -7168,7 +7180,7 @@
       <c r="BO35" s="27"/>
     </row>
     <row r="36" ht="13" spans="1:67">
-      <c r="A36" s="102" t="s">
+      <c r="A36" s="104" t="s">
         <v>133</v>
       </c>
       <c r="B36" s="27"/>
@@ -7238,7 +7250,7 @@
       <c r="BO36" s="27"/>
     </row>
     <row r="37" ht="13" spans="1:67">
-      <c r="A37" s="102" t="s">
+      <c r="A37" s="104" t="s">
         <v>134</v>
       </c>
       <c r="B37" s="27"/>
@@ -7308,7 +7320,7 @@
       <c r="BO37" s="27"/>
     </row>
     <row r="38" ht="13" spans="1:67">
-      <c r="A38" s="102" t="s">
+      <c r="A38" s="104" t="s">
         <v>135</v>
       </c>
       <c r="B38" s="27"/>
@@ -7378,7 +7390,7 @@
       <c r="BO38" s="27"/>
     </row>
     <row r="39" ht="13" spans="1:67">
-      <c r="A39" s="102" t="s">
+      <c r="A39" s="104" t="s">
         <v>136</v>
       </c>
       <c r="B39" s="27"/>
@@ -7448,7 +7460,7 @@
       <c r="BO39" s="27"/>
     </row>
     <row r="40" ht="13" spans="1:67">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="104" t="s">
         <v>137</v>
       </c>
       <c r="B40" s="27"/>
@@ -7518,7 +7530,7 @@
       <c r="BO40" s="27"/>
     </row>
     <row r="41" ht="13" spans="1:67">
-      <c r="A41" s="102" t="s">
+      <c r="A41" s="104" t="s">
         <v>138</v>
       </c>
       <c r="B41" s="27"/>
@@ -7588,7 +7600,7 @@
       <c r="BO41" s="27"/>
     </row>
     <row r="42" ht="13" spans="1:67">
-      <c r="A42" s="102" t="s">
+      <c r="A42" s="104" t="s">
         <v>139</v>
       </c>
       <c r="B42" s="27"/>
@@ -7658,7 +7670,7 @@
       <c r="BO42" s="27"/>
     </row>
     <row r="43" ht="13" spans="1:67">
-      <c r="A43" s="102" t="s">
+      <c r="A43" s="104" t="s">
         <v>140</v>
       </c>
       <c r="B43" s="27"/>
@@ -7728,7 +7740,7 @@
       <c r="BO43" s="27"/>
     </row>
     <row r="44" ht="13" spans="1:67">
-      <c r="A44" s="102" t="s">
+      <c r="A44" s="104" t="s">
         <v>141</v>
       </c>
       <c r="B44" s="27"/>
@@ -7798,7 +7810,7 @@
       <c r="BO44" s="27"/>
     </row>
     <row r="45" ht="13" spans="1:67">
-      <c r="A45" s="102" t="s">
+      <c r="A45" s="104" t="s">
         <v>142</v>
       </c>
       <c r="B45" s="27"/>
@@ -7868,7 +7880,7 @@
       <c r="BO45" s="27"/>
     </row>
     <row r="46" ht="13" spans="1:67">
-      <c r="A46" s="102" t="s">
+      <c r="A46" s="104" t="s">
         <v>143</v>
       </c>
       <c r="B46" s="27"/>
@@ -7938,7 +7950,7 @@
       <c r="BO46" s="27"/>
     </row>
     <row r="47" ht="13" spans="1:67">
-      <c r="A47" s="102" t="s">
+      <c r="A47" s="104" t="s">
         <v>144</v>
       </c>
       <c r="B47" s="27"/>
@@ -8008,7 +8020,7 @@
       <c r="BO47" s="27"/>
     </row>
     <row r="48" ht="13" spans="1:67">
-      <c r="A48" s="102" t="s">
+      <c r="A48" s="104" t="s">
         <v>145</v>
       </c>
       <c r="B48" s="27"/>
@@ -8078,7 +8090,7 @@
       <c r="BO48" s="27"/>
     </row>
     <row r="49" ht="13" spans="1:67">
-      <c r="A49" s="102" t="s">
+      <c r="A49" s="104" t="s">
         <v>146</v>
       </c>
       <c r="B49" s="27"/>
@@ -8148,7 +8160,7 @@
       <c r="BO49" s="27"/>
     </row>
     <row r="50" ht="13" spans="1:67">
-      <c r="A50" s="102" t="s">
+      <c r="A50" s="104" t="s">
         <v>147</v>
       </c>
       <c r="B50" s="27"/>
@@ -8218,7 +8230,7 @@
       <c r="BO50" s="27"/>
     </row>
     <row r="51" ht="13" spans="1:67">
-      <c r="A51" s="102" t="s">
+      <c r="A51" s="104" t="s">
         <v>148</v>
       </c>
       <c r="B51" s="27"/>
@@ -8288,7 +8300,7 @@
       <c r="BO51" s="27"/>
     </row>
     <row r="52" ht="13" spans="1:67">
-      <c r="A52" s="102" t="s">
+      <c r="A52" s="104" t="s">
         <v>149</v>
       </c>
       <c r="B52" s="27"/>
@@ -8358,7 +8370,7 @@
       <c r="BO52" s="27"/>
     </row>
     <row r="53" ht="13" spans="1:67">
-      <c r="A53" s="102" t="s">
+      <c r="A53" s="104" t="s">
         <v>150</v>
       </c>
       <c r="B53" s="27"/>
@@ -8428,7 +8440,7 @@
       <c r="BO53" s="27"/>
     </row>
     <row r="54" ht="13" spans="1:67">
-      <c r="A54" s="102" t="s">
+      <c r="A54" s="104" t="s">
         <v>151</v>
       </c>
       <c r="B54" s="27"/>
@@ -8498,7 +8510,7 @@
       <c r="BO54" s="27"/>
     </row>
     <row r="55" ht="13" spans="1:67">
-      <c r="A55" s="102" t="s">
+      <c r="A55" s="104" t="s">
         <v>152</v>
       </c>
       <c r="B55" s="27"/>
@@ -8568,7 +8580,7 @@
       <c r="BO55" s="27"/>
     </row>
     <row r="56" ht="13" spans="1:67">
-      <c r="A56" s="102" t="s">
+      <c r="A56" s="104" t="s">
         <v>153</v>
       </c>
       <c r="B56" s="27"/>
@@ -8638,7 +8650,7 @@
       <c r="BO56" s="27"/>
     </row>
     <row r="57" ht="13" spans="1:67">
-      <c r="A57" s="102" t="s">
+      <c r="A57" s="104" t="s">
         <v>154</v>
       </c>
       <c r="B57" s="27"/>
@@ -8708,7 +8720,7 @@
       <c r="BO57" s="27"/>
     </row>
     <row r="58" ht="13" spans="1:67">
-      <c r="A58" s="102" t="s">
+      <c r="A58" s="104" t="s">
         <v>155</v>
       </c>
       <c r="B58" s="27"/>
@@ -8778,7 +8790,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" ht="13" spans="1:67">
-      <c r="A59" s="102" t="s">
+      <c r="A59" s="104" t="s">
         <v>156</v>
       </c>
       <c r="B59" s="27"/>
@@ -8848,7 +8860,7 @@
       <c r="BO59" s="27"/>
     </row>
     <row r="60" ht="13" spans="1:67">
-      <c r="A60" s="102" t="s">
+      <c r="A60" s="104" t="s">
         <v>157</v>
       </c>
       <c r="B60" s="27"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
@@ -3645,11 +3645,11 @@
   <dimension ref="A1:DE557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BC2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="BE5" sqref="BE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
@@ -3645,11 +3645,11 @@
   <dimension ref="A1:DE557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BE5" sqref="BE5"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
@@ -3645,11 +3645,11 @@
   <dimension ref="A1:DE557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
@@ -3645,11 +3645,11 @@
   <dimension ref="A1:DE557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL10" sqref="AL10"/>
+      <selection pane="bottomRight" activeCell="AN10" sqref="AN10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
@@ -920,7 +920,8 @@
     <t>不宜入场</t>
   </si>
   <si>
-    <t>没注意随着价格的收缩成交量放量，导致入场过早</t>
+    <t>1.入场时，忽略了距离最高点的距离;
+2.入场时，忽略了成交量的情况。</t>
   </si>
   <si>
     <t>000002</t>
@@ -2515,7 +2516,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3706,11 +3707,11 @@
   <dimension ref="A1:DF557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BM2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2:K3"/>
+      <selection pane="bottomRight" activeCell="BP4" sqref="BP4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3748,7 +3749,7 @@
     <col min="62" max="64" width="20.375" customWidth="1"/>
     <col min="65" max="66" width="21.4196428571429" customWidth="1"/>
     <col min="67" max="68" width="26.9285714285714" customWidth="1"/>
-    <col min="69" max="69" width="26.7857142857143" customWidth="1"/>
+    <col min="69" max="69" width="32.5803571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.6" spans="1:110">
@@ -4445,7 +4446,10 @@
         <f>BN4+BN5</f>
         <v>-1.25900000000001</v>
       </c>
-      <c r="BP4" s="46"/>
+      <c r="BP4" s="53">
+        <f>(BF4-AV4)/AJ4</f>
+        <v>-0.208598726114649</v>
+      </c>
       <c r="BQ4" s="96" t="s">
         <v>83</v>
       </c>
@@ -4579,7 +4583,10 @@
         <v>139.73</v>
       </c>
       <c r="BO5" s="92"/>
-      <c r="BP5" s="13"/>
+      <c r="BP5" s="53">
+        <f>(BF5-AV4)/AJ4</f>
+        <v>0.238853503184713</v>
+      </c>
       <c r="BQ5" s="96"/>
     </row>
     <row r="6" s="5" customFormat="1" ht="38" spans="1:68">
@@ -4767,7 +4774,7 @@
       <c r="BM6" s="53"/>
       <c r="BN6" s="64"/>
       <c r="BO6" s="17"/>
-      <c r="BP6" s="17"/>
+      <c r="BP6" s="40"/>
     </row>
     <row r="7" s="5" customFormat="1" ht="38" spans="1:68">
       <c r="A7" s="101" t="s">
@@ -4954,7 +4961,7 @@
       <c r="BM7" s="53"/>
       <c r="BN7" s="64"/>
       <c r="BO7" s="17"/>
-      <c r="BP7" s="17"/>
+      <c r="BP7" s="40"/>
     </row>
     <row r="8" s="4" customFormat="1" ht="38" spans="1:69">
       <c r="A8" s="101" t="s">
@@ -5133,7 +5140,7 @@
       <c r="BM8" s="53"/>
       <c r="BN8" s="64"/>
       <c r="BO8" s="21"/>
-      <c r="BP8" s="21"/>
+      <c r="BP8" s="41"/>
       <c r="BQ8" s="61"/>
     </row>
     <row r="9" s="4" customFormat="1" ht="24" spans="1:69">
@@ -5338,7 +5345,10 @@
         <v>-52.1360799999998</v>
       </c>
       <c r="BO9" s="64"/>
-      <c r="BP9" s="21"/>
+      <c r="BP9" s="41">
+        <f>(BF9-AV9)/AJ9</f>
+        <v>-0.0622009569377991</v>
+      </c>
       <c r="BQ9" s="61" t="s">
         <v>104</v>
       </c>
@@ -5523,7 +5533,7 @@
       <c r="BM10" s="17"/>
       <c r="BN10" s="17"/>
       <c r="BO10" s="17"/>
-      <c r="BP10" s="17"/>
+      <c r="BP10" s="40"/>
     </row>
     <row r="11" ht="13" spans="1:68">
       <c r="A11" s="103" t="s">

--- a/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
@@ -1120,7 +1120,7 @@
     <t>由于价格收缩不明显，成交量收缩情况不予考虑</t>
   </si>
   <si>
-    <t>没注意价格的收缩幅度不够，导致入场过早</t>
+    <t>1.入场时，忽略了价格的收缩幅度。价格的收缩幅度不够，导致入场过早。</t>
   </si>
   <si>
     <t>000006</t>
@@ -3711,7 +3711,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BP4" sqref="BP4"/>
+      <selection pane="bottomRight" activeCell="BQ9" sqref="BQ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
@@ -3707,11 +3707,11 @@
   <dimension ref="A1:DF557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BM2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AV2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BQ9" sqref="BQ9"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
@@ -3707,11 +3707,11 @@
   <dimension ref="A1:DF557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AV2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BD2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="BD7" sqref="C4:C5 C8 BE7 BD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
@@ -921,7 +921,8 @@
   </si>
   <si>
     <t>1.入场时，忽略了距离最高点的距离;
-2.入场时，忽略了成交量的情况。</t>
+2.入场时，忽略了成交量的情况。
+3.作出出场决定时，一定要立即出场。不然也至少要设置最低的止损线。</t>
   </si>
   <si>
     <t>000002</t>
@@ -2226,7 +2227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2515,11 +2516,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3707,11 +3711,11 @@
   <dimension ref="A1:DF557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BM2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BD7" sqref="C4:C5 C8 BE7 BD7"/>
+      <selection pane="bottomRight" activeCell="BQ9" sqref="BQ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3838,35 +3842,35 @@
       <c r="BW1" s="93"/>
       <c r="BX1" s="93"/>
       <c r="BY1" s="93"/>
-      <c r="CA1" s="98"/>
-      <c r="CB1" s="98"/>
-      <c r="CC1" s="98"/>
-      <c r="CD1" s="98"/>
-      <c r="CE1" s="98"/>
-      <c r="CF1" s="98"/>
-      <c r="CG1" s="98"/>
-      <c r="CH1" s="98"/>
-      <c r="CJ1" s="98"/>
-      <c r="CK1" s="98"/>
-      <c r="CL1" s="98"/>
-      <c r="CM1" s="98"/>
-      <c r="CN1" s="98"/>
-      <c r="CO1" s="98"/>
-      <c r="CP1" s="98"/>
-      <c r="CR1" s="98"/>
-      <c r="CS1" s="98"/>
-      <c r="CT1" s="98"/>
-      <c r="CU1" s="98"/>
-      <c r="CV1" s="98"/>
-      <c r="CW1" s="98"/>
-      <c r="CX1" s="98"/>
-      <c r="CZ1" s="98"/>
-      <c r="DA1" s="98"/>
-      <c r="DB1" s="98"/>
-      <c r="DC1" s="98"/>
-      <c r="DD1" s="98"/>
-      <c r="DE1" s="98"/>
-      <c r="DF1" s="98"/>
+      <c r="CA1" s="99"/>
+      <c r="CB1" s="99"/>
+      <c r="CC1" s="99"/>
+      <c r="CD1" s="99"/>
+      <c r="CE1" s="99"/>
+      <c r="CF1" s="99"/>
+      <c r="CG1" s="99"/>
+      <c r="CH1" s="99"/>
+      <c r="CJ1" s="99"/>
+      <c r="CK1" s="99"/>
+      <c r="CL1" s="99"/>
+      <c r="CM1" s="99"/>
+      <c r="CN1" s="99"/>
+      <c r="CO1" s="99"/>
+      <c r="CP1" s="99"/>
+      <c r="CR1" s="99"/>
+      <c r="CS1" s="99"/>
+      <c r="CT1" s="99"/>
+      <c r="CU1" s="99"/>
+      <c r="CV1" s="99"/>
+      <c r="CW1" s="99"/>
+      <c r="CX1" s="99"/>
+      <c r="CZ1" s="99"/>
+      <c r="DA1" s="99"/>
+      <c r="DB1" s="99"/>
+      <c r="DC1" s="99"/>
+      <c r="DD1" s="99"/>
+      <c r="DE1" s="99"/>
+      <c r="DF1" s="99"/>
     </row>
     <row r="2" ht="23.6" spans="1:110">
       <c r="A2" s="8" t="s">
@@ -4040,35 +4044,35 @@
       <c r="BW2" s="93"/>
       <c r="BX2" s="93"/>
       <c r="BY2" s="93"/>
-      <c r="CA2" s="98"/>
-      <c r="CB2" s="98"/>
-      <c r="CC2" s="98"/>
-      <c r="CD2" s="98"/>
-      <c r="CE2" s="98"/>
-      <c r="CF2" s="98"/>
-      <c r="CG2" s="98"/>
-      <c r="CH2" s="98"/>
-      <c r="CJ2" s="98"/>
-      <c r="CK2" s="98"/>
-      <c r="CL2" s="98"/>
-      <c r="CM2" s="98"/>
-      <c r="CN2" s="98"/>
-      <c r="CO2" s="98"/>
-      <c r="CP2" s="98"/>
-      <c r="CR2" s="98"/>
-      <c r="CS2" s="98"/>
-      <c r="CT2" s="98"/>
-      <c r="CU2" s="98"/>
-      <c r="CV2" s="98"/>
-      <c r="CW2" s="98"/>
-      <c r="CX2" s="98"/>
-      <c r="CZ2" s="98"/>
-      <c r="DA2" s="98"/>
-      <c r="DB2" s="98"/>
-      <c r="DC2" s="98"/>
-      <c r="DD2" s="98"/>
-      <c r="DE2" s="98"/>
-      <c r="DF2" s="98"/>
+      <c r="CA2" s="99"/>
+      <c r="CB2" s="99"/>
+      <c r="CC2" s="99"/>
+      <c r="CD2" s="99"/>
+      <c r="CE2" s="99"/>
+      <c r="CF2" s="99"/>
+      <c r="CG2" s="99"/>
+      <c r="CH2" s="99"/>
+      <c r="CJ2" s="99"/>
+      <c r="CK2" s="99"/>
+      <c r="CL2" s="99"/>
+      <c r="CM2" s="99"/>
+      <c r="CN2" s="99"/>
+      <c r="CO2" s="99"/>
+      <c r="CP2" s="99"/>
+      <c r="CR2" s="99"/>
+      <c r="CS2" s="99"/>
+      <c r="CT2" s="99"/>
+      <c r="CU2" s="99"/>
+      <c r="CV2" s="99"/>
+      <c r="CW2" s="99"/>
+      <c r="CX2" s="99"/>
+      <c r="CZ2" s="99"/>
+      <c r="DA2" s="99"/>
+      <c r="DB2" s="99"/>
+      <c r="DC2" s="99"/>
+      <c r="DD2" s="99"/>
+      <c r="DE2" s="99"/>
+      <c r="DF2" s="99"/>
     </row>
     <row r="3" ht="48" spans="1:110">
       <c r="A3" s="8"/>
@@ -4194,38 +4198,38 @@
       <c r="BW3" s="93"/>
       <c r="BX3" s="93"/>
       <c r="BY3" s="93"/>
-      <c r="CA3" s="98"/>
-      <c r="CB3" s="98"/>
-      <c r="CC3" s="98"/>
-      <c r="CD3" s="98"/>
-      <c r="CE3" s="98"/>
-      <c r="CF3" s="98"/>
-      <c r="CG3" s="98"/>
-      <c r="CH3" s="98"/>
-      <c r="CJ3" s="98"/>
-      <c r="CK3" s="98"/>
-      <c r="CL3" s="98"/>
-      <c r="CM3" s="98"/>
-      <c r="CN3" s="98"/>
-      <c r="CO3" s="98"/>
-      <c r="CP3" s="98"/>
-      <c r="CR3" s="98"/>
-      <c r="CS3" s="98"/>
-      <c r="CT3" s="98"/>
-      <c r="CU3" s="98"/>
-      <c r="CV3" s="98"/>
-      <c r="CW3" s="98"/>
-      <c r="CX3" s="98"/>
-      <c r="CZ3" s="98"/>
-      <c r="DA3" s="98"/>
-      <c r="DB3" s="98"/>
-      <c r="DC3" s="98"/>
-      <c r="DD3" s="98"/>
-      <c r="DE3" s="98"/>
-      <c r="DF3" s="98"/>
+      <c r="CA3" s="99"/>
+      <c r="CB3" s="99"/>
+      <c r="CC3" s="99"/>
+      <c r="CD3" s="99"/>
+      <c r="CE3" s="99"/>
+      <c r="CF3" s="99"/>
+      <c r="CG3" s="99"/>
+      <c r="CH3" s="99"/>
+      <c r="CJ3" s="99"/>
+      <c r="CK3" s="99"/>
+      <c r="CL3" s="99"/>
+      <c r="CM3" s="99"/>
+      <c r="CN3" s="99"/>
+      <c r="CO3" s="99"/>
+      <c r="CP3" s="99"/>
+      <c r="CR3" s="99"/>
+      <c r="CS3" s="99"/>
+      <c r="CT3" s="99"/>
+      <c r="CU3" s="99"/>
+      <c r="CV3" s="99"/>
+      <c r="CW3" s="99"/>
+      <c r="CX3" s="99"/>
+      <c r="CZ3" s="99"/>
+      <c r="DA3" s="99"/>
+      <c r="DB3" s="99"/>
+      <c r="DC3" s="99"/>
+      <c r="DD3" s="99"/>
+      <c r="DE3" s="99"/>
+      <c r="DF3" s="99"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="23.6" spans="1:110">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="101" t="s">
         <v>74</v>
       </c>
       <c r="B4" s="14">
@@ -4461,35 +4465,35 @@
       <c r="BW4" s="97"/>
       <c r="BX4" s="97"/>
       <c r="BY4" s="97"/>
-      <c r="CA4" s="99"/>
-      <c r="CB4" s="99"/>
-      <c r="CC4" s="99"/>
-      <c r="CD4" s="99"/>
-      <c r="CE4" s="99"/>
-      <c r="CF4" s="99"/>
-      <c r="CG4" s="99"/>
-      <c r="CH4" s="99"/>
-      <c r="CJ4" s="99"/>
-      <c r="CK4" s="99"/>
-      <c r="CL4" s="99"/>
-      <c r="CM4" s="99"/>
-      <c r="CN4" s="99"/>
-      <c r="CO4" s="99"/>
-      <c r="CP4" s="99"/>
-      <c r="CR4" s="99"/>
-      <c r="CS4" s="99"/>
-      <c r="CT4" s="99"/>
-      <c r="CU4" s="99"/>
-      <c r="CV4" s="99"/>
-      <c r="CW4" s="99"/>
-      <c r="CX4" s="99"/>
-      <c r="CZ4" s="99"/>
-      <c r="DA4" s="99"/>
-      <c r="DB4" s="99"/>
-      <c r="DC4" s="99"/>
-      <c r="DD4" s="99"/>
-      <c r="DE4" s="99"/>
-      <c r="DF4" s="99"/>
+      <c r="CA4" s="100"/>
+      <c r="CB4" s="100"/>
+      <c r="CC4" s="100"/>
+      <c r="CD4" s="100"/>
+      <c r="CE4" s="100"/>
+      <c r="CF4" s="100"/>
+      <c r="CG4" s="100"/>
+      <c r="CH4" s="100"/>
+      <c r="CJ4" s="100"/>
+      <c r="CK4" s="100"/>
+      <c r="CL4" s="100"/>
+      <c r="CM4" s="100"/>
+      <c r="CN4" s="100"/>
+      <c r="CO4" s="100"/>
+      <c r="CP4" s="100"/>
+      <c r="CR4" s="100"/>
+      <c r="CS4" s="100"/>
+      <c r="CT4" s="100"/>
+      <c r="CU4" s="100"/>
+      <c r="CV4" s="100"/>
+      <c r="CW4" s="100"/>
+      <c r="CX4" s="100"/>
+      <c r="CZ4" s="100"/>
+      <c r="DA4" s="100"/>
+      <c r="DB4" s="100"/>
+      <c r="DC4" s="100"/>
+      <c r="DD4" s="100"/>
+      <c r="DE4" s="100"/>
+      <c r="DF4" s="100"/>
     </row>
     <row r="5" s="4" customFormat="1" spans="1:69">
       <c r="A5" s="13"/>
@@ -4590,7 +4594,7 @@
       <c r="BQ5" s="96"/>
     </row>
     <row r="6" s="5" customFormat="1" ht="38" spans="1:68">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="102" t="s">
         <v>84</v>
       </c>
       <c r="B6" s="14">
@@ -4777,7 +4781,7 @@
       <c r="BP6" s="40"/>
     </row>
     <row r="7" s="5" customFormat="1" ht="38" spans="1:68">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="102" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="14">
@@ -4964,7 +4968,7 @@
       <c r="BP7" s="40"/>
     </row>
     <row r="8" s="4" customFormat="1" ht="38" spans="1:69">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="102" t="s">
         <v>95</v>
       </c>
       <c r="B8" s="19">
@@ -5144,7 +5148,7 @@
       <c r="BQ8" s="61"/>
     </row>
     <row r="9" s="4" customFormat="1" ht="24" spans="1:69">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="103" t="s">
         <v>101</v>
       </c>
       <c r="B9" s="19">
@@ -5349,12 +5353,12 @@
         <f>(BF9-AV9)/AJ9</f>
         <v>-0.0622009569377991</v>
       </c>
-      <c r="BQ9" s="61" t="s">
+      <c r="BQ9" s="98" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" ht="14" spans="1:68">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="103" t="s">
         <v>105</v>
       </c>
       <c r="B10" s="23">
@@ -5536,7 +5540,7 @@
       <c r="BP10" s="40"/>
     </row>
     <row r="11" ht="13" spans="1:68">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="104" t="s">
         <v>108</v>
       </c>
       <c r="B11" s="25"/>
@@ -5607,7 +5611,7 @@
       <c r="BP11" s="25"/>
     </row>
     <row r="12" ht="13" spans="1:68">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="104" t="s">
         <v>109</v>
       </c>
       <c r="B12" s="25"/>
@@ -5678,7 +5682,7 @@
       <c r="BP12" s="25"/>
     </row>
     <row r="13" ht="13" spans="1:68">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="104" t="s">
         <v>110</v>
       </c>
       <c r="B13" s="25"/>
@@ -5749,7 +5753,7 @@
       <c r="BP13" s="25"/>
     </row>
     <row r="14" ht="13" spans="1:68">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="104" t="s">
         <v>111</v>
       </c>
       <c r="B14" s="25"/>
@@ -5820,7 +5824,7 @@
       <c r="BP14" s="25"/>
     </row>
     <row r="15" ht="13" spans="1:68">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="104" t="s">
         <v>112</v>
       </c>
       <c r="B15" s="25"/>
@@ -5891,7 +5895,7 @@
       <c r="BP15" s="25"/>
     </row>
     <row r="16" ht="13" spans="1:68">
-      <c r="A16" s="103" t="s">
+      <c r="A16" s="104" t="s">
         <v>113</v>
       </c>
       <c r="B16" s="25"/>
@@ -5962,7 +5966,7 @@
       <c r="BP16" s="25"/>
     </row>
     <row r="17" ht="13" spans="1:68">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="104" t="s">
         <v>114</v>
       </c>
       <c r="B17" s="25"/>
@@ -6033,7 +6037,7 @@
       <c r="BP17" s="25"/>
     </row>
     <row r="18" ht="13" spans="1:68">
-      <c r="A18" s="103" t="s">
+      <c r="A18" s="104" t="s">
         <v>115</v>
       </c>
       <c r="B18" s="25"/>
@@ -6104,7 +6108,7 @@
       <c r="BP18" s="25"/>
     </row>
     <row r="19" ht="13" spans="1:68">
-      <c r="A19" s="103" t="s">
+      <c r="A19" s="104" t="s">
         <v>116</v>
       </c>
       <c r="B19" s="25"/>
@@ -6175,7 +6179,7 @@
       <c r="BP19" s="25"/>
     </row>
     <row r="20" ht="13" spans="1:68">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="104" t="s">
         <v>117</v>
       </c>
       <c r="B20" s="25"/>
@@ -6246,7 +6250,7 @@
       <c r="BP20" s="25"/>
     </row>
     <row r="21" ht="13" spans="1:68">
-      <c r="A21" s="103" t="s">
+      <c r="A21" s="104" t="s">
         <v>118</v>
       </c>
       <c r="B21" s="25"/>
@@ -6317,7 +6321,7 @@
       <c r="BP21" s="25"/>
     </row>
     <row r="22" ht="13" spans="1:68">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="104" t="s">
         <v>119</v>
       </c>
       <c r="B22" s="25"/>
@@ -6388,7 +6392,7 @@
       <c r="BP22" s="25"/>
     </row>
     <row r="23" ht="13" spans="1:68">
-      <c r="A23" s="103" t="s">
+      <c r="A23" s="104" t="s">
         <v>120</v>
       </c>
       <c r="B23" s="25"/>
@@ -6459,7 +6463,7 @@
       <c r="BP23" s="25"/>
     </row>
     <row r="24" ht="13" spans="1:68">
-      <c r="A24" s="103" t="s">
+      <c r="A24" s="104" t="s">
         <v>121</v>
       </c>
       <c r="B24" s="25"/>
@@ -6530,7 +6534,7 @@
       <c r="BP24" s="25"/>
     </row>
     <row r="25" ht="13" spans="1:68">
-      <c r="A25" s="103" t="s">
+      <c r="A25" s="104" t="s">
         <v>122</v>
       </c>
       <c r="B25" s="25"/>
@@ -6601,7 +6605,7 @@
       <c r="BP25" s="25"/>
     </row>
     <row r="26" ht="13" spans="1:68">
-      <c r="A26" s="103" t="s">
+      <c r="A26" s="104" t="s">
         <v>123</v>
       </c>
       <c r="B26" s="25"/>
@@ -6672,7 +6676,7 @@
       <c r="BP26" s="25"/>
     </row>
     <row r="27" ht="13" spans="1:68">
-      <c r="A27" s="103" t="s">
+      <c r="A27" s="104" t="s">
         <v>124</v>
       </c>
       <c r="B27" s="25"/>
@@ -6743,7 +6747,7 @@
       <c r="BP27" s="25"/>
     </row>
     <row r="28" ht="13" spans="1:68">
-      <c r="A28" s="103" t="s">
+      <c r="A28" s="104" t="s">
         <v>125</v>
       </c>
       <c r="B28" s="25"/>
@@ -6814,7 +6818,7 @@
       <c r="BP28" s="25"/>
     </row>
     <row r="29" ht="13" spans="1:68">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>126</v>
       </c>
       <c r="B29" s="25"/>
@@ -6885,7 +6889,7 @@
       <c r="BP29" s="25"/>
     </row>
     <row r="30" ht="13" spans="1:68">
-      <c r="A30" s="103" t="s">
+      <c r="A30" s="104" t="s">
         <v>127</v>
       </c>
       <c r="B30" s="25"/>
@@ -6956,7 +6960,7 @@
       <c r="BP30" s="25"/>
     </row>
     <row r="31" ht="13" spans="1:68">
-      <c r="A31" s="103" t="s">
+      <c r="A31" s="104" t="s">
         <v>128</v>
       </c>
       <c r="B31" s="25"/>
@@ -7027,7 +7031,7 @@
       <c r="BP31" s="25"/>
     </row>
     <row r="32" ht="13" spans="1:68">
-      <c r="A32" s="103" t="s">
+      <c r="A32" s="104" t="s">
         <v>129</v>
       </c>
       <c r="B32" s="25"/>
@@ -7098,7 +7102,7 @@
       <c r="BP32" s="25"/>
     </row>
     <row r="33" ht="13" spans="1:68">
-      <c r="A33" s="103" t="s">
+      <c r="A33" s="104" t="s">
         <v>130</v>
       </c>
       <c r="B33" s="25"/>
@@ -7169,7 +7173,7 @@
       <c r="BP33" s="25"/>
     </row>
     <row r="34" ht="13" spans="1:68">
-      <c r="A34" s="103" t="s">
+      <c r="A34" s="104" t="s">
         <v>131</v>
       </c>
       <c r="B34" s="25"/>
@@ -7240,7 +7244,7 @@
       <c r="BP34" s="25"/>
     </row>
     <row r="35" ht="13" spans="1:68">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="104" t="s">
         <v>132</v>
       </c>
       <c r="B35" s="25"/>
@@ -7311,7 +7315,7 @@
       <c r="BP35" s="25"/>
     </row>
     <row r="36" ht="13" spans="1:68">
-      <c r="A36" s="103" t="s">
+      <c r="A36" s="104" t="s">
         <v>133</v>
       </c>
       <c r="B36" s="25"/>
@@ -7382,7 +7386,7 @@
       <c r="BP36" s="25"/>
     </row>
     <row r="37" ht="13" spans="1:68">
-      <c r="A37" s="103" t="s">
+      <c r="A37" s="104" t="s">
         <v>134</v>
       </c>
       <c r="B37" s="25"/>
@@ -7453,7 +7457,7 @@
       <c r="BP37" s="25"/>
     </row>
     <row r="38" ht="13" spans="1:68">
-      <c r="A38" s="103" t="s">
+      <c r="A38" s="104" t="s">
         <v>135</v>
       </c>
       <c r="B38" s="25"/>
@@ -7524,7 +7528,7 @@
       <c r="BP38" s="25"/>
     </row>
     <row r="39" ht="13" spans="1:68">
-      <c r="A39" s="103" t="s">
+      <c r="A39" s="104" t="s">
         <v>136</v>
       </c>
       <c r="B39" s="25"/>
@@ -7595,7 +7599,7 @@
       <c r="BP39" s="25"/>
     </row>
     <row r="40" ht="13" spans="1:68">
-      <c r="A40" s="103" t="s">
+      <c r="A40" s="104" t="s">
         <v>137</v>
       </c>
       <c r="B40" s="25"/>
@@ -7666,7 +7670,7 @@
       <c r="BP40" s="25"/>
     </row>
     <row r="41" ht="13" spans="1:68">
-      <c r="A41" s="103" t="s">
+      <c r="A41" s="104" t="s">
         <v>138</v>
       </c>
       <c r="B41" s="25"/>
@@ -7737,7 +7741,7 @@
       <c r="BP41" s="25"/>
     </row>
     <row r="42" ht="13" spans="1:68">
-      <c r="A42" s="103" t="s">
+      <c r="A42" s="104" t="s">
         <v>139</v>
       </c>
       <c r="B42" s="25"/>
@@ -7808,7 +7812,7 @@
       <c r="BP42" s="25"/>
     </row>
     <row r="43" ht="13" spans="1:68">
-      <c r="A43" s="103" t="s">
+      <c r="A43" s="104" t="s">
         <v>140</v>
       </c>
       <c r="B43" s="25"/>
@@ -7879,7 +7883,7 @@
       <c r="BP43" s="25"/>
     </row>
     <row r="44" ht="13" spans="1:68">
-      <c r="A44" s="103" t="s">
+      <c r="A44" s="104" t="s">
         <v>141</v>
       </c>
       <c r="B44" s="25"/>
@@ -7950,7 +7954,7 @@
       <c r="BP44" s="25"/>
     </row>
     <row r="45" ht="13" spans="1:68">
-      <c r="A45" s="103" t="s">
+      <c r="A45" s="104" t="s">
         <v>142</v>
       </c>
       <c r="B45" s="25"/>
@@ -8021,7 +8025,7 @@
       <c r="BP45" s="25"/>
     </row>
     <row r="46" ht="13" spans="1:68">
-      <c r="A46" s="103" t="s">
+      <c r="A46" s="104" t="s">
         <v>143</v>
       </c>
       <c r="B46" s="25"/>
@@ -8092,7 +8096,7 @@
       <c r="BP46" s="25"/>
     </row>
     <row r="47" ht="13" spans="1:68">
-      <c r="A47" s="103" t="s">
+      <c r="A47" s="104" t="s">
         <v>144</v>
       </c>
       <c r="B47" s="25"/>
@@ -8163,7 +8167,7 @@
       <c r="BP47" s="25"/>
     </row>
     <row r="48" ht="13" spans="1:68">
-      <c r="A48" s="103" t="s">
+      <c r="A48" s="104" t="s">
         <v>145</v>
       </c>
       <c r="B48" s="25"/>
@@ -8234,7 +8238,7 @@
       <c r="BP48" s="25"/>
     </row>
     <row r="49" ht="13" spans="1:68">
-      <c r="A49" s="103" t="s">
+      <c r="A49" s="104" t="s">
         <v>146</v>
       </c>
       <c r="B49" s="25"/>
@@ -8305,7 +8309,7 @@
       <c r="BP49" s="25"/>
     </row>
     <row r="50" ht="13" spans="1:68">
-      <c r="A50" s="103" t="s">
+      <c r="A50" s="104" t="s">
         <v>147</v>
       </c>
       <c r="B50" s="25"/>
@@ -8376,7 +8380,7 @@
       <c r="BP50" s="25"/>
     </row>
     <row r="51" ht="13" spans="1:68">
-      <c r="A51" s="103" t="s">
+      <c r="A51" s="104" t="s">
         <v>148</v>
       </c>
       <c r="B51" s="25"/>
@@ -8447,7 +8451,7 @@
       <c r="BP51" s="25"/>
     </row>
     <row r="52" ht="13" spans="1:68">
-      <c r="A52" s="103" t="s">
+      <c r="A52" s="104" t="s">
         <v>149</v>
       </c>
       <c r="B52" s="25"/>
@@ -8518,7 +8522,7 @@
       <c r="BP52" s="25"/>
     </row>
     <row r="53" ht="13" spans="1:68">
-      <c r="A53" s="103" t="s">
+      <c r="A53" s="104" t="s">
         <v>150</v>
       </c>
       <c r="B53" s="25"/>
@@ -8589,7 +8593,7 @@
       <c r="BP53" s="25"/>
     </row>
     <row r="54" ht="13" spans="1:68">
-      <c r="A54" s="103" t="s">
+      <c r="A54" s="104" t="s">
         <v>151</v>
       </c>
       <c r="B54" s="25"/>
@@ -8660,7 +8664,7 @@
       <c r="BP54" s="25"/>
     </row>
     <row r="55" ht="13" spans="1:68">
-      <c r="A55" s="103" t="s">
+      <c r="A55" s="104" t="s">
         <v>152</v>
       </c>
       <c r="B55" s="25"/>
@@ -8731,7 +8735,7 @@
       <c r="BP55" s="25"/>
     </row>
     <row r="56" ht="13" spans="1:68">
-      <c r="A56" s="103" t="s">
+      <c r="A56" s="104" t="s">
         <v>153</v>
       </c>
       <c r="B56" s="25"/>
@@ -8802,7 +8806,7 @@
       <c r="BP56" s="25"/>
     </row>
     <row r="57" ht="13" spans="1:68">
-      <c r="A57" s="103" t="s">
+      <c r="A57" s="104" t="s">
         <v>154</v>
       </c>
       <c r="B57" s="25"/>
@@ -8873,7 +8877,7 @@
       <c r="BP57" s="25"/>
     </row>
     <row r="58" ht="13" spans="1:68">
-      <c r="A58" s="103" t="s">
+      <c r="A58" s="104" t="s">
         <v>155</v>
       </c>
       <c r="B58" s="25"/>
@@ -8944,7 +8948,7 @@
       <c r="BP58" s="25"/>
     </row>
     <row r="59" ht="13" spans="1:68">
-      <c r="A59" s="103" t="s">
+      <c r="A59" s="104" t="s">
         <v>156</v>
       </c>
       <c r="B59" s="25"/>
@@ -9015,7 +9019,7 @@
       <c r="BP59" s="25"/>
     </row>
     <row r="60" ht="13" spans="1:68">
-      <c r="A60" s="103" t="s">
+      <c r="A60" s="104" t="s">
         <v>157</v>
       </c>
       <c r="B60" s="25"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
@@ -3665,11 +3665,11 @@
   <dimension ref="A1:DF553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AT13" sqref="AT13"/>
+      <selection pane="bottomRight" activeCell="AS11" sqref="AS11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -5583,8 +5583,12 @@
       </c>
       <c r="AD11" s="24"/>
       <c r="AE11" s="24"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="24"/>
+      <c r="AF11" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG11" s="57" t="s">
+        <v>107</v>
+      </c>
       <c r="AH11" s="24">
         <v>25.59</v>
       </c>

--- a/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/SEAP交易策略.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
   <si>
     <t>交易计划</t>
   </si>
@@ -1206,32 +1206,6 @@
   </si>
   <si>
     <t>减少明显，空A头几乎被榨干</t>
-  </si>
-  <si>
-    <t>000026</t>
-  </si>
-  <si>
-    <r>
-      <t>002585(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>双星新材</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <t>000027</t>
@@ -3662,14 +3636,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:DF553"/>
+  <dimension ref="A1:DF552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AS11" sqref="AS11"/>
+      <selection pane="bottomRight" activeCell="AQ11" sqref="AQ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -5835,130 +5809,51 @@
       <c r="A13" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="25">
-        <v>44531</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="24">
-        <v>20.36</v>
-      </c>
-      <c r="E13" s="24">
-        <v>21.97</v>
-      </c>
-      <c r="F13" s="24">
-        <v>25.76</v>
-      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="24">
-        <v>27.4</v>
-      </c>
-      <c r="I13" s="24">
-        <v>7.98</v>
-      </c>
-      <c r="J13" s="24">
-        <v>30.1</v>
-      </c>
-      <c r="K13" s="39">
-        <f>(H13-I13)/I13</f>
-        <v>2.43358395989975</v>
-      </c>
-      <c r="L13" s="39">
-        <f>(J13-H13)/J13</f>
-        <v>0.089700996677741</v>
-      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
       <c r="M13" s="24"/>
-      <c r="N13" s="24">
-        <v>21.96</v>
-      </c>
-      <c r="O13" s="24">
-        <v>28.5</v>
-      </c>
-      <c r="P13" s="24">
-        <v>25.47</v>
-      </c>
-      <c r="Q13" s="24">
-        <v>28.82</v>
-      </c>
-      <c r="R13" s="24">
-        <v>26.31</v>
-      </c>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
       <c r="S13" s="24"/>
       <c r="T13" s="24"/>
       <c r="U13" s="24"/>
       <c r="V13" s="24"/>
       <c r="W13" s="24"/>
       <c r="X13" s="24"/>
-      <c r="Y13" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z13" s="47">
-        <f>(J13-N13)/J13</f>
-        <v>0.270431893687708</v>
-      </c>
-      <c r="AA13" s="47">
-        <f>(O13-P13)/O13</f>
-        <v>0.106315789473684</v>
-      </c>
-      <c r="AB13" s="47">
-        <f>(Q13-R13)/Q13</f>
-        <v>0.0870922970159612</v>
-      </c>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
       <c r="AC13" s="24"/>
       <c r="AD13" s="24"/>
       <c r="AE13" s="24"/>
-      <c r="AF13" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG13" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH13" s="24">
-        <v>29.99</v>
-      </c>
-      <c r="AI13" s="24">
-        <v>22.81</v>
-      </c>
-      <c r="AJ13" s="17">
-        <f>AH13-AI13</f>
-        <v>7.18</v>
-      </c>
-      <c r="AK13" s="24">
-        <v>28.82</v>
-      </c>
-      <c r="AL13" s="24">
-        <v>26.31</v>
-      </c>
-      <c r="AM13" s="24">
-        <v>32.08</v>
-      </c>
-      <c r="AN13" s="17">
-        <f>(AK13-AL13)*100</f>
-        <v>251</v>
-      </c>
-      <c r="AO13" s="16">
-        <f>FLOOR(300/(AK13-AL13),100)</f>
-        <v>100</v>
-      </c>
-      <c r="AP13" s="60">
-        <f>(AM13-AK13)/(AK13-AL13)</f>
-        <v>1.29880478087649</v>
-      </c>
-      <c r="AQ13" s="39">
-        <f>(AK13-AL13)/AK13</f>
-        <v>0.0870922970159612</v>
-      </c>
-      <c r="AR13" s="39">
-        <f>(AM13-AK13)/AK13</f>
-        <v>0.113115891741846</v>
-      </c>
-      <c r="AS13" s="24">
-        <v>24.94</v>
-      </c>
-      <c r="AT13" s="57" t="s">
-        <v>89</v>
-      </c>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24"/>
+      <c r="AK13" s="24"/>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="24"/>
+      <c r="AQ13" s="24"/>
+      <c r="AR13" s="24"/>
+      <c r="AS13" s="70"/>
+      <c r="AT13" s="24"/>
       <c r="AU13" s="24"/>
       <c r="AV13" s="24"/>
       <c r="AW13" s="24"/>
@@ -5985,7 +5880,7 @@
     </row>
     <row r="14" ht="13" spans="1:69">
       <c r="A14" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -6058,7 +5953,7 @@
     </row>
     <row r="15" ht="13" spans="1:69">
       <c r="A15" s="97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -6131,7 +6026,7 @@
     </row>
     <row r="16" ht="13" spans="1:69">
       <c r="A16" s="97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
@@ -6204,7 +6099,7 @@
     </row>
     <row r="17" ht="13" spans="1:69">
       <c r="A17" s="97" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
@@ -6277,7 +6172,7 @@
     </row>
     <row r="18" ht="13" spans="1:69">
       <c r="A18" s="97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
@@ -6350,7 +6245,7 @@
     </row>
     <row r="19" ht="13" spans="1:69">
       <c r="A19" s="97" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
@@ -6423,7 +6318,7 @@
     </row>
     <row r="20" ht="13" spans="1:69">
       <c r="A20" s="97" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -6494,82 +6389,80 @@
       <c r="BP20" s="24"/>
       <c r="BQ20" s="70"/>
     </row>
-    <row r="21" ht="13" spans="1:69">
-      <c r="A21" s="97" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="24"/>
-      <c r="AH21" s="24"/>
-      <c r="AI21" s="24"/>
-      <c r="AJ21" s="24"/>
-      <c r="AK21" s="24"/>
-      <c r="AL21" s="24"/>
-      <c r="AM21" s="24"/>
-      <c r="AN21" s="24"/>
-      <c r="AO21" s="24"/>
-      <c r="AP21" s="24"/>
-      <c r="AQ21" s="24"/>
-      <c r="AR21" s="24"/>
-      <c r="AS21" s="70"/>
-      <c r="AT21" s="24"/>
-      <c r="AU21" s="24"/>
-      <c r="AV21" s="24"/>
-      <c r="AW21" s="24"/>
-      <c r="AX21" s="24"/>
-      <c r="AY21" s="24"/>
-      <c r="AZ21" s="24"/>
-      <c r="BA21" s="24"/>
-      <c r="BB21" s="24"/>
-      <c r="BC21" s="24"/>
-      <c r="BD21" s="24"/>
-      <c r="BE21" s="24"/>
-      <c r="BF21" s="24"/>
-      <c r="BG21" s="24"/>
-      <c r="BH21" s="24"/>
-      <c r="BI21" s="24"/>
-      <c r="BJ21" s="24"/>
-      <c r="BK21" s="24"/>
-      <c r="BL21" s="24"/>
-      <c r="BM21" s="24"/>
-      <c r="BN21" s="24"/>
-      <c r="BO21" s="24"/>
-      <c r="BP21" s="24"/>
-      <c r="BQ21" s="70"/>
+    <row r="21" ht="13" spans="1:68">
+      <c r="A21" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27"/>
+      <c r="AP21" s="27"/>
+      <c r="AQ21" s="27"/>
+      <c r="AR21" s="27"/>
+      <c r="AT21" s="27"/>
+      <c r="AU21" s="27"/>
+      <c r="AV21" s="27"/>
+      <c r="AW21" s="27"/>
+      <c r="AX21" s="27"/>
+      <c r="AY21" s="27"/>
+      <c r="AZ21" s="27"/>
+      <c r="BA21" s="27"/>
+      <c r="BB21" s="27"/>
+      <c r="BC21" s="27"/>
+      <c r="BD21" s="27"/>
+      <c r="BE21" s="27"/>
+      <c r="BF21" s="27"/>
+      <c r="BG21" s="27"/>
+      <c r="BH21" s="27"/>
+      <c r="BI21" s="27"/>
+      <c r="BJ21" s="27"/>
+      <c r="BK21" s="27"/>
+      <c r="BL21" s="27"/>
+      <c r="BM21" s="27"/>
+      <c r="BN21" s="27"/>
+      <c r="BO21" s="27"/>
+      <c r="BP21" s="27"/>
     </row>
     <row r="22" ht="13" spans="1:68">
       <c r="A22" s="98" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
@@ -6640,7 +6533,7 @@
     </row>
     <row r="23" ht="13" spans="1:68">
       <c r="A23" s="98" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -6711,7 +6604,7 @@
     </row>
     <row r="24" ht="13" spans="1:68">
       <c r="A24" s="98" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -6782,7 +6675,7 @@
     </row>
     <row r="25" ht="13" spans="1:68">
       <c r="A25" s="98" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -6853,7 +6746,7 @@
     </row>
     <row r="26" ht="13" spans="1:68">
       <c r="A26" s="98" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -6924,7 +6817,7 @@
     </row>
     <row r="27" ht="13" spans="1:68">
       <c r="A27" s="98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -6995,7 +6888,7 @@
     </row>
     <row r="28" ht="13" spans="1:68">
       <c r="A28" s="98" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -7066,7 +6959,7 @@
     </row>
     <row r="29" ht="13" spans="1:68">
       <c r="A29" s="98" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -7137,7 +7030,7 @@
     </row>
     <row r="30" ht="13" spans="1:68">
       <c r="A30" s="98" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -7208,7 +7101,7 @@
     </row>
     <row r="31" ht="13" spans="1:68">
       <c r="A31" s="98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -7279,7 +7172,7 @@
     </row>
     <row r="32" ht="13" spans="1:68">
       <c r="A32" s="98" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -7350,7 +7243,7 @@
     </row>
     <row r="33" ht="13" spans="1:68">
       <c r="A33" s="98" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
@@ -7421,7 +7314,7 @@
     </row>
     <row r="34" ht="13" spans="1:68">
       <c r="A34" s="98" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
@@ -7492,7 +7385,7 @@
     </row>
     <row r="35" ht="13" spans="1:68">
       <c r="A35" s="98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -7563,7 +7456,7 @@
     </row>
     <row r="36" ht="13" spans="1:68">
       <c r="A36" s="98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
@@ -7634,7 +7527,7 @@
     </row>
     <row r="37" ht="13" spans="1:68">
       <c r="A37" s="98" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -7705,7 +7598,7 @@
     </row>
     <row r="38" ht="13" spans="1:68">
       <c r="A38" s="98" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
@@ -7776,7 +7669,7 @@
     </row>
     <row r="39" ht="13" spans="1:68">
       <c r="A39" s="98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
@@ -7847,7 +7740,7 @@
     </row>
     <row r="40" ht="13" spans="1:68">
       <c r="A40" s="98" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -7918,7 +7811,7 @@
     </row>
     <row r="41" ht="13" spans="1:68">
       <c r="A41" s="98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -7989,7 +7882,7 @@
     </row>
     <row r="42" ht="13" spans="1:68">
       <c r="A42" s="98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
@@ -8060,7 +7953,7 @@
     </row>
     <row r="43" ht="13" spans="1:68">
       <c r="A43" s="98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -8131,7 +8024,7 @@
     </row>
     <row r="44" ht="13" spans="1:68">
       <c r="A44" s="98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -8202,7 +8095,7 @@
     </row>
     <row r="45" ht="13" spans="1:68">
       <c r="A45" s="98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
@@ -8273,7 +8166,7 @@
     </row>
     <row r="46" ht="13" spans="1:68">
       <c r="A46" s="98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
@@ -8344,7 +8237,7 @@
     </row>
     <row r="47" ht="13" spans="1:68">
       <c r="A47" s="98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
@@ -8415,7 +8308,7 @@
     </row>
     <row r="48" ht="13" spans="1:68">
       <c r="A48" s="98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
@@ -8486,7 +8379,7 @@
     </row>
     <row r="49" ht="13" spans="1:68">
       <c r="A49" s="98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
@@ -8557,7 +8450,7 @@
     </row>
     <row r="50" ht="13" spans="1:68">
       <c r="A50" s="98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
@@ -8628,7 +8521,7 @@
     </row>
     <row r="51" ht="13" spans="1:68">
       <c r="A51" s="98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -8699,7 +8592,7 @@
     </row>
     <row r="52" ht="13" spans="1:68">
       <c r="A52" s="98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -8770,7 +8663,7 @@
     </row>
     <row r="53" ht="13" spans="1:68">
       <c r="A53" s="98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
@@ -8841,7 +8734,7 @@
     </row>
     <row r="54" ht="13" spans="1:68">
       <c r="A54" s="98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
@@ -8912,7 +8805,7 @@
     </row>
     <row r="55" ht="13" spans="1:68">
       <c r="A55" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
@@ -8981,10 +8874,8 @@
       <c r="BO55" s="27"/>
       <c r="BP55" s="27"/>
     </row>
-    <row r="56" ht="13" spans="1:68">
-      <c r="A56" s="98" t="s">
-        <v>159</v>
-      </c>
+    <row r="56" spans="1:68">
+      <c r="A56" s="27"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
@@ -37758,50 +37649,6 @@
     </row>
     <row r="473" spans="1:68">
       <c r="A473" s="27"/>
-      <c r="B473" s="27"/>
-      <c r="C473" s="27"/>
-      <c r="D473" s="27"/>
-      <c r="E473" s="27"/>
-      <c r="F473" s="27"/>
-      <c r="G473" s="27"/>
-      <c r="H473" s="27"/>
-      <c r="I473" s="27"/>
-      <c r="J473" s="27"/>
-      <c r="K473" s="27"/>
-      <c r="L473" s="27"/>
-      <c r="M473" s="27"/>
-      <c r="N473" s="27"/>
-      <c r="O473" s="27"/>
-      <c r="P473" s="27"/>
-      <c r="Q473" s="27"/>
-      <c r="R473" s="27"/>
-      <c r="S473" s="27"/>
-      <c r="T473" s="27"/>
-      <c r="U473" s="27"/>
-      <c r="V473" s="27"/>
-      <c r="W473" s="27"/>
-      <c r="X473" s="27"/>
-      <c r="Y473" s="27"/>
-      <c r="Z473" s="27"/>
-      <c r="AA473" s="27"/>
-      <c r="AB473" s="27"/>
-      <c r="AC473" s="27"/>
-      <c r="AD473" s="27"/>
-      <c r="AE473" s="27"/>
-      <c r="AF473" s="27"/>
-      <c r="AG473" s="27"/>
-      <c r="AH473" s="27"/>
-      <c r="AI473" s="27"/>
-      <c r="AJ473" s="27"/>
-      <c r="AK473" s="27"/>
-      <c r="AL473" s="27"/>
-      <c r="AM473" s="27"/>
-      <c r="AN473" s="27"/>
-      <c r="AO473" s="27"/>
-      <c r="AP473" s="27"/>
-      <c r="AQ473" s="27"/>
-      <c r="AR473" s="27"/>
-      <c r="AT473" s="27"/>
       <c r="AU473" s="27"/>
       <c r="AV473" s="27"/>
       <c r="AW473" s="27"/>
@@ -37975,30 +37822,8 @@
       <c r="BO479" s="27"/>
       <c r="BP479" s="27"/>
     </row>
-    <row r="480" spans="1:68">
+    <row r="480" spans="1:1">
       <c r="A480" s="27"/>
-      <c r="AU480" s="27"/>
-      <c r="AV480" s="27"/>
-      <c r="AW480" s="27"/>
-      <c r="AX480" s="27"/>
-      <c r="AY480" s="27"/>
-      <c r="AZ480" s="27"/>
-      <c r="BA480" s="27"/>
-      <c r="BB480" s="27"/>
-      <c r="BC480" s="27"/>
-      <c r="BD480" s="27"/>
-      <c r="BE480" s="27"/>
-      <c r="BF480" s="27"/>
-      <c r="BG480" s="27"/>
-      <c r="BH480" s="27"/>
-      <c r="BI480" s="27"/>
-      <c r="BJ480" s="27"/>
-      <c r="BK480" s="27"/>
-      <c r="BL480" s="27"/>
-      <c r="BM480" s="27"/>
-      <c r="BN480" s="27"/>
-      <c r="BO480" s="27"/>
-      <c r="BP480" s="27"/>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" s="27"/>
@@ -38215,9 +38040,6 @@
     </row>
     <row r="552" spans="1:1">
       <c r="A552" s="27"/>
-    </row>
-    <row r="553" spans="1:1">
-      <c r="A553" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="110">
@@ -38365,31 +38187,31 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:99">
       <c r="A1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="CU1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <f>SUM(交易计划及执行表!$BA4:$BA10)-SUM(IF(交易计划及执行表!$BF4&gt;0,VLOOKUP(交易计划及执行表!$A4,交易计划及执行表!A4:BL996,53,FALSE)))</f>
+        <f>SUM(交易计划及执行表!$BA4:$BA10)-SUM(IF(交易计划及执行表!$BF4&gt;0,VLOOKUP(交易计划及执行表!$A4,交易计划及执行表!A4:BL995,53,FALSE)))</f>
         <v>1173.25356</v>
       </c>
       <c r="F2" s="3">
-        <f>SUM(IF(交易计划及执行表!$BF4&gt;0,VLOOKUP(交易计划及执行表!$A4,交易计划及执行表!A4:BL996,53,FALSE),0))</f>
+        <f>SUM(IF(交易计划及执行表!$BF4&gt;0,VLOOKUP(交易计划及执行表!$A4,交易计划及执行表!A4:BL995,53,FALSE),0))</f>
         <v>309</v>
       </c>
     </row>
